--- a/dataset-2/2-with_data_augmentation/5-GENETIC/genetic_augmented_target=1.xlsx
+++ b/dataset-2/2-with_data_augmentation/5-GENETIC/genetic_augmented_target=1.xlsx
@@ -25,22 +25,22 @@
     <t>age</t>
   </si>
   <si>
-    <t>infection_department</t>
+    <t>evolution_time</t>
   </si>
   <si>
     <t>height</t>
   </si>
   <si>
-    <t>evolution_time</t>
-  </si>
-  <si>
     <t>number_active_injuries</t>
   </si>
   <si>
-    <t>ulcer_area</t>
+    <t>glucantime_dosage</t>
   </si>
   <si>
-    <t>glucantime_dosage</t>
+    <t>infection_department</t>
+  </si>
+  <si>
+    <t>ulcer_area</t>
   </si>
   <si>
     <t>cure_or_fail</t>
@@ -441,31 +441,31 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>0.03092452893652164</v>
+        <v>0.684546876933408</v>
       </c>
       <c r="B2">
-        <v>0.09457958666041955</v>
+        <v>0.4112526277696469</v>
       </c>
       <c r="C2">
-        <v>0.1364934535800321</v>
+        <v>0.3673031114778177</v>
       </c>
       <c r="D2">
-        <v>0.02423948004728804</v>
+        <v>0.002854908627204552</v>
       </c>
       <c r="E2">
-        <v>0.3289612840904249</v>
+        <v>0.2435665314072423</v>
       </c>
       <c r="F2">
-        <v>0.1117922197732336</v>
+        <v>0.05825920896914154</v>
       </c>
       <c r="G2">
-        <v>0.5615498624600666</v>
+        <v>0.146856325918403</v>
       </c>
       <c r="H2">
-        <v>0.1676792352743418</v>
+        <v>0.3357779312094638</v>
       </c>
       <c r="I2">
-        <v>0.7884988509423262</v>
+        <v>0.05248298890416939</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -473,31 +473,31 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>0.4810919195319107</v>
+        <v>0.8655096396582554</v>
       </c>
       <c r="B3">
-        <v>0.00598486051274133</v>
+        <v>0.2352737638642007</v>
       </c>
       <c r="C3">
-        <v>0.2625242803979957</v>
+        <v>0.1677130736029216</v>
       </c>
       <c r="D3">
-        <v>0.4598820183847718</v>
+        <v>0.009021306291051148</v>
       </c>
       <c r="E3">
-        <v>0.4200161660445422</v>
+        <v>0.3444639283305884</v>
       </c>
       <c r="F3">
-        <v>0.1142075927762495</v>
+        <v>0.1505880783792846</v>
       </c>
       <c r="G3">
-        <v>0.2188667918934019</v>
+        <v>0.0940072517972336</v>
       </c>
       <c r="H3">
-        <v>0.3668329739481004</v>
+        <v>0.02208854004893084</v>
       </c>
       <c r="I3">
-        <v>0.4261947774822831</v>
+        <v>0.02626286049575331</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -505,31 +505,31 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>0.5510498391331138</v>
+        <v>0.5188781574315083</v>
       </c>
       <c r="B4">
-        <v>0.1215864733970992</v>
+        <v>0.1383086061373694</v>
       </c>
       <c r="C4">
-        <v>0.4411384484577916</v>
+        <v>0.1482177306265542</v>
       </c>
       <c r="D4">
-        <v>0.3926835394060727</v>
+        <v>0.01415832892499159</v>
       </c>
       <c r="E4">
-        <v>0.4894849571987269</v>
+        <v>0.5838684981127695</v>
       </c>
       <c r="F4">
-        <v>0.1550456710159753</v>
+        <v>0.08553418883005921</v>
       </c>
       <c r="G4">
-        <v>0.5863811349609034</v>
+        <v>0.09014775934489649</v>
       </c>
       <c r="H4">
-        <v>0.5419106314852666</v>
+        <v>0.2182243810825521</v>
       </c>
       <c r="I4">
-        <v>0.5073990015182339</v>
+        <v>0.06501586485527991</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -537,31 +537,31 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>0.7542414499235368</v>
+        <v>0.09274724654978805</v>
       </c>
       <c r="B5">
-        <v>0.1601936303592213</v>
+        <v>0.4273499478308879</v>
       </c>
       <c r="C5">
-        <v>0.28869427665765</v>
+        <v>0.3866976797471057</v>
       </c>
       <c r="D5">
-        <v>0.6430709043711926</v>
+        <v>0.01322773201666341</v>
       </c>
       <c r="E5">
-        <v>0.845803629537524</v>
+        <v>0.3493444384824135</v>
       </c>
       <c r="F5">
-        <v>0.3444580173637563</v>
+        <v>0.1803196095454516</v>
       </c>
       <c r="G5">
-        <v>0.371966755682132</v>
+        <v>0.1130117816981281</v>
       </c>
       <c r="H5">
-        <v>0.4881701754483962</v>
+        <v>0.218039836742249</v>
       </c>
       <c r="I5">
-        <v>0.8009327244486465</v>
+        <v>0.08389006956733329</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -569,31 +569,31 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
-        <v>0.4313252559166812</v>
+        <v>0.9759745165641839</v>
       </c>
       <c r="B6">
-        <v>0.253620897779754</v>
+        <v>0.3018329784621661</v>
       </c>
       <c r="C6">
-        <v>0.2699790212166039</v>
+        <v>0.3864531078353568</v>
       </c>
       <c r="D6">
-        <v>0.2289150550420029</v>
+        <v>8.601368158949688E-05</v>
       </c>
       <c r="E6">
-        <v>0.7527674613878513</v>
+        <v>0.4061792418882378</v>
       </c>
       <c r="F6">
-        <v>0.3314700401858551</v>
+        <v>0.3565915391800304</v>
       </c>
       <c r="G6">
-        <v>0.08675219934360838</v>
+        <v>0.1319583851042635</v>
       </c>
       <c r="H6">
-        <v>0.2810095098816412</v>
+        <v>0.292135038938324</v>
       </c>
       <c r="I6">
-        <v>0.4808143430459835</v>
+        <v>0.05107639257655594</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -601,31 +601,31 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
-        <v>0.6833961155783931</v>
+        <v>0.4848661473649268</v>
       </c>
       <c r="B7">
-        <v>0.1675515151240504</v>
+        <v>0.1623483106314216</v>
       </c>
       <c r="C7">
-        <v>0.2670418608072917</v>
+        <v>0.2866882619675291</v>
       </c>
       <c r="D7">
-        <v>0.7681197808946365</v>
+        <v>0.00700198454617928</v>
       </c>
       <c r="E7">
-        <v>0.4856431397916273</v>
+        <v>0.4034300285473119</v>
       </c>
       <c r="F7">
-        <v>0.09989081632852236</v>
+        <v>0.5826710413887183</v>
       </c>
       <c r="G7">
-        <v>0.1184011193832253</v>
+        <v>0.1150257115672623</v>
       </c>
       <c r="H7">
-        <v>0.2857563600831496</v>
+        <v>0.131187177058266</v>
       </c>
       <c r="I7">
-        <v>0.4840822996783922</v>
+        <v>0.03928774716903523</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -633,31 +633,31 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>0.4060709672105969</v>
+        <v>0.9334019532390807</v>
       </c>
       <c r="B8">
-        <v>0.06029813617699797</v>
+        <v>0.008887556172196553</v>
       </c>
       <c r="C8">
-        <v>0.4350459526060653</v>
+        <v>0.333158515058811</v>
       </c>
       <c r="D8">
-        <v>0.5212549165802118</v>
+        <v>0.01960216350009147</v>
       </c>
       <c r="E8">
-        <v>0.5895597098801171</v>
+        <v>0.5722761179990714</v>
       </c>
       <c r="F8">
-        <v>0.2053606360133558</v>
+        <v>0.1775334485994259</v>
       </c>
       <c r="G8">
-        <v>0.5891503401210226</v>
+        <v>0.1258566551593903</v>
       </c>
       <c r="H8">
-        <v>0.2793281597991987</v>
+        <v>0.1168440006354097</v>
       </c>
       <c r="I8">
-        <v>0.4279514460534277</v>
+        <v>0.00967393499782785</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -665,31 +665,31 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
-        <v>0.05372153438629323</v>
+        <v>0.2452459447365466</v>
       </c>
       <c r="B9">
-        <v>0.1046099500171755</v>
+        <v>0.4164357136881596</v>
       </c>
       <c r="C9">
-        <v>0.07273966210614841</v>
+        <v>0.218780877872725</v>
       </c>
       <c r="D9">
-        <v>0.4548618223682777</v>
+        <v>0.01795630243431414</v>
       </c>
       <c r="E9">
-        <v>0.6725897996258809</v>
+        <v>0.3170762065716692</v>
       </c>
       <c r="F9">
-        <v>0.1949790513760614</v>
+        <v>0.292515495474086</v>
       </c>
       <c r="G9">
-        <v>0.3560785430723535</v>
+        <v>0.0684751255815378</v>
       </c>
       <c r="H9">
-        <v>0.5843952119759703</v>
+        <v>0.3055673272588987</v>
       </c>
       <c r="I9">
-        <v>0.4318767688910213</v>
+        <v>0.02476324778473275</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -697,31 +697,31 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
-        <v>0.7345350907192718</v>
+        <v>0.4375474789276194</v>
       </c>
       <c r="B10">
-        <v>0.01524586964021285</v>
+        <v>0.2483163041972319</v>
       </c>
       <c r="C10">
-        <v>0.1449805043412337</v>
+        <v>0.4188561166482305</v>
       </c>
       <c r="D10">
-        <v>0.4006476423450942</v>
+        <v>0.01060607429466009</v>
       </c>
       <c r="E10">
-        <v>0.8005752416994715</v>
+        <v>0.2627083378969538</v>
       </c>
       <c r="F10">
-        <v>0.05738976564019484</v>
+        <v>0.4953424647783072</v>
       </c>
       <c r="G10">
-        <v>0.2796738753600734</v>
+        <v>0.09385860122638194</v>
       </c>
       <c r="H10">
-        <v>0.2582300770659702</v>
+        <v>0.2935319375038134</v>
       </c>
       <c r="I10">
-        <v>0.685995428936276</v>
+        <v>0.03923658186294933</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -729,31 +729,31 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
-        <v>0.7718459084863042</v>
+        <v>0.9470592971310577</v>
       </c>
       <c r="B11">
-        <v>0.152823065650763</v>
+        <v>0.4014848804487235</v>
       </c>
       <c r="C11">
-        <v>0.1146127197580357</v>
+        <v>0.4362599753317917</v>
       </c>
       <c r="D11">
-        <v>0.2209864727005992</v>
+        <v>0.001827488429853714</v>
       </c>
       <c r="E11">
-        <v>0.4440992335790416</v>
+        <v>0.4631508063718505</v>
       </c>
       <c r="F11">
-        <v>0.2553494164082834</v>
+        <v>0.4382161954458227</v>
       </c>
       <c r="G11">
-        <v>0.08047396035483172</v>
+        <v>0.09587801377163967</v>
       </c>
       <c r="H11">
-        <v>0.3217069519836478</v>
+        <v>0.308687702203584</v>
       </c>
       <c r="I11">
-        <v>0.6683008955520637</v>
+        <v>0.07765907392215461</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -761,31 +761,31 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
-        <v>0.3420341311894937</v>
+        <v>0.4148041183883446</v>
       </c>
       <c r="B12">
-        <v>0.2597621309849472</v>
+        <v>0.08006678319481397</v>
       </c>
       <c r="C12">
-        <v>0.4251624154501204</v>
+        <v>0.3458881546982508</v>
       </c>
       <c r="D12">
-        <v>0.7547518181036388</v>
+        <v>0.0161273489766652</v>
       </c>
       <c r="E12">
-        <v>0.675078824454707</v>
+        <v>0.5633361622613765</v>
       </c>
       <c r="F12">
-        <v>0.3335225109473691</v>
+        <v>0.293819145789242</v>
       </c>
       <c r="G12">
-        <v>0.399024367841315</v>
+        <v>0.07598788940203167</v>
       </c>
       <c r="H12">
-        <v>0.1873064946713122</v>
+        <v>0.3217905580259409</v>
       </c>
       <c r="I12">
-        <v>0.7672790661741808</v>
+        <v>0.07039765577425346</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -793,31 +793,31 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
-        <v>0.6897698162362181</v>
+        <v>0.3141623530277975</v>
       </c>
       <c r="B13">
-        <v>0.09308303255089984</v>
+        <v>0.01236581632912304</v>
       </c>
       <c r="C13">
-        <v>0.3464373987976423</v>
+        <v>0.02028533000074828</v>
       </c>
       <c r="D13">
-        <v>0.3711280674266516</v>
+        <v>0.01911171696933923</v>
       </c>
       <c r="E13">
-        <v>0.6784452009277606</v>
+        <v>0.563145262702277</v>
       </c>
       <c r="F13">
-        <v>0.09075978776694585</v>
+        <v>0.2111754208595213</v>
       </c>
       <c r="G13">
-        <v>0.2544661590950247</v>
+        <v>0.069231609114642</v>
       </c>
       <c r="H13">
-        <v>0.01970090843610905</v>
+        <v>0.2304251846432606</v>
       </c>
       <c r="I13">
-        <v>0.6462539349095209</v>
+        <v>0.01571677280032651</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -825,31 +825,31 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <v>0.5561724032620393</v>
+        <v>0.8422899151616722</v>
       </c>
       <c r="B14">
-        <v>0.151649037515559</v>
+        <v>0.4322544973991049</v>
       </c>
       <c r="C14">
-        <v>0.3940039601014541</v>
+        <v>0.08822009753106713</v>
       </c>
       <c r="D14">
-        <v>0.7314400689203826</v>
+        <v>0.00883076164117323</v>
       </c>
       <c r="E14">
-        <v>0.2095500921834895</v>
+        <v>0.4177071232942993</v>
       </c>
       <c r="F14">
-        <v>0.2639819179988629</v>
+        <v>0.5995785322895317</v>
       </c>
       <c r="G14">
-        <v>0.5956171544016039</v>
+        <v>0.1218068635493403</v>
       </c>
       <c r="H14">
-        <v>0.1459706113642563</v>
+        <v>0.2778644572850731</v>
       </c>
       <c r="I14">
-        <v>0.7875248176427815</v>
+        <v>0.08819138908607894</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -857,31 +857,31 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
-        <v>0.7474931629460326</v>
+        <v>0.2880536125941535</v>
       </c>
       <c r="B15">
-        <v>0.01503909845198464</v>
+        <v>0.3728050137667209</v>
       </c>
       <c r="C15">
-        <v>0.1506466121531333</v>
+        <v>0.3388952836135685</v>
       </c>
       <c r="D15">
-        <v>0.2978971893496425</v>
+        <v>0.0015825096685346</v>
       </c>
       <c r="E15">
-        <v>0.241613855292127</v>
+        <v>0.2674497861787812</v>
       </c>
       <c r="F15">
-        <v>0.227768282208621</v>
+        <v>0.2703283565696111</v>
       </c>
       <c r="G15">
-        <v>0.2551077875426319</v>
+        <v>0.1206139501973137</v>
       </c>
       <c r="H15">
-        <v>0.5439926585907879</v>
+        <v>0.2412331353805577</v>
       </c>
       <c r="I15">
-        <v>0.9943592169592146</v>
+        <v>0.01619361093404178</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -889,31 +889,31 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
-        <v>0.7328419976173296</v>
+        <v>0.2867942732303106</v>
       </c>
       <c r="B16">
-        <v>0.152583833809156</v>
+        <v>0.3646018234265344</v>
       </c>
       <c r="C16">
-        <v>0.2823533015592882</v>
+        <v>0.3073879263960709</v>
       </c>
       <c r="D16">
-        <v>0.1939294006919883</v>
+        <v>0.01480438755324918</v>
       </c>
       <c r="E16">
-        <v>0.2212458473833865</v>
+        <v>0.5590267283030479</v>
       </c>
       <c r="F16">
-        <v>0.09660704048036367</v>
+        <v>0.06499735242933852</v>
       </c>
       <c r="G16">
-        <v>0.2135685353475161</v>
+        <v>0.07475538477771738</v>
       </c>
       <c r="H16">
-        <v>0.3578307027794885</v>
+        <v>0.2985873507021204</v>
       </c>
       <c r="I16">
-        <v>0.9905076834225112</v>
+        <v>0.02166460795865726</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -921,31 +921,31 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17">
-        <v>0.5977437923361398</v>
+        <v>0.8389570762498847</v>
       </c>
       <c r="B17">
-        <v>0.08797380167809388</v>
+        <v>0.2031300193115782</v>
       </c>
       <c r="C17">
-        <v>0.1269171480769385</v>
+        <v>0.134408202573659</v>
       </c>
       <c r="D17">
-        <v>0.2568934537315185</v>
+        <v>0.001650649727855817</v>
       </c>
       <c r="E17">
-        <v>0.4704483458685146</v>
+        <v>0.2450164615819605</v>
       </c>
       <c r="F17">
-        <v>0.1614935793552264</v>
+        <v>0.5391956904430424</v>
       </c>
       <c r="G17">
-        <v>0.6028481122866671</v>
+        <v>0.1049114123101026</v>
       </c>
       <c r="H17">
-        <v>0.3002576761650073</v>
+        <v>0.1907553159511411</v>
       </c>
       <c r="I17">
-        <v>0.7149631727695123</v>
+        <v>0.09246431675505301</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -953,31 +953,31 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
-        <v>0.2270868118469979</v>
+        <v>0.9325074686729644</v>
       </c>
       <c r="B18">
-        <v>0.08722626790704741</v>
+        <v>0.3595277872772791</v>
       </c>
       <c r="C18">
-        <v>0.1840701625089175</v>
+        <v>0.3188377071219263</v>
       </c>
       <c r="D18">
-        <v>0.7050171353334354</v>
+        <v>0.01957911938126499</v>
       </c>
       <c r="E18">
-        <v>0.5049770535184354</v>
+        <v>0.4189993103638909</v>
       </c>
       <c r="F18">
-        <v>0.1113975762334129</v>
+        <v>0.3984571917705457</v>
       </c>
       <c r="G18">
-        <v>0.042018744849884</v>
+        <v>0.08463203660835372</v>
       </c>
       <c r="H18">
-        <v>0.5735664882462806</v>
+        <v>0.3592060122800055</v>
       </c>
       <c r="I18">
-        <v>0.8433819149863806</v>
+        <v>0.04667596476559215</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -985,31 +985,31 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19">
-        <v>0.2045915712569598</v>
+        <v>0.8039324640877132</v>
       </c>
       <c r="B19">
-        <v>0.007628533312620756</v>
+        <v>0.3585931472252251</v>
       </c>
       <c r="C19">
-        <v>0.1092529277583934</v>
+        <v>0.09506577256370685</v>
       </c>
       <c r="D19">
-        <v>0.6750722101003939</v>
+        <v>0.01454206037429564</v>
       </c>
       <c r="E19">
-        <v>0.8178240514503253</v>
+        <v>0.2842855191120291</v>
       </c>
       <c r="F19">
-        <v>0.2149090835809923</v>
+        <v>0.1207071217415107</v>
       </c>
       <c r="G19">
-        <v>0.5088370027494697</v>
+        <v>0.06453179297564016</v>
       </c>
       <c r="H19">
-        <v>0.5123143861591721</v>
+        <v>0.3187141858897754</v>
       </c>
       <c r="I19">
-        <v>0.5863983358218661</v>
+        <v>0.05562509943003531</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1017,31 +1017,31 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
-        <v>0.6731106086893328</v>
+        <v>0.3032240398924607</v>
       </c>
       <c r="B20">
-        <v>0.02517109936112649</v>
+        <v>0.03703986088668615</v>
       </c>
       <c r="C20">
-        <v>0.1174580799359211</v>
+        <v>0.3264272527071237</v>
       </c>
       <c r="D20">
-        <v>0.5555739010239962</v>
+        <v>0.008914395059020395</v>
       </c>
       <c r="E20">
-        <v>0.4623874840699235</v>
+        <v>0.4735776334528725</v>
       </c>
       <c r="F20">
-        <v>0.0596826352573101</v>
+        <v>0.3297169724073949</v>
       </c>
       <c r="G20">
-        <v>0.3566029586671969</v>
+        <v>0.1100911182760972</v>
       </c>
       <c r="H20">
-        <v>0.6231728717461531</v>
+        <v>0.2854926529122739</v>
       </c>
       <c r="I20">
-        <v>0.7501100558389484</v>
+        <v>0.04419277945361272</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1049,31 +1049,31 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21">
-        <v>0.3122570215808412</v>
+        <v>0.573290439906427</v>
       </c>
       <c r="B21">
-        <v>0.1194141232385271</v>
+        <v>0.1559644124783031</v>
       </c>
       <c r="C21">
-        <v>0.2812657850071313</v>
+        <v>0.3124342848387586</v>
       </c>
       <c r="D21">
-        <v>0.2462906270670636</v>
+        <v>0.008384196926144968</v>
       </c>
       <c r="E21">
-        <v>0.436247286513157</v>
+        <v>0.3225340537139852</v>
       </c>
       <c r="F21">
-        <v>0.2718219079310478</v>
+        <v>0.4877839942038111</v>
       </c>
       <c r="G21">
-        <v>0.4227204926042295</v>
+        <v>0.07343715323085299</v>
       </c>
       <c r="H21">
-        <v>0.4265571135914596</v>
+        <v>0.3687973824478296</v>
       </c>
       <c r="I21">
-        <v>0.9025510080724828</v>
+        <v>0.001307780277709494</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1081,31 +1081,31 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22">
-        <v>0.2585200272639594</v>
+        <v>0.2344284137404762</v>
       </c>
       <c r="B22">
-        <v>0.1667649132543768</v>
+        <v>0.07618386012730816</v>
       </c>
       <c r="C22">
-        <v>0.2045466592804213</v>
+        <v>0.1265146590882626</v>
       </c>
       <c r="D22">
-        <v>0.2885601955608698</v>
+        <v>0.0174254134248898</v>
       </c>
       <c r="E22">
-        <v>0.5243100442683962</v>
+        <v>0.2935357283055383</v>
       </c>
       <c r="F22">
-        <v>0.08288208427183549</v>
+        <v>0.4588964303515892</v>
       </c>
       <c r="G22">
-        <v>0.5688866372248534</v>
+        <v>0.1090849402773398</v>
       </c>
       <c r="H22">
-        <v>0.351874818565623</v>
+        <v>0.2160000060906018</v>
       </c>
       <c r="I22">
-        <v>0.4980445109158347</v>
+        <v>0.09181749310645247</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1113,31 +1113,31 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23">
-        <v>0.09902227567819055</v>
+        <v>0.5023654454927181</v>
       </c>
       <c r="B23">
-        <v>0.2107851198426816</v>
+        <v>0.242473558175073</v>
       </c>
       <c r="C23">
-        <v>0.2809689038774091</v>
+        <v>0.3279372921123997</v>
       </c>
       <c r="D23">
-        <v>0.5281558333446376</v>
+        <v>0.00685926467127717</v>
       </c>
       <c r="E23">
-        <v>0.6803019328089474</v>
+        <v>0.4977440134599906</v>
       </c>
       <c r="F23">
-        <v>0.3643628203342839</v>
+        <v>0.4835384072472597</v>
       </c>
       <c r="G23">
-        <v>0.5946789666619368</v>
+        <v>0.1077443655231742</v>
       </c>
       <c r="H23">
-        <v>0.03674559208506212</v>
+        <v>0.04843744620655731</v>
       </c>
       <c r="I23">
-        <v>0.5270850364393338</v>
+        <v>0.09611381709987987</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -1145,31 +1145,31 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
-        <v>0.4001127570482919</v>
+        <v>0.8560907411836782</v>
       </c>
       <c r="B24">
-        <v>0.2293953459037243</v>
+        <v>0.3399555297318627</v>
       </c>
       <c r="C24">
-        <v>0.250366076146521</v>
+        <v>0.2270229160128896</v>
       </c>
       <c r="D24">
-        <v>0.391665271424508</v>
+        <v>0.01510172468294812</v>
       </c>
       <c r="E24">
-        <v>0.2516330670695748</v>
+        <v>0.3937038956347081</v>
       </c>
       <c r="F24">
-        <v>0.2869345369899585</v>
+        <v>0.5436984769498411</v>
       </c>
       <c r="G24">
-        <v>0.3847889543837651</v>
+        <v>0.1304220987449715</v>
       </c>
       <c r="H24">
-        <v>0.244355050487632</v>
+        <v>0.3907318004947474</v>
       </c>
       <c r="I24">
-        <v>0.541328115452656</v>
+        <v>0.08484499200074093</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -1177,31 +1177,31 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25">
-        <v>0.5704007978522443</v>
+        <v>0.3182716927880019</v>
       </c>
       <c r="B25">
-        <v>0.1430180178981844</v>
+        <v>0.08622648313664122</v>
       </c>
       <c r="C25">
-        <v>0.1995469251366191</v>
+        <v>0.2047193911916546</v>
       </c>
       <c r="D25">
-        <v>0.4498240196149608</v>
+        <v>0.006994888298587686</v>
       </c>
       <c r="E25">
-        <v>0.4720847114147654</v>
+        <v>0.4178940166315925</v>
       </c>
       <c r="F25">
-        <v>0.1599283956040048</v>
+        <v>0.3789587873210418</v>
       </c>
       <c r="G25">
-        <v>0.1338857080511621</v>
+        <v>0.0880618598536884</v>
       </c>
       <c r="H25">
-        <v>0.2682679384930122</v>
+        <v>0.1319492452797039</v>
       </c>
       <c r="I25">
-        <v>0.6864169863234961</v>
+        <v>0.033105026374629</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -1209,31 +1209,31 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26">
-        <v>0.2060618885024446</v>
+        <v>0.2303732902149138</v>
       </c>
       <c r="B26">
-        <v>0.1110523696420351</v>
+        <v>0.2864100445239577</v>
       </c>
       <c r="C26">
-        <v>0.3023844432716905</v>
+        <v>0.2930378974413776</v>
       </c>
       <c r="D26">
-        <v>0.02150441807807124</v>
+        <v>0.0005165880578335749</v>
       </c>
       <c r="E26">
-        <v>0.4667543847544077</v>
+        <v>0.2284730153537527</v>
       </c>
       <c r="F26">
-        <v>0.1945548274123765</v>
+        <v>0.5577848604682862</v>
       </c>
       <c r="G26">
-        <v>0.4363312932553564</v>
+        <v>0.1146170490055876</v>
       </c>
       <c r="H26">
-        <v>0.04075220452996309</v>
+        <v>0.3010418104488551</v>
       </c>
       <c r="I26">
-        <v>0.5382818949260604</v>
+        <v>0.0679266649838733</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -1241,31 +1241,31 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27">
-        <v>0.5509927587827014</v>
+        <v>0.5007333611884164</v>
       </c>
       <c r="B27">
-        <v>0.1082864899118529</v>
+        <v>0.08846500034489668</v>
       </c>
       <c r="C27">
-        <v>0.4086355451890792</v>
+        <v>0.3010320721664128</v>
       </c>
       <c r="D27">
-        <v>0.008065121530883235</v>
+        <v>0.0207971727757898</v>
       </c>
       <c r="E27">
-        <v>0.4302196040597323</v>
+        <v>0.4851770124318006</v>
       </c>
       <c r="F27">
-        <v>0.3607111233975876</v>
+        <v>0.4915918987116468</v>
       </c>
       <c r="G27">
-        <v>0.4337758419310855</v>
+        <v>0.1362442556618306</v>
       </c>
       <c r="H27">
-        <v>0.2307294497033568</v>
+        <v>0.318521423898713</v>
       </c>
       <c r="I27">
-        <v>0.4446631646262463</v>
+        <v>0.03279819309678873</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -1273,31 +1273,31 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28">
-        <v>0.7133792703311371</v>
+        <v>0.7823388014574562</v>
       </c>
       <c r="B28">
-        <v>0.1814187559315004</v>
+        <v>0.3599138794731367</v>
       </c>
       <c r="C28">
-        <v>0.3076427821164096</v>
+        <v>0.0897405685588865</v>
       </c>
       <c r="D28">
-        <v>0.4144781146378957</v>
+        <v>0.01091060925781924</v>
       </c>
       <c r="E28">
-        <v>0.7702876465849267</v>
+        <v>0.5599355538729415</v>
       </c>
       <c r="F28">
-        <v>0.3632193114783974</v>
+        <v>0.6057842081071281</v>
       </c>
       <c r="G28">
-        <v>0.2761152577355271</v>
+        <v>0.104574135843608</v>
       </c>
       <c r="H28">
-        <v>0.4131123452047762</v>
+        <v>0.1903271380550821</v>
       </c>
       <c r="I28">
-        <v>0.5759452873871408</v>
+        <v>0.01675251533145878</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -1305,31 +1305,31 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29">
-        <v>0.5622868370849751</v>
+        <v>0.8134696620258816</v>
       </c>
       <c r="B29">
-        <v>0.2021137617946118</v>
+        <v>0.02532814978283171</v>
       </c>
       <c r="C29">
-        <v>0.1736935707414312</v>
+        <v>0.1148930390205962</v>
       </c>
       <c r="D29">
-        <v>0.1390715104416106</v>
+        <v>0.01073334440026624</v>
       </c>
       <c r="E29">
-        <v>0.8379304512651213</v>
+        <v>0.5305914355540577</v>
       </c>
       <c r="F29">
-        <v>0.3269844864496715</v>
+        <v>0.2304903671267149</v>
       </c>
       <c r="G29">
-        <v>0.5570429103685607</v>
+        <v>0.07399492938271116</v>
       </c>
       <c r="H29">
-        <v>0.5959022521321834</v>
+        <v>0.06387115712219496</v>
       </c>
       <c r="I29">
-        <v>0.9280045774417502</v>
+        <v>0.06608406725450902</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -1337,31 +1337,31 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30">
-        <v>0.1714047532654546</v>
+        <v>0.6046852147658465</v>
       </c>
       <c r="B30">
-        <v>0.1459241103295046</v>
+        <v>0.404702035827196</v>
       </c>
       <c r="C30">
-        <v>0.4673234513072444</v>
+        <v>0.1047834589733762</v>
       </c>
       <c r="D30">
-        <v>0.6968354249424478</v>
+        <v>0.0009742754407699015</v>
       </c>
       <c r="E30">
-        <v>0.440828434379875</v>
+        <v>0.2382944698099655</v>
       </c>
       <c r="F30">
-        <v>0.2733100877725604</v>
+        <v>0.3905026100269491</v>
       </c>
       <c r="G30">
-        <v>0.003582385292821367</v>
+        <v>0.1319544717218931</v>
       </c>
       <c r="H30">
-        <v>0.328944205967943</v>
+        <v>0.2326449767454493</v>
       </c>
       <c r="I30">
-        <v>0.518928276101764</v>
+        <v>0.07773875551283245</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -1369,31 +1369,31 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31">
-        <v>0.01915500744702814</v>
+        <v>0.5953284805035753</v>
       </c>
       <c r="B31">
-        <v>0.1440196370214655</v>
+        <v>0.1496710701275354</v>
       </c>
       <c r="C31">
-        <v>0.1978067792742418</v>
+        <v>0.1717679167174454</v>
       </c>
       <c r="D31">
-        <v>0.1479465995394164</v>
+        <v>0.01678468809301365</v>
       </c>
       <c r="E31">
-        <v>0.7212499395913819</v>
+        <v>0.2925855301384894</v>
       </c>
       <c r="F31">
-        <v>0.1117244464628103</v>
+        <v>0.238785762150177</v>
       </c>
       <c r="G31">
-        <v>0.5728238819092595</v>
+        <v>0.1116242697268221</v>
       </c>
       <c r="H31">
-        <v>0.1807894089359193</v>
+        <v>0.09301518200645952</v>
       </c>
       <c r="I31">
-        <v>0.7484277236587471</v>
+        <v>0.03851542087363676</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -1401,31 +1401,31 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32">
-        <v>0.3650357185815136</v>
+        <v>0.1577704985180379</v>
       </c>
       <c r="B32">
-        <v>0.04302554490140242</v>
+        <v>0.0484176624511769</v>
       </c>
       <c r="C32">
-        <v>0.3984620462301463</v>
+        <v>0.1582279754815308</v>
       </c>
       <c r="D32">
-        <v>0.5576039612323936</v>
+        <v>0.01139052270286835</v>
       </c>
       <c r="E32">
-        <v>0.7663758985509598</v>
+        <v>0.5840953044269878</v>
       </c>
       <c r="F32">
-        <v>0.1289199601129474</v>
+        <v>0.4943592743982426</v>
       </c>
       <c r="G32">
-        <v>0.4375554707120966</v>
+        <v>0.1120670894864265</v>
       </c>
       <c r="H32">
-        <v>0.2567754286860194</v>
+        <v>0.375500226881538</v>
       </c>
       <c r="I32">
-        <v>0.821684932063333</v>
+        <v>0.04941883234030935</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -1433,31 +1433,31 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33">
-        <v>0.3062567720808739</v>
+        <v>0.8806704545655945</v>
       </c>
       <c r="B33">
-        <v>0.2280602461889198</v>
+        <v>0.3975558240458794</v>
       </c>
       <c r="C33">
-        <v>0.3334585403580581</v>
+        <v>0.3508984280273415</v>
       </c>
       <c r="D33">
-        <v>0.01625934117631789</v>
+        <v>0.01142439052276849</v>
       </c>
       <c r="E33">
-        <v>0.5177085595433638</v>
+        <v>0.3853614264363913</v>
       </c>
       <c r="F33">
-        <v>0.3210515531942804</v>
+        <v>0.5155201126582533</v>
       </c>
       <c r="G33">
-        <v>0.3066259307421614</v>
+        <v>0.1235491392442879</v>
       </c>
       <c r="H33">
-        <v>0.08275583138976172</v>
+        <v>0.1775652747266384</v>
       </c>
       <c r="I33">
-        <v>0.8165484278574299</v>
+        <v>0.07445437259365435</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -1465,31 +1465,31 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34">
-        <v>0.7117963959742291</v>
+        <v>0.5539824513278813</v>
       </c>
       <c r="B34">
-        <v>0.1720400528309058</v>
+        <v>0.1949165101874973</v>
       </c>
       <c r="C34">
-        <v>0.3335039344596471</v>
+        <v>0.2974091997829088</v>
       </c>
       <c r="D34">
-        <v>0.5430351707980962</v>
+        <v>0.02069300264968581</v>
       </c>
       <c r="E34">
-        <v>0.3958417562642446</v>
+        <v>0.4298797212923478</v>
       </c>
       <c r="F34">
-        <v>0.2724535222730857</v>
+        <v>0.555992004402204</v>
       </c>
       <c r="G34">
-        <v>0.1405935772817976</v>
+        <v>0.109797302554894</v>
       </c>
       <c r="H34">
-        <v>0.5421664980661577</v>
+        <v>0.2199155856301309</v>
       </c>
       <c r="I34">
-        <v>0.9894747760451345</v>
+        <v>0.04844639920240751</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -1497,31 +1497,31 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35">
-        <v>0.6481181369216701</v>
+        <v>0.9551273834979466</v>
       </c>
       <c r="B35">
-        <v>0.08773659815021329</v>
+        <v>0.07470951388406594</v>
       </c>
       <c r="C35">
-        <v>0.3554332540570709</v>
+        <v>0.3240381683125033</v>
       </c>
       <c r="D35">
-        <v>0.6420813578090608</v>
+        <v>0.004625376911743367</v>
       </c>
       <c r="E35">
-        <v>0.466669630467508</v>
+        <v>0.3129698712851752</v>
       </c>
       <c r="F35">
-        <v>0.2745886122165485</v>
+        <v>0.4698581235734355</v>
       </c>
       <c r="G35">
-        <v>0.3760490471330118</v>
+        <v>0.08775987654866715</v>
       </c>
       <c r="H35">
-        <v>0.1162227526736632</v>
+        <v>0.07982643196044786</v>
       </c>
       <c r="I35">
-        <v>0.5346526363795964</v>
+        <v>0.08070484229208842</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -1529,31 +1529,31 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36">
-        <v>0.5567083091707631</v>
+        <v>0.5372116568377587</v>
       </c>
       <c r="B36">
-        <v>0.1777113734931809</v>
+        <v>0.3178683662053394</v>
       </c>
       <c r="C36">
-        <v>0.2162365970882983</v>
+        <v>0.2914599446897575</v>
       </c>
       <c r="D36">
-        <v>0.2040961876372639</v>
+        <v>0.008142842117752888</v>
       </c>
       <c r="E36">
-        <v>0.3589620496076785</v>
+        <v>0.3244961962413745</v>
       </c>
       <c r="F36">
-        <v>0.3289142590252107</v>
+        <v>0.4338925349196686</v>
       </c>
       <c r="G36">
-        <v>0.4694312123532802</v>
+        <v>0.1040587717067121</v>
       </c>
       <c r="H36">
-        <v>0.4209972118659661</v>
+        <v>0.2896323003070397</v>
       </c>
       <c r="I36">
-        <v>0.7921213874363561</v>
+        <v>0.04485785891591901</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -1561,31 +1561,31 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37">
-        <v>0.5804804443487765</v>
+        <v>0.7228433023099891</v>
       </c>
       <c r="B37">
-        <v>0.2542488032370712</v>
+        <v>0.3557083017235793</v>
       </c>
       <c r="C37">
-        <v>0.1609917619266447</v>
+        <v>0.02863015742138312</v>
       </c>
       <c r="D37">
-        <v>0.737271772824436</v>
+        <v>0.02181897833589181</v>
       </c>
       <c r="E37">
-        <v>0.4134316869024468</v>
+        <v>0.2960557568420954</v>
       </c>
       <c r="F37">
-        <v>0.1013845107175909</v>
+        <v>0.09730897911257942</v>
       </c>
       <c r="G37">
-        <v>0.4633362025743551</v>
+        <v>0.0902370787073048</v>
       </c>
       <c r="H37">
-        <v>0.0616144674923027</v>
+        <v>0.04263688949977933</v>
       </c>
       <c r="I37">
-        <v>0.4430769344316936</v>
+        <v>0.01749680793060823</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -1593,31 +1593,31 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38">
-        <v>0.6838790826926826</v>
+        <v>0.5864851643692225</v>
       </c>
       <c r="B38">
-        <v>0.176922979957427</v>
+        <v>0.1445938494833554</v>
       </c>
       <c r="C38">
-        <v>0.4671880179009904</v>
+        <v>0.07163022950095739</v>
       </c>
       <c r="D38">
-        <v>0.6448535224571244</v>
+        <v>0.005795640036902302</v>
       </c>
       <c r="E38">
-        <v>0.6053383544757708</v>
+        <v>0.2620150376695878</v>
       </c>
       <c r="F38">
-        <v>0.07052503240425323</v>
+        <v>0.2656876397896884</v>
       </c>
       <c r="G38">
-        <v>0.055556155168047</v>
+        <v>0.1010195122890877</v>
       </c>
       <c r="H38">
-        <v>0.3687523849413832</v>
+        <v>0.4183067678027823</v>
       </c>
       <c r="I38">
-        <v>0.4835473708142961</v>
+        <v>0.07165655564225892</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -1625,31 +1625,31 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39">
-        <v>0.4834616897558106</v>
+        <v>0.4386756151431513</v>
       </c>
       <c r="B39">
-        <v>0.2185405132223757</v>
+        <v>0.1458848728311001</v>
       </c>
       <c r="C39">
-        <v>0.3964254421946363</v>
+        <v>0.2318482716475116</v>
       </c>
       <c r="D39">
-        <v>0.7305043476753863</v>
+        <v>0.008266128645955285</v>
       </c>
       <c r="E39">
-        <v>0.6561726040473244</v>
+        <v>0.4834268138417995</v>
       </c>
       <c r="F39">
-        <v>0.2305077109999374</v>
+        <v>0.2602041454383101</v>
       </c>
       <c r="G39">
-        <v>0.07711113434132562</v>
+        <v>0.07205357245478645</v>
       </c>
       <c r="H39">
-        <v>0.2595331086460824</v>
+        <v>0.3756860307978505</v>
       </c>
       <c r="I39">
-        <v>0.8197850817931521</v>
+        <v>0.001390616365213745</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -1657,31 +1657,31 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40">
-        <v>0.4256287510528456</v>
+        <v>0.7323159165047419</v>
       </c>
       <c r="B40">
-        <v>0.1583694542796194</v>
+        <v>0.002467447548936297</v>
       </c>
       <c r="C40">
-        <v>0.1074607735630902</v>
+        <v>0.2143447634590193</v>
       </c>
       <c r="D40">
-        <v>0.07573815431787856</v>
+        <v>0.002627865086590042</v>
       </c>
       <c r="E40">
-        <v>0.4965517092575513</v>
+        <v>0.3235964359543824</v>
       </c>
       <c r="F40">
-        <v>0.2583022895841197</v>
+        <v>0.1009084137378736</v>
       </c>
       <c r="G40">
-        <v>0.6004480414672946</v>
+        <v>0.1339424165936587</v>
       </c>
       <c r="H40">
-        <v>0.3347252056218617</v>
+        <v>0.1181886144139495</v>
       </c>
       <c r="I40">
-        <v>0.877579523784886</v>
+        <v>0.05877316582696355</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -1689,31 +1689,31 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41">
-        <v>0.6399025132720428</v>
+        <v>0.1736253389317345</v>
       </c>
       <c r="B41">
-        <v>0.2450092092297095</v>
+        <v>0.1335861067825671</v>
       </c>
       <c r="C41">
-        <v>0.2980628591384473</v>
+        <v>0.0326905041292216</v>
       </c>
       <c r="D41">
-        <v>0.2608039462957974</v>
+        <v>0.01106002864131419</v>
       </c>
       <c r="E41">
-        <v>0.5675916571122419</v>
+        <v>0.5277144179021031</v>
       </c>
       <c r="F41">
-        <v>0.3504156667807961</v>
+        <v>0.4505488585611417</v>
       </c>
       <c r="G41">
-        <v>0.2026254784830555</v>
+        <v>0.07472751668704286</v>
       </c>
       <c r="H41">
-        <v>0.443527310765075</v>
+        <v>0.4028153558627174</v>
       </c>
       <c r="I41">
-        <v>0.6065332459102662</v>
+        <v>0.08881340551668548</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -1721,31 +1721,31 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42">
-        <v>0.4827205461800878</v>
+        <v>0.573290439906427</v>
       </c>
       <c r="B42">
-        <v>0.2583223115280974</v>
+        <v>0.1559644124783031</v>
       </c>
       <c r="C42">
-        <v>0.3688274181273053</v>
+        <v>0.3124342848387586</v>
       </c>
       <c r="D42">
-        <v>0.3036461958422171</v>
+        <v>0.008384196926144968</v>
       </c>
       <c r="E42">
-        <v>0.7263395407412784</v>
+        <v>0.3225340537139852</v>
       </c>
       <c r="F42">
-        <v>0.1066370787325794</v>
+        <v>0.4877839942038111</v>
       </c>
       <c r="G42">
-        <v>0.03507440247539017</v>
+        <v>0.07343715323085299</v>
       </c>
       <c r="H42">
-        <v>0.04266467998195811</v>
+        <v>0.3687973824478296</v>
       </c>
       <c r="I42">
-        <v>0.6717033275249079</v>
+        <v>0.07898672594441673</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -1753,31 +1753,31 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43">
-        <v>0.240081488171607</v>
+        <v>0.7034818136995735</v>
       </c>
       <c r="B43">
-        <v>0.2091522268946692</v>
+        <v>0.09007640664651889</v>
       </c>
       <c r="C43">
-        <v>0.4166539229686945</v>
+        <v>0.2019417402018924</v>
       </c>
       <c r="D43">
-        <v>0.4458498534211914</v>
+        <v>0.003989441233548577</v>
       </c>
       <c r="E43">
-        <v>0.5434140747720643</v>
+        <v>0.2638309379028599</v>
       </c>
       <c r="F43">
-        <v>0.3024281888242566</v>
+        <v>0.3163658786476939</v>
       </c>
       <c r="G43">
-        <v>0.01289384615013124</v>
+        <v>0.1489423371871088</v>
       </c>
       <c r="H43">
-        <v>0.315231051090377</v>
+        <v>0.07700240944517758</v>
       </c>
       <c r="I43">
-        <v>0.8475728645124895</v>
+        <v>0.04137574130873835</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -1785,31 +1785,31 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44">
-        <v>0.2198091858929047</v>
+        <v>0.127800077181215</v>
       </c>
       <c r="B44">
-        <v>0.180871890571101</v>
+        <v>0.04834716564308716</v>
       </c>
       <c r="C44">
-        <v>0.3165037726375384</v>
+        <v>0.1745118023570164</v>
       </c>
       <c r="D44">
-        <v>0.2782308502805582</v>
+        <v>0.0174465317500432</v>
       </c>
       <c r="E44">
-        <v>0.5430778189605709</v>
+        <v>0.5698647344302251</v>
       </c>
       <c r="F44">
-        <v>0.3498631733874837</v>
+        <v>0.1536569037607438</v>
       </c>
       <c r="G44">
-        <v>0.5928001773907577</v>
+        <v>0.08703075577170791</v>
       </c>
       <c r="H44">
-        <v>0.6163569518869776</v>
+        <v>0.2500394134289688</v>
       </c>
       <c r="I44">
-        <v>0.6318748680070231</v>
+        <v>0.03764366358294192</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -1817,31 +1817,31 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45">
-        <v>0.7413330055050065</v>
+        <v>0.2303732902149138</v>
       </c>
       <c r="B45">
-        <v>0.2236829003961854</v>
+        <v>0.2864100445239577</v>
       </c>
       <c r="C45">
-        <v>0.07093074808526192</v>
+        <v>0.2930378974413776</v>
       </c>
       <c r="D45">
-        <v>0.1509535866564949</v>
+        <v>0.0005165880578335749</v>
       </c>
       <c r="E45">
-        <v>0.238454338947621</v>
+        <v>0.2284730153537527</v>
       </c>
       <c r="F45">
-        <v>0.3544525204119817</v>
+        <v>0.5577848604682862</v>
       </c>
       <c r="G45">
-        <v>0.3953924463748184</v>
+        <v>0.09660714764196147</v>
       </c>
       <c r="H45">
-        <v>0.5456126288470501</v>
+        <v>0.431874782195436</v>
       </c>
       <c r="I45">
-        <v>0.8024421084716605</v>
+        <v>0.07894819138243481</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -1849,31 +1849,31 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46">
-        <v>0.5806879660146084</v>
+        <v>0.6188307268340676</v>
       </c>
       <c r="B46">
-        <v>0.1784132782139102</v>
+        <v>0.2949450687623028</v>
       </c>
       <c r="C46">
-        <v>0.4142294192595732</v>
+        <v>0.1136331791208924</v>
       </c>
       <c r="D46">
-        <v>0.3642045258555251</v>
+        <v>0.01967594749695559</v>
       </c>
       <c r="E46">
-        <v>0.3522085499773572</v>
+        <v>0.5530150724606028</v>
       </c>
       <c r="F46">
-        <v>0.1343938692791475</v>
+        <v>0.3789572164202401</v>
       </c>
       <c r="G46">
-        <v>0.01960036691649839</v>
+        <v>0.09863168409364834</v>
       </c>
       <c r="H46">
-        <v>0.0556181078077912</v>
+        <v>0.3940254291931875</v>
       </c>
       <c r="I46">
-        <v>0.5819406243879754</v>
+        <v>0.04340302672283085</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -1881,31 +1881,31 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47">
-        <v>0.6337797141650227</v>
+        <v>0.2091005456721785</v>
       </c>
       <c r="B47">
-        <v>0.0001909298408484528</v>
+        <v>0.09589659387549138</v>
       </c>
       <c r="C47">
-        <v>0.1930881578320296</v>
+        <v>0.3674552582198514</v>
       </c>
       <c r="D47">
-        <v>0.2326059530212423</v>
+        <v>0.007622744096988399</v>
       </c>
       <c r="E47">
-        <v>0.5463889337355353</v>
+        <v>0.4466753853394761</v>
       </c>
       <c r="F47">
-        <v>0.2509327189472546</v>
+        <v>0.4353034732935606</v>
       </c>
       <c r="G47">
-        <v>0.05129906772132573</v>
+        <v>0.07482416793167257</v>
       </c>
       <c r="H47">
-        <v>0.3077362440926984</v>
+        <v>0.2026503175881785</v>
       </c>
       <c r="I47">
-        <v>0.9539212004731272</v>
+        <v>0.07592001866814625</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -1913,31 +1913,31 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48">
-        <v>0.07456984612307316</v>
+        <v>0.3136788454776169</v>
       </c>
       <c r="B48">
-        <v>0.2518669970567297</v>
+        <v>0.3228221580630742</v>
       </c>
       <c r="C48">
-        <v>0.2919352147396667</v>
+        <v>0.04386540452840582</v>
       </c>
       <c r="D48">
-        <v>0.4295031069987062</v>
+        <v>0.008266128645955285</v>
       </c>
       <c r="E48">
-        <v>0.4068553026844491</v>
+        <v>0.4834268138417995</v>
       </c>
       <c r="F48">
-        <v>0.07208521730123081</v>
+        <v>0.2602041454383101</v>
       </c>
       <c r="G48">
-        <v>0.3016259141073921</v>
+        <v>0.07205357245478645</v>
       </c>
       <c r="H48">
-        <v>0.4455498509755093</v>
+        <v>0.3756860307978505</v>
       </c>
       <c r="I48">
-        <v>0.4267074456792347</v>
+        <v>0.001390616365213745</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -1945,31 +1945,31 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49">
-        <v>0.04993986900047487</v>
+        <v>0.07776302263165724</v>
       </c>
       <c r="B49">
-        <v>0.1914872397793603</v>
+        <v>0.05320578227324763</v>
       </c>
       <c r="C49">
-        <v>0.1088914042564268</v>
+        <v>0.3958150303626684</v>
       </c>
       <c r="D49">
-        <v>0.5606530383976703</v>
+        <v>0.008148834113015577</v>
       </c>
       <c r="E49">
-        <v>0.3051630727228232</v>
+        <v>0.4560931858119252</v>
       </c>
       <c r="F49">
-        <v>0.2592536293814916</v>
+        <v>0.4825672729074273</v>
       </c>
       <c r="G49">
-        <v>0.02641195633302712</v>
+        <v>0.07895803889566529</v>
       </c>
       <c r="H49">
-        <v>0.1232498769858404</v>
+        <v>0.1344673599714471</v>
       </c>
       <c r="I49">
-        <v>0.7842277631366967</v>
+        <v>0.03252712699748452</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -1977,31 +1977,31 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50">
-        <v>0.576262960931949</v>
+        <v>0.2374795677471175</v>
       </c>
       <c r="B50">
-        <v>0.09972810212008099</v>
+        <v>0.3966218877774084</v>
       </c>
       <c r="C50">
-        <v>0.07181424551751402</v>
+        <v>0.3663752687217238</v>
       </c>
       <c r="D50">
-        <v>0.1032944144410149</v>
+        <v>0.005881455153718238</v>
       </c>
       <c r="E50">
-        <v>0.3910645232781934</v>
+        <v>0.3886642397268041</v>
       </c>
       <c r="F50">
-        <v>0.2602875394463689</v>
+        <v>0.5666620588605503</v>
       </c>
       <c r="G50">
-        <v>0.3956398289512305</v>
+        <v>0.06719698488846977</v>
       </c>
       <c r="H50">
-        <v>0.5580666594765238</v>
+        <v>0.1610340593434033</v>
       </c>
       <c r="I50">
-        <v>0.5695857368362021</v>
+        <v>0.07471990845291951</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -2009,31 +2009,31 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51">
-        <v>0.6046246582691515</v>
+        <v>0.2867942732303106</v>
       </c>
       <c r="B51">
-        <v>0.1553358834532191</v>
+        <v>0.3646018234265344</v>
       </c>
       <c r="C51">
-        <v>0.2335052290398475</v>
+        <v>0.3073879263960709</v>
       </c>
       <c r="D51">
-        <v>0.4213410321119621</v>
+        <v>0.01480438755324918</v>
       </c>
       <c r="E51">
-        <v>0.3068183062503652</v>
+        <v>0.5590267283030479</v>
       </c>
       <c r="F51">
-        <v>0.1174527989484678</v>
+        <v>0.06499735242933852</v>
       </c>
       <c r="G51">
-        <v>0.09555902001641349</v>
+        <v>0.07475538477771738</v>
       </c>
       <c r="H51">
-        <v>0.212856962868966</v>
+        <v>0.2985873507021204</v>
       </c>
       <c r="I51">
-        <v>0.7047066820378569</v>
+        <v>0.04342531599570403</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -2041,31 +2041,31 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52">
-        <v>0.3459057542454906</v>
+        <v>0.1346561324338776</v>
       </c>
       <c r="B52">
-        <v>0.2014070893989056</v>
+        <v>0.2654843796776655</v>
       </c>
       <c r="C52">
-        <v>0.3416301549709601</v>
+        <v>0.3071892225860563</v>
       </c>
       <c r="D52">
-        <v>0.3871274326587059</v>
+        <v>0.01637453484911558</v>
       </c>
       <c r="E52">
-        <v>0.8231711775654533</v>
+        <v>0.3641143084478564</v>
       </c>
       <c r="F52">
-        <v>0.3159921821322407</v>
+        <v>0.4258207874290009</v>
       </c>
       <c r="G52">
-        <v>0.2440236218224844</v>
+        <v>0.1153346278549832</v>
       </c>
       <c r="H52">
-        <v>0.5153664772412586</v>
+        <v>0.3744329000816576</v>
       </c>
       <c r="I52">
-        <v>0.6600436696726197</v>
+        <v>0.03828085661180586</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -2073,31 +2073,31 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53">
-        <v>0.1227299718505931</v>
+        <v>0.4847982953865793</v>
       </c>
       <c r="B53">
-        <v>0.1097207572817157</v>
+        <v>0.3259214600320113</v>
       </c>
       <c r="C53">
-        <v>0.3650124968192074</v>
+        <v>0.3582408542197659</v>
       </c>
       <c r="D53">
-        <v>0.07719936551145523</v>
+        <v>0.01960216350009147</v>
       </c>
       <c r="E53">
-        <v>0.5657899474345055</v>
+        <v>0.5722761179990714</v>
       </c>
       <c r="F53">
-        <v>0.1884076553698323</v>
+        <v>0.1775334485994259</v>
       </c>
       <c r="G53">
-        <v>0.5977767511172073</v>
+        <v>0.1258566551593903</v>
       </c>
       <c r="H53">
-        <v>0.4070562338939215</v>
+        <v>0.1168440006354097</v>
       </c>
       <c r="I53">
-        <v>0.5769993466497481</v>
+        <v>0.00967393499782785</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -2105,31 +2105,31 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54">
-        <v>0.4042994317139116</v>
+        <v>0.1268518497361271</v>
       </c>
       <c r="B54">
-        <v>0.1079199232944141</v>
+        <v>0.3983629956657448</v>
       </c>
       <c r="C54">
-        <v>0.349575976303671</v>
+        <v>0.218780877872725</v>
       </c>
       <c r="D54">
-        <v>0.35073012779452</v>
+        <v>0.01795630243431414</v>
       </c>
       <c r="E54">
-        <v>0.3733522388303798</v>
+        <v>0.3170762065716692</v>
       </c>
       <c r="F54">
-        <v>0.2303178863409036</v>
+        <v>0.292515495474086</v>
       </c>
       <c r="G54">
-        <v>0.4398073952120847</v>
+        <v>0.0684751255815378</v>
       </c>
       <c r="H54">
-        <v>0.6086978903639523</v>
+        <v>0.3055673272588987</v>
       </c>
       <c r="I54">
-        <v>0.4697028057648895</v>
+        <v>0.02476324778473275</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -2137,31 +2137,31 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55">
-        <v>0.5379190615737894</v>
+        <v>0.1720732564025175</v>
       </c>
       <c r="B55">
-        <v>0.03952451226294151</v>
+        <v>0.3003971140546139</v>
       </c>
       <c r="C55">
-        <v>0.1468789853193648</v>
+        <v>0.3324881597899875</v>
       </c>
       <c r="D55">
-        <v>0.05156477366914458</v>
+        <v>0.01756318593936015</v>
       </c>
       <c r="E55">
-        <v>0.3846343745062357</v>
+        <v>0.2467970620527755</v>
       </c>
       <c r="F55">
-        <v>0.121210896290622</v>
+        <v>0.1830330914559547</v>
       </c>
       <c r="G55">
-        <v>0.05513409419330087</v>
+        <v>0.1342125057924635</v>
       </c>
       <c r="H55">
-        <v>0.1268113774621454</v>
+        <v>0.0824159575658131</v>
       </c>
       <c r="I55">
-        <v>0.5990324414753558</v>
+        <v>0.05688496496967384</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -2169,31 +2169,31 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56">
-        <v>0.2282774569283517</v>
+        <v>0.8039324640877132</v>
       </c>
       <c r="B56">
-        <v>0.1220677845819862</v>
+        <v>0.3585931472252251</v>
       </c>
       <c r="C56">
-        <v>0.4656562685384749</v>
+        <v>0.1717679167174454</v>
       </c>
       <c r="D56">
-        <v>0.07728918595603873</v>
+        <v>0.01678468809301365</v>
       </c>
       <c r="E56">
-        <v>0.8406207442336068</v>
+        <v>0.2925855301384894</v>
       </c>
       <c r="F56">
-        <v>0.2361364232226542</v>
+        <v>0.238785762150177</v>
       </c>
       <c r="G56">
-        <v>0.4678669399450133</v>
+        <v>0.1116242697268221</v>
       </c>
       <c r="H56">
-        <v>0.202979327327328</v>
+        <v>0.09301518200645952</v>
       </c>
       <c r="I56">
-        <v>0.7361032016230366</v>
+        <v>0.03851542087363676</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -2201,31 +2201,31 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57">
-        <v>0.7665429586668522</v>
+        <v>0.5953284805035753</v>
       </c>
       <c r="B57">
-        <v>0.09957468925546298</v>
+        <v>0.1496710701275354</v>
       </c>
       <c r="C57">
-        <v>0.3747516784467717</v>
+        <v>0.09506577256370685</v>
       </c>
       <c r="D57">
-        <v>0.3524358282189425</v>
+        <v>0.01454206037429564</v>
       </c>
       <c r="E57">
-        <v>0.6520124747884201</v>
+        <v>0.2842855191120291</v>
       </c>
       <c r="F57">
-        <v>0.2797242400735014</v>
+        <v>0.1207071217415107</v>
       </c>
       <c r="G57">
-        <v>0.3757179747785532</v>
+        <v>0.06453179297564016</v>
       </c>
       <c r="H57">
-        <v>0.3807414461880039</v>
+        <v>0.3187141858897754</v>
       </c>
       <c r="I57">
-        <v>0.4827884653151187</v>
+        <v>0.05562509943003531</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -2233,31 +2233,31 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58">
-        <v>0.02554747903899923</v>
+        <v>0.3110162488948921</v>
       </c>
       <c r="B58">
-        <v>0.03576933527342563</v>
+        <v>0.2657870214813226</v>
       </c>
       <c r="C58">
-        <v>0.1250309729083194</v>
+        <v>0.01513729484403117</v>
       </c>
       <c r="D58">
-        <v>0.5313206088107735</v>
+        <v>0.01689740207872031</v>
       </c>
       <c r="E58">
-        <v>0.4590424995076516</v>
+        <v>0.3346323438595623</v>
       </c>
       <c r="F58">
-        <v>0.2779272831480383</v>
+        <v>0.2694283948583846</v>
       </c>
       <c r="G58">
-        <v>0.07164125785595465</v>
+        <v>0.1219067523658673</v>
       </c>
       <c r="H58">
-        <v>0.1075553417241465</v>
+        <v>0.1718334797618063</v>
       </c>
       <c r="I58">
-        <v>0.8343763628366686</v>
+        <v>0.05579710953034416</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -2265,31 +2265,31 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59">
-        <v>0.1274853085688282</v>
+        <v>0.3927988000087778</v>
       </c>
       <c r="B59">
-        <v>0.08720318900948126</v>
+        <v>0.2511032246228409</v>
       </c>
       <c r="C59">
-        <v>0.08494378652447952</v>
+        <v>0.1805165262236288</v>
       </c>
       <c r="D59">
-        <v>0.08326141008990939</v>
+        <v>0.006186413051956423</v>
       </c>
       <c r="E59">
-        <v>0.6017003894914427</v>
+        <v>0.2892490385768622</v>
       </c>
       <c r="F59">
-        <v>0.1705399412233225</v>
+        <v>0.413778287023035</v>
       </c>
       <c r="G59">
-        <v>0.386541514744752</v>
+        <v>0.1287532211681128</v>
       </c>
       <c r="H59">
-        <v>0.5312857387780823</v>
+        <v>0.1795395836355066</v>
       </c>
       <c r="I59">
-        <v>0.5015884004034652</v>
+        <v>0.09874687033360371</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -2297,31 +2297,31 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60">
-        <v>0.6797598516196872</v>
+        <v>0.4050897185471125</v>
       </c>
       <c r="B60">
-        <v>0.09806640536220662</v>
+        <v>0.3038782561311852</v>
       </c>
       <c r="C60">
-        <v>0.3425092244134448</v>
+        <v>0.1615224221937219</v>
       </c>
       <c r="D60">
-        <v>0.0360361736339524</v>
+        <v>0.009120193675734479</v>
       </c>
       <c r="E60">
-        <v>0.7538418568238503</v>
+        <v>0.2786468420887077</v>
       </c>
       <c r="F60">
-        <v>0.2743969682851832</v>
+        <v>0.1785429963949083</v>
       </c>
       <c r="G60">
-        <v>0.601552877351645</v>
+        <v>0.1197239050481544</v>
       </c>
       <c r="H60">
-        <v>0.6196564190328867</v>
+        <v>0.4117435530667295</v>
       </c>
       <c r="I60">
-        <v>0.7429020575071921</v>
+        <v>0.02907200517235785</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -2329,31 +2329,31 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61">
-        <v>0.4313412418506293</v>
+        <v>0.8455497994977514</v>
       </c>
       <c r="B61">
-        <v>0.1575414152579516</v>
+        <v>0.1982653483420261</v>
       </c>
       <c r="C61">
-        <v>0.4061839572959339</v>
+        <v>0.3033223471915809</v>
       </c>
       <c r="D61">
-        <v>0.05507571034268888</v>
+        <v>0.02075081950273463</v>
       </c>
       <c r="E61">
-        <v>0.8063827143572779</v>
+        <v>0.2846230628019994</v>
       </c>
       <c r="F61">
-        <v>0.1634652275804042</v>
+        <v>0.5363506160212513</v>
       </c>
       <c r="G61">
-        <v>0.1188693565866355</v>
+        <v>0.07745730918961408</v>
       </c>
       <c r="H61">
-        <v>0.2916303502341022</v>
+        <v>0.01232237339669333</v>
       </c>
       <c r="I61">
-        <v>0.4910755245142797</v>
+        <v>0.03830945349373456</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -2361,31 +2361,31 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62">
-        <v>0.7609004892823383</v>
+        <v>0.4102646366090019</v>
       </c>
       <c r="B62">
-        <v>0.1807185712506693</v>
+        <v>0.175437076609344</v>
       </c>
       <c r="C62">
-        <v>0.2718244504745634</v>
+        <v>0.2390574435723745</v>
       </c>
       <c r="D62">
-        <v>0.2941940241456925</v>
+        <v>0.0009926766867806673</v>
       </c>
       <c r="E62">
-        <v>0.3907109021402957</v>
+        <v>0.4844946829033417</v>
       </c>
       <c r="F62">
-        <v>0.2131745279665735</v>
+        <v>0.5866484984545256</v>
       </c>
       <c r="G62">
-        <v>0.1022924398930075</v>
+        <v>0.1384704656352203</v>
       </c>
       <c r="H62">
-        <v>0.2580938047174997</v>
+        <v>0.04033074457428477</v>
       </c>
       <c r="I62">
-        <v>0.5890271494132293</v>
+        <v>0.08920526950863428</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -2393,31 +2393,31 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63">
-        <v>0.4170772368270709</v>
+        <v>0.2579020023962717</v>
       </c>
       <c r="B63">
-        <v>0.08898244811392031</v>
+        <v>0.231403760580943</v>
       </c>
       <c r="C63">
-        <v>0.2788795842227099</v>
+        <v>0.1049695472289523</v>
       </c>
       <c r="D63">
-        <v>0.3230936513588493</v>
+        <v>0.004387505349234885</v>
       </c>
       <c r="E63">
-        <v>0.4227279192295061</v>
+        <v>0.5922061476012994</v>
       </c>
       <c r="F63">
-        <v>0.2313384648081525</v>
+        <v>0.5011331009355957</v>
       </c>
       <c r="G63">
-        <v>0.001142625626385705</v>
+        <v>0.09598337370619803</v>
       </c>
       <c r="H63">
-        <v>0.3007324081633457</v>
+        <v>0.4144834994874075</v>
       </c>
       <c r="I63">
-        <v>0.8936740887262921</v>
+        <v>0.03764366358294192</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -2425,31 +2425,31 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64">
-        <v>0.5307773441645444</v>
+        <v>0.3866915754667525</v>
       </c>
       <c r="B64">
-        <v>0.2584239800574981</v>
+        <v>0.2222563436750664</v>
       </c>
       <c r="C64">
-        <v>0.1959628129330076</v>
+        <v>0.2191600507563795</v>
       </c>
       <c r="D64">
-        <v>0.5156438374652295</v>
+        <v>0.008914395059020395</v>
       </c>
       <c r="E64">
-        <v>0.2077835321837175</v>
+        <v>0.4735776334528725</v>
       </c>
       <c r="F64">
-        <v>0.2188026795360693</v>
+        <v>0.3297169724073949</v>
       </c>
       <c r="G64">
-        <v>0.2999344034057074</v>
+        <v>0.1100911182760972</v>
       </c>
       <c r="H64">
-        <v>0.2492380537121772</v>
+        <v>0.2854926529122739</v>
       </c>
       <c r="I64">
-        <v>0.4779926574549357</v>
+        <v>0.04419277945361272</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -2457,31 +2457,31 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65">
-        <v>0.3012623780424563</v>
+        <v>0.8901839804295356</v>
       </c>
       <c r="B65">
-        <v>0.1522670604641105</v>
+        <v>0.02532814978283171</v>
       </c>
       <c r="C65">
-        <v>0.4676427360653517</v>
+        <v>0.1148930390205962</v>
       </c>
       <c r="D65">
-        <v>0.572620804429994</v>
+        <v>0.01073334440026624</v>
       </c>
       <c r="E65">
-        <v>0.8255852109332942</v>
+        <v>0.5305914355540577</v>
       </c>
       <c r="F65">
-        <v>0.289036926182147</v>
+        <v>0.2304903671267149</v>
       </c>
       <c r="G65">
-        <v>0.1962221700794244</v>
+        <v>0.07399492938271116</v>
       </c>
       <c r="H65">
-        <v>0.3366079125864538</v>
+        <v>0.06387115712219496</v>
       </c>
       <c r="I65">
-        <v>0.8207366339605101</v>
+        <v>0.06608406725450902</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -2489,31 +2489,31 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66">
-        <v>0.1300450336571052</v>
+        <v>0.1937151917385301</v>
       </c>
       <c r="B66">
-        <v>0.1621835077323527</v>
+        <v>0.2736374769570633</v>
       </c>
       <c r="C66">
-        <v>0.3926188654429763</v>
+        <v>0.1529242156414272</v>
       </c>
       <c r="D66">
-        <v>0.6333137791964449</v>
+        <v>0.009616249586888634</v>
       </c>
       <c r="E66">
-        <v>0.8067656589033297</v>
+        <v>0.4487368040303102</v>
       </c>
       <c r="F66">
-        <v>0.1932376335143651</v>
+        <v>0.09943363658382266</v>
       </c>
       <c r="G66">
-        <v>0.1068801907448905</v>
+        <v>0.1481827310473073</v>
       </c>
       <c r="H66">
-        <v>0.2194460673624388</v>
+        <v>0.4083417204231259</v>
       </c>
       <c r="I66">
-        <v>0.9412404897435406</v>
+        <v>0.03483600214776245</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -2521,31 +2521,31 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67">
-        <v>0.7129087036473626</v>
+        <v>0.5705873715562761</v>
       </c>
       <c r="B67">
-        <v>0.1683840195822817</v>
+        <v>0.3925893395465965</v>
       </c>
       <c r="C67">
-        <v>0.1540025886609771</v>
+        <v>0.2419838045869578</v>
       </c>
       <c r="D67">
-        <v>0.5138086480075714</v>
+        <v>0.007770549344146263</v>
       </c>
       <c r="E67">
-        <v>0.856970994111154</v>
+        <v>0.5655208259712189</v>
       </c>
       <c r="F67">
-        <v>0.2791082526777595</v>
+        <v>0.5916724111013159</v>
       </c>
       <c r="G67">
-        <v>0.06452116887526044</v>
+        <v>0.1454167613505457</v>
       </c>
       <c r="H67">
-        <v>0.4886718732218364</v>
+        <v>0.3977553686931487</v>
       </c>
       <c r="I67">
-        <v>0.6814904014133618</v>
+        <v>0.08009787910278629</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -2553,31 +2553,31 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68">
-        <v>0.3406603793323427</v>
+        <v>0.09722771512489858</v>
       </c>
       <c r="B68">
-        <v>0.03683060369546115</v>
+        <v>0.2626531398942071</v>
       </c>
       <c r="C68">
-        <v>0.4377327295862721</v>
+        <v>0.4217245878024808</v>
       </c>
       <c r="D68">
-        <v>0.7645088553182889</v>
+        <v>0.01366508909099217</v>
       </c>
       <c r="E68">
-        <v>0.2485477513056356</v>
+        <v>0.3102786664359286</v>
       </c>
       <c r="F68">
-        <v>0.2319664693011593</v>
+        <v>0.4875534446864073</v>
       </c>
       <c r="G68">
-        <v>0.2521890246550207</v>
+        <v>0.09178647983540099</v>
       </c>
       <c r="H68">
-        <v>0.3266106357245541</v>
+        <v>0.2466563628516912</v>
       </c>
       <c r="I68">
-        <v>0.4777850841586703</v>
+        <v>0.007971969977492761</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -2585,31 +2585,31 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69">
-        <v>0.3735005360652568</v>
+        <v>0.141117294193481</v>
       </c>
       <c r="B69">
-        <v>0.06213334942105037</v>
+        <v>0.1125642792459745</v>
       </c>
       <c r="C69">
-        <v>0.3049294923093845</v>
+        <v>0.0243223342573074</v>
       </c>
       <c r="D69">
-        <v>0.3222788289910544</v>
+        <v>0.005155141649258607</v>
       </c>
       <c r="E69">
-        <v>0.6477993858459836</v>
+        <v>0.4428005731991865</v>
       </c>
       <c r="F69">
-        <v>0.226927956909669</v>
+        <v>0.189778163475347</v>
       </c>
       <c r="G69">
-        <v>0.1249373040246839</v>
+        <v>0.1166407743546262</v>
       </c>
       <c r="H69">
-        <v>0.1661950183661774</v>
+        <v>0.2413657334381972</v>
       </c>
       <c r="I69">
-        <v>0.6227227476701539</v>
+        <v>0.003031476055892994</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -2617,31 +2617,31 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70">
-        <v>0.02210521525421139</v>
+        <v>0.4847982953865793</v>
       </c>
       <c r="B70">
-        <v>0.1714636775389983</v>
+        <v>0.3259214600320113</v>
       </c>
       <c r="C70">
-        <v>0.4153742061881699</v>
+        <v>0.3582408542197659</v>
       </c>
       <c r="D70">
-        <v>0.6643977051453455</v>
+        <v>0.0115767576963228</v>
       </c>
       <c r="E70">
-        <v>0.4165005372582363</v>
+        <v>0.5710727294015346</v>
       </c>
       <c r="F70">
-        <v>0.1714891659009605</v>
+        <v>0.392488967285557</v>
       </c>
       <c r="G70">
-        <v>0.2538340686723797</v>
+        <v>0.1005754986531273</v>
       </c>
       <c r="H70">
-        <v>0.5033500275553926</v>
+        <v>0.2544418467908865</v>
       </c>
       <c r="I70">
-        <v>0.5992662729256631</v>
+        <v>0.01537044765170997</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -2649,31 +2649,31 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71">
-        <v>0.5690131394067858</v>
+        <v>0.9482030754870552</v>
       </c>
       <c r="B71">
-        <v>0.07503279541937741</v>
+        <v>0.1432089263781479</v>
       </c>
       <c r="C71">
-        <v>0.139338834605325</v>
+        <v>0.1000350868548797</v>
       </c>
       <c r="D71">
-        <v>0.1931669002562175</v>
+        <v>0.01795630243431414</v>
       </c>
       <c r="E71">
-        <v>0.5055439247772758</v>
+        <v>0.3170762065716692</v>
       </c>
       <c r="F71">
-        <v>0.1280348365813651</v>
+        <v>0.292515495474086</v>
       </c>
       <c r="G71">
-        <v>0.2763233918507972</v>
+        <v>0.0684751255815378</v>
       </c>
       <c r="H71">
-        <v>0.3101296464158058</v>
+        <v>0.3055673272588987</v>
       </c>
       <c r="I71">
-        <v>0.6308698354775881</v>
+        <v>0.02476324778473275</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -2681,31 +2681,31 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72">
-        <v>0.3045076843597458</v>
+        <v>0.9551273834979466</v>
       </c>
       <c r="B72">
-        <v>0.1428641387671641</v>
+        <v>0.07470951388406594</v>
       </c>
       <c r="C72">
-        <v>0.2657767626355087</v>
+        <v>0.3240381683125033</v>
       </c>
       <c r="D72">
-        <v>0.5467489739393122</v>
+        <v>0.004625376911743367</v>
       </c>
       <c r="E72">
-        <v>0.5852235982126303</v>
+        <v>0.3129698712851752</v>
       </c>
       <c r="F72">
-        <v>0.2698601545455429</v>
+        <v>0.4698581235734355</v>
       </c>
       <c r="G72">
-        <v>0.2107839701785218</v>
+        <v>0.08775987654866715</v>
       </c>
       <c r="H72">
-        <v>0.005868783088418317</v>
+        <v>0.07982643196044786</v>
       </c>
       <c r="I72">
-        <v>0.9657809464840719</v>
+        <v>0.08070484229208842</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -2713,31 +2713,31 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73">
-        <v>0.3057762138149855</v>
+        <v>0.3662601636415245</v>
       </c>
       <c r="B73">
-        <v>0.2332395267014866</v>
+        <v>0.4018457322688677</v>
       </c>
       <c r="C73">
-        <v>0.4001578603216198</v>
+        <v>0.2492372803979273</v>
       </c>
       <c r="D73">
-        <v>0.09740239661186234</v>
+        <v>0.0003079932497360941</v>
       </c>
       <c r="E73">
-        <v>0.3608747830623071</v>
+        <v>0.4921457404852942</v>
       </c>
       <c r="F73">
-        <v>0.2049216887538954</v>
+        <v>0.2390481038179482</v>
       </c>
       <c r="G73">
-        <v>0.06118056911123</v>
+        <v>0.1288286176518515</v>
       </c>
       <c r="H73">
-        <v>0.1828399962208163</v>
+        <v>0.1885280919668482</v>
       </c>
       <c r="I73">
-        <v>0.6135550157414476</v>
+        <v>0.0860611705233995</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -2745,31 +2745,31 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74">
-        <v>0.5241956987606822</v>
+        <v>0.1661251622934795</v>
       </c>
       <c r="B74">
-        <v>0.1656691051331262</v>
+        <v>0.3147624285469932</v>
       </c>
       <c r="C74">
-        <v>0.3564103876436522</v>
+        <v>0.1695364209363379</v>
       </c>
       <c r="D74">
-        <v>0.5018820804015285</v>
+        <v>0.0175155230143932</v>
       </c>
       <c r="E74">
-        <v>0.276818770064629</v>
+        <v>0.5371739584507561</v>
       </c>
       <c r="F74">
-        <v>0.1677230450551521</v>
+        <v>0.5917509371158429</v>
       </c>
       <c r="G74">
-        <v>0.2113012883577337</v>
+        <v>0.122484492828663</v>
       </c>
       <c r="H74">
-        <v>0.298244671434126</v>
+        <v>0.07263579999594609</v>
       </c>
       <c r="I74">
-        <v>0.8124283534006093</v>
+        <v>0.0510656411884027</v>
       </c>
       <c r="J74">
         <v>1</v>
@@ -2777,31 +2777,31 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75">
-        <v>0.3893463436459182</v>
+        <v>0.8328723945397654</v>
       </c>
       <c r="B75">
-        <v>0.2413370867747253</v>
+        <v>0.1981721192658451</v>
       </c>
       <c r="C75">
-        <v>0.1428394966925906</v>
+        <v>0.1718162405992999</v>
       </c>
       <c r="D75">
-        <v>0.1932158064771176</v>
+        <v>0.0002882147457224844</v>
       </c>
       <c r="E75">
-        <v>0.7692415031431588</v>
+        <v>0.474982247795855</v>
       </c>
       <c r="F75">
-        <v>0.2398749148055294</v>
+        <v>0.3324753765954284</v>
       </c>
       <c r="G75">
-        <v>0.3254355794509212</v>
+        <v>0.1179710011442075</v>
       </c>
       <c r="H75">
-        <v>0.2310745263660754</v>
+        <v>0.05568017044367442</v>
       </c>
       <c r="I75">
-        <v>0.8289316282428743</v>
+        <v>0.09732448684885488</v>
       </c>
       <c r="J75">
         <v>1</v>
@@ -2809,31 +2809,31 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76">
-        <v>0.2133132121685599</v>
+        <v>0.6660187882627084</v>
       </c>
       <c r="B76">
-        <v>0.1475041574313994</v>
+        <v>0.1347942273856544</v>
       </c>
       <c r="C76">
-        <v>0.4324620872573809</v>
+        <v>0.4099153369082897</v>
       </c>
       <c r="D76">
-        <v>0.4461419307694287</v>
+        <v>0.01322773201666341</v>
       </c>
       <c r="E76">
-        <v>0.7234331478725124</v>
+        <v>0.3493444384824135</v>
       </c>
       <c r="F76">
-        <v>0.1202594829510114</v>
+        <v>0.1803196095454516</v>
       </c>
       <c r="G76">
-        <v>0.2584118366111272</v>
+        <v>0.1130117816981281</v>
       </c>
       <c r="H76">
-        <v>0.4211682948923969</v>
+        <v>0.218039836742249</v>
       </c>
       <c r="I76">
-        <v>0.9487958974157286</v>
+        <v>0.08389006956733329</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -2841,31 +2841,31 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77">
-        <v>0.2925135521512545</v>
+        <v>0.1801843815866062</v>
       </c>
       <c r="B77">
-        <v>0.2397910351356782</v>
+        <v>0.02751528073384579</v>
       </c>
       <c r="C77">
-        <v>0.2701558862045844</v>
+        <v>0.4048007526256142</v>
       </c>
       <c r="D77">
-        <v>0.2969823948439078</v>
+        <v>0.01816075281882786</v>
       </c>
       <c r="E77">
-        <v>0.7234079005476324</v>
+        <v>0.5693804602241083</v>
       </c>
       <c r="F77">
-        <v>0.1600442266377378</v>
+        <v>0.1040530777172198</v>
       </c>
       <c r="G77">
-        <v>0.5013074821842131</v>
+        <v>0.1105510450514984</v>
       </c>
       <c r="H77">
-        <v>0.6459519544124629</v>
+        <v>0.3592268736782431</v>
       </c>
       <c r="I77">
-        <v>0.7299287597784057</v>
+        <v>0.07056506681353776</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -2873,31 +2873,31 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78">
-        <v>0.5683211107523171</v>
+        <v>0.9094132449271543</v>
       </c>
       <c r="B78">
-        <v>0.2271215155305514</v>
+        <v>0.3191531890973474</v>
       </c>
       <c r="C78">
-        <v>0.1097405046088017</v>
+        <v>0.151215006306322</v>
       </c>
       <c r="D78">
-        <v>0.1307154768446195</v>
+        <v>0.007832732639249789</v>
       </c>
       <c r="E78">
-        <v>0.3927952007575536</v>
+        <v>0.4851770124318006</v>
       </c>
       <c r="F78">
-        <v>0.09775088669031677</v>
+        <v>0.4915918987116468</v>
       </c>
       <c r="G78">
-        <v>0.493453541668572</v>
+        <v>0.1362442556618306</v>
       </c>
       <c r="H78">
-        <v>0.6027631944230886</v>
+        <v>0.318521423898713</v>
       </c>
       <c r="I78">
-        <v>0.5423011570291967</v>
+        <v>0.03279819309678873</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -2905,31 +2905,31 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79">
-        <v>0.1586720772282822</v>
+        <v>0.3895305029432046</v>
       </c>
       <c r="B79">
-        <v>0.1415196304969489</v>
+        <v>0.2450467750844114</v>
       </c>
       <c r="C79">
-        <v>0.2378777390566053</v>
+        <v>0.3005245637771251</v>
       </c>
       <c r="D79">
-        <v>0.03664276639663011</v>
+        <v>0.01401772363494066</v>
       </c>
       <c r="E79">
-        <v>0.7533689321453209</v>
+        <v>0.422403851867075</v>
       </c>
       <c r="F79">
-        <v>0.3365291050710211</v>
+        <v>0.2570220036903162</v>
       </c>
       <c r="G79">
-        <v>0.5629043598857443</v>
+        <v>0.1309179995550884</v>
       </c>
       <c r="H79">
-        <v>0.135635293449055</v>
+        <v>0.04360742702708943</v>
       </c>
       <c r="I79">
-        <v>0.5170123373533619</v>
+        <v>0.02699638947560745</v>
       </c>
       <c r="J79">
         <v>1</v>
@@ -2937,31 +2937,31 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80">
-        <v>0.7406590401449029</v>
+        <v>0.8806704545655945</v>
       </c>
       <c r="B80">
-        <v>0.1485281260215442</v>
+        <v>0.3975558240458794</v>
       </c>
       <c r="C80">
-        <v>0.1747518870824853</v>
+        <v>0.3508984280273415</v>
       </c>
       <c r="D80">
-        <v>0.6779677157527806</v>
+        <v>0.01142439052276849</v>
       </c>
       <c r="E80">
-        <v>0.6917130634138537</v>
+        <v>0.3853614264363913</v>
       </c>
       <c r="F80">
-        <v>0.2417752289336114</v>
+        <v>0.5155201126582533</v>
       </c>
       <c r="G80">
-        <v>0.4552951620174812</v>
+        <v>0.1397340508773631</v>
       </c>
       <c r="H80">
-        <v>0.4848886775878017</v>
+        <v>0.05919201206313807</v>
       </c>
       <c r="I80">
-        <v>0.5760453449585434</v>
+        <v>0.06856596416462868</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -2969,31 +2969,31 @@
     </row>
     <row r="81" spans="1:10">
       <c r="A81">
-        <v>0.4154203707397666</v>
+        <v>0.5864851643692225</v>
       </c>
       <c r="B81">
-        <v>0.02583614241372745</v>
+        <v>0.1445938494833554</v>
       </c>
       <c r="C81">
-        <v>0.1519936178357166</v>
+        <v>0.07163022950095739</v>
       </c>
       <c r="D81">
-        <v>0.1429196823481367</v>
+        <v>0.005795640036902302</v>
       </c>
       <c r="E81">
-        <v>0.2961698053482165</v>
+        <v>0.2620150376695878</v>
       </c>
       <c r="F81">
-        <v>0.2982187811717838</v>
+        <v>0.2656876397896884</v>
       </c>
       <c r="G81">
-        <v>0.4762027928311024</v>
+        <v>0.1010195122890877</v>
       </c>
       <c r="H81">
-        <v>0.427781083285932</v>
+        <v>0.4183067678027823</v>
       </c>
       <c r="I81">
-        <v>0.6701633970731623</v>
+        <v>0.01626899063600424</v>
       </c>
       <c r="J81">
         <v>1</v>
@@ -3001,31 +3001,31 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82">
-        <v>0.7425999294438871</v>
+        <v>0.3728554451018009</v>
       </c>
       <c r="B82">
-        <v>0.146253699038938</v>
+        <v>0.3755505918543035</v>
       </c>
       <c r="C82">
-        <v>0.2820510025514812</v>
+        <v>0.1461707037640317</v>
       </c>
       <c r="D82">
-        <v>0.4279200823682381</v>
+        <v>0.00700198454617928</v>
       </c>
       <c r="E82">
-        <v>0.7005030436240428</v>
+        <v>0.4034300285473119</v>
       </c>
       <c r="F82">
-        <v>0.3159931918065621</v>
+        <v>0.5826710413887183</v>
       </c>
       <c r="G82">
-        <v>0.2397550335215898</v>
+        <v>0.1150257115672623</v>
       </c>
       <c r="H82">
-        <v>0.3937038309972685</v>
+        <v>0.131187177058266</v>
       </c>
       <c r="I82">
-        <v>0.9393423409820273</v>
+        <v>0.03928774716903523</v>
       </c>
       <c r="J82">
         <v>1</v>
@@ -3033,31 +3033,31 @@
     </row>
     <row r="83" spans="1:10">
       <c r="A83">
-        <v>0.6529300440559661</v>
+        <v>0.3061674941390377</v>
       </c>
       <c r="B83">
-        <v>0.04283929891487809</v>
+        <v>0.3457825434857845</v>
       </c>
       <c r="C83">
-        <v>0.2104267818181418</v>
+        <v>0.3373915208568503</v>
       </c>
       <c r="D83">
-        <v>0.1652668322399258</v>
+        <v>0.005892342704172224</v>
       </c>
       <c r="E83">
-        <v>0.8560429232731105</v>
+        <v>0.3238203068726252</v>
       </c>
       <c r="F83">
-        <v>0.1613104831896752</v>
+        <v>0.4411788652033762</v>
       </c>
       <c r="G83">
-        <v>0.3300417165965597</v>
+        <v>0.1168672986770073</v>
       </c>
       <c r="H83">
-        <v>0.4394265120184102</v>
+        <v>0.1148320346738023</v>
       </c>
       <c r="I83">
-        <v>0.7878711559936913</v>
+        <v>0.03880367397070605</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -3065,31 +3065,31 @@
     </row>
     <row r="84" spans="1:10">
       <c r="A84">
-        <v>0.6240271099917326</v>
+        <v>0.8187909917717269</v>
       </c>
       <c r="B84">
-        <v>0.1181753966865532</v>
+        <v>0.08212638411719297</v>
       </c>
       <c r="C84">
-        <v>0.2331849212292594</v>
+        <v>0.1444849131977583</v>
       </c>
       <c r="D84">
-        <v>0.7378383364807924</v>
+        <v>0.01354473474630864</v>
       </c>
       <c r="E84">
-        <v>0.5432063305688081</v>
+        <v>0.23536808917179</v>
       </c>
       <c r="F84">
-        <v>0.1086011668915737</v>
+        <v>0.4333645830029332</v>
       </c>
       <c r="G84">
-        <v>0.3030331195837379</v>
+        <v>0.1149721975152303</v>
       </c>
       <c r="H84">
-        <v>0.01063709989849126</v>
+        <v>0.1903271380550821</v>
       </c>
       <c r="I84">
-        <v>0.9445794629187345</v>
+        <v>0.01675251533145878</v>
       </c>
       <c r="J84">
         <v>1</v>
@@ -3097,31 +3097,31 @@
     </row>
     <row r="85" spans="1:10">
       <c r="A85">
-        <v>0.000877314033567389</v>
+        <v>0.6330019482763759</v>
       </c>
       <c r="B85">
-        <v>0.04857587532119273</v>
+        <v>0.3585931472252251</v>
       </c>
       <c r="C85">
-        <v>0.1719295742523865</v>
+        <v>0.09506577256370685</v>
       </c>
       <c r="D85">
-        <v>0.665975230927158</v>
+        <v>0.01454206037429564</v>
       </c>
       <c r="E85">
-        <v>0.2369550993888134</v>
+        <v>0.2842855191120291</v>
       </c>
       <c r="F85">
-        <v>0.2463330427571011</v>
+        <v>0.1207071217415107</v>
       </c>
       <c r="G85">
-        <v>0.03311561173077555</v>
+        <v>0.06453179297564016</v>
       </c>
       <c r="H85">
-        <v>0.418867365585664</v>
+        <v>0.3187141858897754</v>
       </c>
       <c r="I85">
-        <v>0.9489432742373994</v>
+        <v>0.05562509943003531</v>
       </c>
       <c r="J85">
         <v>1</v>
@@ -3129,31 +3129,31 @@
     </row>
     <row r="86" spans="1:10">
       <c r="A86">
-        <v>0.5880927115606422</v>
+        <v>0.5372116568377587</v>
       </c>
       <c r="B86">
-        <v>0.1961339608041502</v>
+        <v>0.3178683662053394</v>
       </c>
       <c r="C86">
-        <v>0.2693006985053112</v>
+        <v>0.2914599446897575</v>
       </c>
       <c r="D86">
-        <v>0.4867069820712263</v>
+        <v>0.008142842117752888</v>
       </c>
       <c r="E86">
-        <v>0.4751759219638456</v>
+        <v>0.3244961962413745</v>
       </c>
       <c r="F86">
-        <v>0.2701546841131077</v>
+        <v>0.4338925349196686</v>
       </c>
       <c r="G86">
-        <v>0.2118590150882338</v>
+        <v>0.1040587717067121</v>
       </c>
       <c r="H86">
-        <v>0.5437801883107627</v>
+        <v>0.1715267920248087</v>
       </c>
       <c r="I86">
-        <v>0.5103641323931992</v>
+        <v>0.09993764479071827</v>
       </c>
       <c r="J86">
         <v>1</v>
@@ -3161,31 +3161,31 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87">
-        <v>0.1358398629904009</v>
+        <v>0.8901839804295356</v>
       </c>
       <c r="B87">
-        <v>0.09541984045970597</v>
+        <v>0.4322544973991049</v>
       </c>
       <c r="C87">
-        <v>0.1260343227553991</v>
+        <v>0.08822009753106713</v>
       </c>
       <c r="D87">
-        <v>0.1896993852148199</v>
+        <v>0.00883076164117323</v>
       </c>
       <c r="E87">
-        <v>0.6120201494046278</v>
+        <v>0.4177071232942993</v>
       </c>
       <c r="F87">
-        <v>0.1440662442993184</v>
+        <v>0.5995785322895317</v>
       </c>
       <c r="G87">
-        <v>0.2019917531176891</v>
+        <v>0.1218068635493403</v>
       </c>
       <c r="H87">
-        <v>0.2389239877049345</v>
+        <v>0.2778644572850731</v>
       </c>
       <c r="I87">
-        <v>0.9448670872817331</v>
+        <v>0.08819138908607894</v>
       </c>
       <c r="J87">
         <v>1</v>
@@ -3193,31 +3193,31 @@
     </row>
     <row r="88" spans="1:10">
       <c r="A88">
-        <v>0.282756655154488</v>
+        <v>0.6046852147658465</v>
       </c>
       <c r="B88">
-        <v>0.03812304287376267</v>
+        <v>0.404702035827196</v>
       </c>
       <c r="C88">
-        <v>0.4133055416579067</v>
+        <v>0.1047834589733762</v>
       </c>
       <c r="D88">
-        <v>0.4187187448708957</v>
+        <v>0.0009742754407699015</v>
       </c>
       <c r="E88">
-        <v>0.3703275707025435</v>
+        <v>0.2382944698099655</v>
       </c>
       <c r="F88">
-        <v>0.1556833445193394</v>
+        <v>0.3905026100269491</v>
       </c>
       <c r="G88">
-        <v>0.1472270548281086</v>
+        <v>0.1319544717218931</v>
       </c>
       <c r="H88">
-        <v>0.2916033495101795</v>
+        <v>0.02159166586688782</v>
       </c>
       <c r="I88">
-        <v>0.8879559030862316</v>
+        <v>0.0999068742623853</v>
       </c>
       <c r="J88">
         <v>1</v>
@@ -3225,31 +3225,31 @@
     </row>
     <row r="89" spans="1:10">
       <c r="A89">
-        <v>0.08829107325347474</v>
+        <v>0.8888471646247113</v>
       </c>
       <c r="B89">
-        <v>0.04636199676768049</v>
+        <v>0.01419722956911629</v>
       </c>
       <c r="C89">
-        <v>0.06720860314682892</v>
+        <v>0.05650974641027699</v>
       </c>
       <c r="D89">
-        <v>0.5485743794028115</v>
+        <v>0.01916322414362777</v>
       </c>
       <c r="E89">
-        <v>0.6348750866720437</v>
+        <v>0.543125928535606</v>
       </c>
       <c r="F89">
-        <v>0.1635847555374373</v>
+        <v>0.3266544588444754</v>
       </c>
       <c r="G89">
-        <v>0.1174162121924135</v>
+        <v>0.06581868323377939</v>
       </c>
       <c r="H89">
-        <v>0.4367969326065422</v>
+        <v>0.11599419945072</v>
       </c>
       <c r="I89">
-        <v>0.4582414233270863</v>
+        <v>0.02028159528653322</v>
       </c>
       <c r="J89">
         <v>1</v>
@@ -3257,31 +3257,31 @@
     </row>
     <row r="90" spans="1:10">
       <c r="A90">
-        <v>0.7040443624677404</v>
+        <v>0.6730269268548852</v>
       </c>
       <c r="B90">
-        <v>0.1201565403971948</v>
+        <v>0.000456662238101424</v>
       </c>
       <c r="C90">
-        <v>0.3485626535777624</v>
+        <v>0.03550781563079805</v>
       </c>
       <c r="D90">
-        <v>0.5706271126800452</v>
+        <v>0.01661404900277253</v>
       </c>
       <c r="E90">
-        <v>0.8370517182818434</v>
+        <v>0.3083537960682964</v>
       </c>
       <c r="F90">
-        <v>0.2022600972195138</v>
+        <v>0.3104835517391487</v>
       </c>
       <c r="G90">
-        <v>0.5543971790065501</v>
+        <v>0.1466604809686931</v>
       </c>
       <c r="H90">
-        <v>0.511192566360626</v>
+        <v>0.2245743439546653</v>
       </c>
       <c r="I90">
-        <v>0.6947513245270522</v>
+        <v>0.03195152001227046</v>
       </c>
       <c r="J90">
         <v>1</v>
@@ -3289,31 +3289,31 @@
     </row>
     <row r="91" spans="1:10">
       <c r="A91">
-        <v>0.350997468233357</v>
+        <v>0.5953284805035753</v>
       </c>
       <c r="B91">
-        <v>0.1901209112747502</v>
+        <v>0.1496710701275354</v>
       </c>
       <c r="C91">
-        <v>0.1622776227483871</v>
+        <v>0.1717679167174454</v>
       </c>
       <c r="D91">
-        <v>0.2931850760180388</v>
+        <v>0.01678468809301365</v>
       </c>
       <c r="E91">
-        <v>0.7378762153829437</v>
+        <v>0.2925855301384894</v>
       </c>
       <c r="F91">
-        <v>0.28988785375394</v>
+        <v>0.238785762150177</v>
       </c>
       <c r="G91">
-        <v>0.5814462610784153</v>
+        <v>0.1116242697268221</v>
       </c>
       <c r="H91">
-        <v>0.1517842607521824</v>
+        <v>0.09301518200645952</v>
       </c>
       <c r="I91">
-        <v>0.4844875134083733</v>
+        <v>0.03851542087363676</v>
       </c>
       <c r="J91">
         <v>1</v>
@@ -3321,31 +3321,31 @@
     </row>
     <row r="92" spans="1:10">
       <c r="A92">
-        <v>0.6306306867098629</v>
+        <v>0.8096298365784652</v>
       </c>
       <c r="B92">
-        <v>0.1119259914934903</v>
+        <v>0.2411310450053031</v>
       </c>
       <c r="C92">
-        <v>0.200776513497223</v>
+        <v>0.03188710094626653</v>
       </c>
       <c r="D92">
-        <v>0.6923389479300928</v>
+        <v>0.01818992048031787</v>
       </c>
       <c r="E92">
-        <v>0.578303701346944</v>
+        <v>0.5180028443509377</v>
       </c>
       <c r="F92">
-        <v>0.06378918079882058</v>
+        <v>0.2235601375181422</v>
       </c>
       <c r="G92">
-        <v>0.02264370821935154</v>
+        <v>0.1291594159557613</v>
       </c>
       <c r="H92">
-        <v>0.2923354838356264</v>
+        <v>0.05178786352223264</v>
       </c>
       <c r="I92">
-        <v>0.8751911172371069</v>
+        <v>0.03172681309647487</v>
       </c>
       <c r="J92">
         <v>1</v>
@@ -3353,31 +3353,31 @@
     </row>
     <row r="93" spans="1:10">
       <c r="A93">
-        <v>0.229462359897517</v>
+        <v>0.09722771512489858</v>
       </c>
       <c r="B93">
-        <v>0.1187432488688776</v>
+        <v>0.2626531398942071</v>
       </c>
       <c r="C93">
-        <v>0.2909007639547515</v>
+        <v>0.4217245878024808</v>
       </c>
       <c r="D93">
-        <v>0.3345492100739709</v>
+        <v>0.01366508909099217</v>
       </c>
       <c r="E93">
-        <v>0.4363921242611235</v>
+        <v>0.5260798439104963</v>
       </c>
       <c r="F93">
-        <v>0.1076596059446341</v>
+        <v>0.2541099528179138</v>
       </c>
       <c r="G93">
-        <v>0.4659721746907303</v>
+        <v>0.1025496717774234</v>
       </c>
       <c r="H93">
-        <v>0.565480979196987</v>
+        <v>0.2785079269738658</v>
       </c>
       <c r="I93">
-        <v>0.5368943701431843</v>
+        <v>0.03195152001227046</v>
       </c>
       <c r="J93">
         <v>1</v>
@@ -3385,31 +3385,31 @@
     </row>
     <row r="94" spans="1:10">
       <c r="A94">
-        <v>0.2994107825685355</v>
+        <v>0.6245849350076458</v>
       </c>
       <c r="B94">
-        <v>0.1481531712145467</v>
+        <v>0.1699609778443627</v>
       </c>
       <c r="C94">
-        <v>0.3348753490003449</v>
+        <v>0.2249896520330217</v>
       </c>
       <c r="D94">
-        <v>0.4146364544429629</v>
+        <v>0.001305065978842233</v>
       </c>
       <c r="E94">
-        <v>0.721583055779775</v>
+        <v>0.3732988928108265</v>
       </c>
       <c r="F94">
-        <v>0.3162639924336057</v>
+        <v>0.1870968993928501</v>
       </c>
       <c r="G94">
-        <v>0.4202822335295507</v>
+        <v>0.1010165919747767</v>
       </c>
       <c r="H94">
-        <v>0.4827729672077257</v>
+        <v>0.3843323207506202</v>
       </c>
       <c r="I94">
-        <v>0.7746022379611353</v>
+        <v>0.05738086608212907</v>
       </c>
       <c r="J94">
         <v>1</v>
@@ -3417,31 +3417,31 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95">
-        <v>0.6053806192210178</v>
+        <v>0.5808929648811672</v>
       </c>
       <c r="B95">
-        <v>0.1320250456179998</v>
+        <v>0.3858656134873522</v>
       </c>
       <c r="C95">
-        <v>0.3274899913460953</v>
+        <v>0.01405151871793038</v>
       </c>
       <c r="D95">
-        <v>0.2408902481913814</v>
+        <v>0.01877493034191557</v>
       </c>
       <c r="E95">
-        <v>0.3325380614832106</v>
+        <v>0.2513252008452074</v>
       </c>
       <c r="F95">
-        <v>0.2315893660417525</v>
+        <v>0.376974000059812</v>
       </c>
       <c r="G95">
-        <v>0.4097091787368028</v>
+        <v>0.1196763273709627</v>
       </c>
       <c r="H95">
-        <v>0.5822055054744101</v>
+        <v>0.2631771261620344</v>
       </c>
       <c r="I95">
-        <v>0.4925153407329229</v>
+        <v>0.05281515270213795</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -3449,31 +3449,31 @@
     </row>
     <row r="96" spans="1:10">
       <c r="A96">
-        <v>0.292190407402375</v>
+        <v>0.8455497994977514</v>
       </c>
       <c r="B96">
-        <v>0.1473853409031698</v>
+        <v>0.1982653483420261</v>
       </c>
       <c r="C96">
-        <v>0.1311989532691777</v>
+        <v>0.3033223471915809</v>
       </c>
       <c r="D96">
-        <v>0.09016617036914165</v>
+        <v>0.02075081950273463</v>
       </c>
       <c r="E96">
-        <v>0.6480476879341395</v>
+        <v>0.4269218322995444</v>
       </c>
       <c r="F96">
-        <v>0.1246924233203354</v>
+        <v>0.1440012749294467</v>
       </c>
       <c r="G96">
-        <v>0.5502809123234232</v>
+        <v>0.1427038709921181</v>
       </c>
       <c r="H96">
-        <v>0.1966016887518992</v>
+        <v>0.3219137612094144</v>
       </c>
       <c r="I96">
-        <v>0.7707514751463347</v>
+        <v>0.06189943524961013</v>
       </c>
       <c r="J96">
         <v>1</v>
@@ -3481,31 +3481,31 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97">
-        <v>0.03802034602455528</v>
+        <v>0.1198670333138074</v>
       </c>
       <c r="B97">
-        <v>0.09749549602363261</v>
+        <v>0.1302937329211035</v>
       </c>
       <c r="C97">
-        <v>0.2845403172452545</v>
+        <v>0.3464832813351998</v>
       </c>
       <c r="D97">
-        <v>0.6320416895522114</v>
+        <v>0.002626253758414259</v>
       </c>
       <c r="E97">
-        <v>0.3648688864741084</v>
+        <v>0.2418729710554961</v>
       </c>
       <c r="F97">
-        <v>0.2728000261526057</v>
+        <v>0.4264285616321792</v>
       </c>
       <c r="G97">
-        <v>0.1307636403716904</v>
+        <v>0.06297664987962108</v>
       </c>
       <c r="H97">
-        <v>0.3181424150862234</v>
+        <v>0.2176919546056543</v>
       </c>
       <c r="I97">
-        <v>0.8990506037779187</v>
+        <v>0.003915029471609922</v>
       </c>
       <c r="J97">
         <v>1</v>
@@ -3513,31 +3513,31 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98">
-        <v>0.05837955630154679</v>
+        <v>0.4847982953865793</v>
       </c>
       <c r="B98">
-        <v>0.09265897344463558</v>
+        <v>0.3259214600320113</v>
       </c>
       <c r="C98">
-        <v>0.2286275218804462</v>
+        <v>0.3582408542197659</v>
       </c>
       <c r="D98">
-        <v>0.1576024470402588</v>
+        <v>0.0115767576963228</v>
       </c>
       <c r="E98">
-        <v>0.7992192141249186</v>
+        <v>0.5710727294015346</v>
       </c>
       <c r="F98">
-        <v>0.2988604638211098</v>
+        <v>0.392488967285557</v>
       </c>
       <c r="G98">
-        <v>0.2007540573243809</v>
+        <v>0.1005754986531273</v>
       </c>
       <c r="H98">
-        <v>0.40194742033396</v>
+        <v>0.2544418467908865</v>
       </c>
       <c r="I98">
-        <v>0.6783766895630726</v>
+        <v>0.01537044765170997</v>
       </c>
       <c r="J98">
         <v>1</v>
@@ -3545,31 +3545,31 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99">
-        <v>0.1316469064971342</v>
+        <v>0.8806704545655945</v>
       </c>
       <c r="B99">
-        <v>0.04672969062987631</v>
+        <v>0.3975558240458794</v>
       </c>
       <c r="C99">
-        <v>0.241221849340549</v>
+        <v>0.3508984280273415</v>
       </c>
       <c r="D99">
-        <v>0.2527349025991839</v>
+        <v>0.01142439052276849</v>
       </c>
       <c r="E99">
-        <v>0.2474707956076746</v>
+        <v>0.3853614264363913</v>
       </c>
       <c r="F99">
-        <v>0.05334048338665787</v>
+        <v>0.5155201126582533</v>
       </c>
       <c r="G99">
-        <v>0.07093523872874516</v>
+        <v>0.1397340508773631</v>
       </c>
       <c r="H99">
-        <v>0.2189229733658871</v>
+        <v>0.05919201206313807</v>
       </c>
       <c r="I99">
-        <v>0.4830590570477089</v>
+        <v>0.06856596416462868</v>
       </c>
       <c r="J99">
         <v>1</v>
@@ -3577,31 +3577,31 @@
     </row>
     <row r="100" spans="1:10">
       <c r="A100">
-        <v>0.5343778598337943</v>
+        <v>0.5258406949711322</v>
       </c>
       <c r="B100">
-        <v>0.1785308648212524</v>
+        <v>0.04944651088690266</v>
       </c>
       <c r="C100">
-        <v>0.1733079377439658</v>
+        <v>0.06760747412792015</v>
       </c>
       <c r="D100">
-        <v>0.5950758159212461</v>
+        <v>0.001779946506658067</v>
       </c>
       <c r="E100">
-        <v>0.8253294773486554</v>
+        <v>0.5836644795724625</v>
       </c>
       <c r="F100">
-        <v>0.3198805071426158</v>
+        <v>0.5218276570581811</v>
       </c>
       <c r="G100">
-        <v>0.02220301726354512</v>
+        <v>0.1487399259857501</v>
       </c>
       <c r="H100">
-        <v>0.03149298367530062</v>
+        <v>0.1901920259723187</v>
       </c>
       <c r="I100">
-        <v>0.9104855791848276</v>
+        <v>0.04481586804144353</v>
       </c>
       <c r="J100">
         <v>1</v>
@@ -3609,31 +3609,31 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101">
-        <v>0.5726792878526734</v>
+        <v>0.07103141674215185</v>
       </c>
       <c r="B101">
-        <v>0.00165730531642877</v>
+        <v>0.05251936284360476</v>
       </c>
       <c r="C101">
-        <v>0.3975730967726844</v>
+        <v>0.2121430764557561</v>
       </c>
       <c r="D101">
-        <v>0.7639577464612087</v>
+        <v>0.01678468809301365</v>
       </c>
       <c r="E101">
-        <v>0.8078740736723724</v>
+        <v>0.2925855301384894</v>
       </c>
       <c r="F101">
-        <v>0.1889033117826918</v>
+        <v>0.238785762150177</v>
       </c>
       <c r="G101">
-        <v>0.08282336501272444</v>
+        <v>0.1116242697268221</v>
       </c>
       <c r="H101">
-        <v>0.6353073800604223</v>
+        <v>0.09301518200645952</v>
       </c>
       <c r="I101">
-        <v>0.5601355135167947</v>
+        <v>0.03851542087363676</v>
       </c>
       <c r="J101">
         <v>1</v>
@@ -3641,31 +3641,31 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102">
-        <v>0.6283496939426676</v>
+        <v>0.3418994369744686</v>
       </c>
       <c r="B102">
-        <v>0.1353978827544162</v>
+        <v>0.170488763850335</v>
       </c>
       <c r="C102">
-        <v>0.1291364103685294</v>
+        <v>0.1131657286014482</v>
       </c>
       <c r="D102">
-        <v>0.2615426911499215</v>
+        <v>0.02014307205172638</v>
       </c>
       <c r="E102">
-        <v>0.7205949520570227</v>
+        <v>0.4361835022469558</v>
       </c>
       <c r="F102">
-        <v>0.243320261600623</v>
+        <v>0.09031513484382141</v>
       </c>
       <c r="G102">
-        <v>0.422612178186576</v>
+        <v>0.09512883718501207</v>
       </c>
       <c r="H102">
-        <v>0.452624648979876</v>
+        <v>0.2391549058012889</v>
       </c>
       <c r="I102">
-        <v>0.9411558083693875</v>
+        <v>0.04565604791110439</v>
       </c>
       <c r="J102">
         <v>1</v>
@@ -3673,31 +3673,31 @@
     </row>
     <row r="103" spans="1:10">
       <c r="A103">
-        <v>0.6772317582440697</v>
+        <v>0.3390363328215115</v>
       </c>
       <c r="B103">
-        <v>0.2283460874732818</v>
+        <v>0.2536540185379191</v>
       </c>
       <c r="C103">
-        <v>0.1918094234067741</v>
+        <v>0.2576834030462296</v>
       </c>
       <c r="D103">
-        <v>0.2868945458773374</v>
+        <v>0.005155141649258607</v>
       </c>
       <c r="E103">
-        <v>0.5176502879522804</v>
+        <v>0.4428005731991865</v>
       </c>
       <c r="F103">
-        <v>0.2069351227083353</v>
+        <v>0.189778163475347</v>
       </c>
       <c r="G103">
-        <v>0.1808406882960598</v>
+        <v>0.1166407743546262</v>
       </c>
       <c r="H103">
-        <v>0.2210336041169305</v>
+        <v>0.2413657334381972</v>
       </c>
       <c r="I103">
-        <v>0.9175044712326593</v>
+        <v>0.003031476055892994</v>
       </c>
       <c r="J103">
         <v>1</v>
@@ -3705,31 +3705,31 @@
     </row>
     <row r="104" spans="1:10">
       <c r="A104">
-        <v>0.6285908512524941</v>
+        <v>0.8741114447166558</v>
       </c>
       <c r="B104">
-        <v>0.156124470547452</v>
+        <v>0.3468140607800189</v>
       </c>
       <c r="C104">
-        <v>0.4399794745128083</v>
+        <v>0.1850289331987723</v>
       </c>
       <c r="D104">
-        <v>0.5062230754579337</v>
+        <v>0.02032550717717205</v>
       </c>
       <c r="E104">
-        <v>0.7120821386035434</v>
+        <v>0.541334635934873</v>
       </c>
       <c r="F104">
-        <v>0.1595088683848931</v>
+        <v>0.460733803301016</v>
       </c>
       <c r="G104">
-        <v>0.01552458651637477</v>
+        <v>0.1398128034671637</v>
       </c>
       <c r="H104">
-        <v>0.03254250990773722</v>
+        <v>0.1476619070793012</v>
       </c>
       <c r="I104">
-        <v>0.5426065412389596</v>
+        <v>0.001618852746499327</v>
       </c>
       <c r="J104">
         <v>1</v>
@@ -3737,31 +3737,31 @@
     </row>
     <row r="105" spans="1:10">
       <c r="A105">
-        <v>0.5656204011817002</v>
+        <v>0.5119044458232688</v>
       </c>
       <c r="B105">
-        <v>0.1977613407722814</v>
+        <v>0.2971542353989048</v>
       </c>
       <c r="C105">
-        <v>0.4189828414759671</v>
+        <v>0.2423664077581179</v>
       </c>
       <c r="D105">
-        <v>0.4208609481243472</v>
+        <v>0.009724185282146769</v>
       </c>
       <c r="E105">
-        <v>0.6314748842221755</v>
+        <v>0.4959262875942373</v>
       </c>
       <c r="F105">
-        <v>0.3600614341516463</v>
+        <v>0.392488967285557</v>
       </c>
       <c r="G105">
-        <v>0.1149076845378194</v>
+        <v>0.1005754986531273</v>
       </c>
       <c r="H105">
-        <v>0.3957869926214536</v>
+        <v>0.2544418467908865</v>
       </c>
       <c r="I105">
-        <v>0.6434282758582195</v>
+        <v>0.01537044765170997</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -3769,31 +3769,31 @@
     </row>
     <row r="106" spans="1:10">
       <c r="A106">
-        <v>0.4231529319170726</v>
+        <v>0.6330019482763759</v>
       </c>
       <c r="B106">
-        <v>0.02292962175692559</v>
+        <v>0.3967352807240426</v>
       </c>
       <c r="C106">
-        <v>0.1316017941716963</v>
+        <v>0.4051047445821902</v>
       </c>
       <c r="D106">
-        <v>0.7712981258159174</v>
+        <v>0.01747897568651462</v>
       </c>
       <c r="E106">
-        <v>0.5813061539162391</v>
+        <v>0.2554551028871774</v>
       </c>
       <c r="F106">
-        <v>0.263588373161487</v>
+        <v>0.1091079679743746</v>
       </c>
       <c r="G106">
-        <v>0.3032178312309133</v>
+        <v>0.1100798082475901</v>
       </c>
       <c r="H106">
-        <v>0.1260968701608964</v>
+        <v>0.2652190419353401</v>
       </c>
       <c r="I106">
-        <v>0.6422182880003946</v>
+        <v>0.03586681798989717</v>
       </c>
       <c r="J106">
         <v>1</v>
@@ -3801,31 +3801,31 @@
     </row>
     <row r="107" spans="1:10">
       <c r="A107">
-        <v>0.2550844142374686</v>
+        <v>0.5372116568377587</v>
       </c>
       <c r="B107">
-        <v>0.07471099290073047</v>
+        <v>0.3178683662053394</v>
       </c>
       <c r="C107">
-        <v>0.3120476992740694</v>
+        <v>0.2914599446897575</v>
       </c>
       <c r="D107">
-        <v>0.1261619562097791</v>
+        <v>0.008142842117752888</v>
       </c>
       <c r="E107">
-        <v>0.6244947124974559</v>
+        <v>0.3244961962413745</v>
       </c>
       <c r="F107">
-        <v>0.1739925455930587</v>
+        <v>0.4338925349196686</v>
       </c>
       <c r="G107">
-        <v>0.02313614350600417</v>
+        <v>0.1040587717067121</v>
       </c>
       <c r="H107">
-        <v>0.5965955434879741</v>
+        <v>0.2896323003070397</v>
       </c>
       <c r="I107">
-        <v>0.6113724533293892</v>
+        <v>0.04485785891591901</v>
       </c>
       <c r="J107">
         <v>1</v>
@@ -3833,31 +3833,31 @@
     </row>
     <row r="108" spans="1:10">
       <c r="A108">
-        <v>0.0001802011132414627</v>
+        <v>0.6230875675450674</v>
       </c>
       <c r="B108">
-        <v>0.2502341405924272</v>
+        <v>0.3339639680082956</v>
       </c>
       <c r="C108">
-        <v>0.07552075580703353</v>
+        <v>0.2005985394050871</v>
       </c>
       <c r="D108">
-        <v>0.3153406093016492</v>
+        <v>0.01571724463302215</v>
       </c>
       <c r="E108">
-        <v>0.2969232212846874</v>
+        <v>0.487926866426192</v>
       </c>
       <c r="F108">
-        <v>0.2487450854523027</v>
+        <v>0.310858075938491</v>
       </c>
       <c r="G108">
-        <v>0.3927616790391121</v>
+        <v>0.133920301643824</v>
       </c>
       <c r="H108">
-        <v>0.05382654464784575</v>
+        <v>0.111390816374398</v>
       </c>
       <c r="I108">
-        <v>0.5435089255070276</v>
+        <v>0.03391523500236494</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -3865,31 +3865,31 @@
     </row>
     <row r="109" spans="1:10">
       <c r="A109">
-        <v>0.3484553991845383</v>
+        <v>0.8873688636978643</v>
       </c>
       <c r="B109">
-        <v>0.05133069586287825</v>
+        <v>0.4107289955704147</v>
       </c>
       <c r="C109">
-        <v>0.2525306151852613</v>
+        <v>0.3623891598667423</v>
       </c>
       <c r="D109">
-        <v>0.1557605741003948</v>
+        <v>0.002827286039313962</v>
       </c>
       <c r="E109">
-        <v>0.4468712749492962</v>
+        <v>0.4333840107961998</v>
       </c>
       <c r="F109">
-        <v>0.08266408823427683</v>
+        <v>0.07510699593891972</v>
       </c>
       <c r="G109">
-        <v>0.5174312377272787</v>
+        <v>0.0715784407537942</v>
       </c>
       <c r="H109">
-        <v>0.5125512710000154</v>
+        <v>0.07412748681459634</v>
       </c>
       <c r="I109">
-        <v>0.5664000018922798</v>
+        <v>0.01453972693866509</v>
       </c>
       <c r="J109">
         <v>1</v>
@@ -3897,31 +3897,31 @@
     </row>
     <row r="110" spans="1:10">
       <c r="A110">
-        <v>0.5278442107088406</v>
+        <v>0.9152141029496176</v>
       </c>
       <c r="B110">
-        <v>0.03019947449625926</v>
+        <v>0.2286620244889181</v>
       </c>
       <c r="C110">
-        <v>0.4310044875023905</v>
+        <v>0.3249058689265459</v>
       </c>
       <c r="D110">
-        <v>0.3061591300124924</v>
+        <v>0.009148034185654444</v>
       </c>
       <c r="E110">
-        <v>0.4327872500275532</v>
+        <v>0.3487229734462404</v>
       </c>
       <c r="F110">
-        <v>0.357885666294209</v>
+        <v>0.07290007131826393</v>
       </c>
       <c r="G110">
-        <v>0.3573972408869214</v>
+        <v>0.1021592631242611</v>
       </c>
       <c r="H110">
-        <v>0.3628876906918531</v>
+        <v>0.1693537031646877</v>
       </c>
       <c r="I110">
-        <v>0.7424969414781656</v>
+        <v>0.07315045618834662</v>
       </c>
       <c r="J110">
         <v>1</v>
@@ -3929,31 +3929,31 @@
     </row>
     <row r="111" spans="1:10">
       <c r="A111">
-        <v>0.09663309460297054</v>
+        <v>0.8293851972751705</v>
       </c>
       <c r="B111">
-        <v>0.0279452345397414</v>
+        <v>0.2899144129838301</v>
       </c>
       <c r="C111">
-        <v>0.2740141377090446</v>
+        <v>0.3513820015379286</v>
       </c>
       <c r="D111">
-        <v>0.04703088784892173</v>
+        <v>0.008922159678785121</v>
       </c>
       <c r="E111">
-        <v>0.7850616478736924</v>
+        <v>0.4270972409461896</v>
       </c>
       <c r="F111">
-        <v>0.3593568991315996</v>
+        <v>0.5577848604682862</v>
       </c>
       <c r="G111">
-        <v>0.5588755946747508</v>
+        <v>0.09660714764196147</v>
       </c>
       <c r="H111">
-        <v>0.4219520074584834</v>
+        <v>0.431874782195436</v>
       </c>
       <c r="I111">
-        <v>0.5655072154455669</v>
+        <v>0.07894819138243481</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -3961,31 +3961,31 @@
     </row>
     <row r="112" spans="1:10">
       <c r="A112">
-        <v>0.7014538461776294</v>
+        <v>0.9482030754870552</v>
       </c>
       <c r="B112">
-        <v>0.1101456321735853</v>
+        <v>0.1432089263781479</v>
       </c>
       <c r="C112">
-        <v>0.2379498790376515</v>
+        <v>0.1000350868548797</v>
       </c>
       <c r="D112">
-        <v>0.5766085676677836</v>
+        <v>0.01795630243431414</v>
       </c>
       <c r="E112">
-        <v>0.8022831182875581</v>
+        <v>0.3170762065716692</v>
       </c>
       <c r="F112">
-        <v>0.09788547530555188</v>
+        <v>0.292515495474086</v>
       </c>
       <c r="G112">
-        <v>0.1386676739188407</v>
+        <v>0.0684751255815378</v>
       </c>
       <c r="H112">
-        <v>0.2480284832390335</v>
+        <v>0.3055673272588987</v>
       </c>
       <c r="I112">
-        <v>0.5752253054278984</v>
+        <v>0.02476324778473275</v>
       </c>
       <c r="J112">
         <v>1</v>
@@ -3993,31 +3993,31 @@
     </row>
     <row r="113" spans="1:10">
       <c r="A113">
-        <v>0.09235529837079537</v>
+        <v>0.573290439906427</v>
       </c>
       <c r="B113">
-        <v>0.2094096494560739</v>
+        <v>0.1559644124783031</v>
       </c>
       <c r="C113">
-        <v>0.3143535195396772</v>
+        <v>0.3124342848387586</v>
       </c>
       <c r="D113">
-        <v>0.3103479970329706</v>
+        <v>0.008384196926144968</v>
       </c>
       <c r="E113">
-        <v>0.7337669348462109</v>
+        <v>0.3225340537139852</v>
       </c>
       <c r="F113">
-        <v>0.2659212689146189</v>
+        <v>0.4877839942038111</v>
       </c>
       <c r="G113">
-        <v>0.04341243562420295</v>
+        <v>0.07343715323085299</v>
       </c>
       <c r="H113">
-        <v>0.5448325686874719</v>
+        <v>0.3687973824478296</v>
       </c>
       <c r="I113">
-        <v>0.6850166684734956</v>
+        <v>0.07898672594441673</v>
       </c>
       <c r="J113">
         <v>1</v>
@@ -4025,31 +4025,31 @@
     </row>
     <row r="114" spans="1:10">
       <c r="A114">
-        <v>0.6550322692805606</v>
+        <v>0.9166508878598922</v>
       </c>
       <c r="B114">
-        <v>0.1159010925383516</v>
+        <v>0.1898044385980028</v>
       </c>
       <c r="C114">
-        <v>0.3378399573832995</v>
+        <v>0.3657773805799233</v>
       </c>
       <c r="D114">
-        <v>0.03901957926495181</v>
+        <v>0.01959169432157448</v>
       </c>
       <c r="E114">
-        <v>0.4652000197788377</v>
+        <v>0.2682016589195771</v>
       </c>
       <c r="F114">
-        <v>0.3002069453254613</v>
+        <v>0.4875534446864073</v>
       </c>
       <c r="G114">
-        <v>0.4656823779983291</v>
+        <v>0.09178647983540099</v>
       </c>
       <c r="H114">
-        <v>0.1629294919857457</v>
+        <v>0.2466563628516912</v>
       </c>
       <c r="I114">
-        <v>0.5695045199674404</v>
+        <v>0.007971969977492761</v>
       </c>
       <c r="J114">
         <v>1</v>
@@ -4057,31 +4057,31 @@
     </row>
     <row r="115" spans="1:10">
       <c r="A115">
-        <v>0.05955727362677521</v>
+        <v>0.3063725801876869</v>
       </c>
       <c r="B115">
-        <v>0.1898163570811494</v>
+        <v>0.2271375298411744</v>
       </c>
       <c r="C115">
-        <v>0.3365156919640331</v>
+        <v>0.3609990779631095</v>
       </c>
       <c r="D115">
-        <v>0.3213628874261155</v>
+        <v>0.01960484266548908</v>
       </c>
       <c r="E115">
-        <v>0.3494917194141984</v>
+        <v>0.5134316741039456</v>
       </c>
       <c r="F115">
-        <v>0.1471668343069938</v>
+        <v>0.6118581662349558</v>
       </c>
       <c r="G115">
-        <v>0.202031208520008</v>
+        <v>0.08722071012384355</v>
       </c>
       <c r="H115">
-        <v>0.2668856946963376</v>
+        <v>0.1004748047429446</v>
       </c>
       <c r="I115">
-        <v>0.8976970628843678</v>
+        <v>0.03569707461919418</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -4089,31 +4089,31 @@
     </row>
     <row r="116" spans="1:10">
       <c r="A116">
-        <v>0.181746902122315</v>
+        <v>0.7228433023099891</v>
       </c>
       <c r="B116">
-        <v>0.005173619521687822</v>
+        <v>0.3557083017235793</v>
       </c>
       <c r="C116">
-        <v>0.2819476902888591</v>
+        <v>0.02863015742138312</v>
       </c>
       <c r="D116">
-        <v>0.6805782679690959</v>
+        <v>0.02181897833589181</v>
       </c>
       <c r="E116">
-        <v>0.5286384789141025</v>
+        <v>0.2960557568420954</v>
       </c>
       <c r="F116">
-        <v>0.1202261860257428</v>
+        <v>0.09730897911257942</v>
       </c>
       <c r="G116">
-        <v>0.01326397592292551</v>
+        <v>0.0902370787073048</v>
       </c>
       <c r="H116">
-        <v>0.1664749146874037</v>
+        <v>0.04263688949977933</v>
       </c>
       <c r="I116">
-        <v>0.9712490274643462</v>
+        <v>0.01749680793060823</v>
       </c>
       <c r="J116">
         <v>1</v>
@@ -4121,31 +4121,31 @@
     </row>
     <row r="117" spans="1:10">
       <c r="A117">
-        <v>0.7453725311701329</v>
+        <v>0.4991870084960519</v>
       </c>
       <c r="B117">
-        <v>0.1673453892919817</v>
+        <v>0.2410532635830543</v>
       </c>
       <c r="C117">
-        <v>0.1197835351613762</v>
+        <v>0.01549933886576566</v>
       </c>
       <c r="D117">
-        <v>0.08654812106322907</v>
+        <v>0.005026927420980324</v>
       </c>
       <c r="E117">
-        <v>0.3482544040254432</v>
+        <v>0.3389107446404325</v>
       </c>
       <c r="F117">
-        <v>0.2619032650943821</v>
+        <v>0.07738133481262653</v>
       </c>
       <c r="G117">
-        <v>0.5816706891284341</v>
+        <v>0.1451431898486492</v>
       </c>
       <c r="H117">
-        <v>0.2069562326466197</v>
+        <v>0.3049594066734613</v>
       </c>
       <c r="I117">
-        <v>0.5435108292409404</v>
+        <v>0.02578367647030137</v>
       </c>
       <c r="J117">
         <v>1</v>
@@ -4153,31 +4153,31 @@
     </row>
     <row r="118" spans="1:10">
       <c r="A118">
-        <v>0.206647072189834</v>
+        <v>0.7325377473584709</v>
       </c>
       <c r="B118">
-        <v>0.02554133403402298</v>
+        <v>0.1938415231635509</v>
       </c>
       <c r="C118">
-        <v>0.1449284749504967</v>
+        <v>0.3124342848387586</v>
       </c>
       <c r="D118">
-        <v>0.7260783154829389</v>
+        <v>0.008384196926144968</v>
       </c>
       <c r="E118">
-        <v>0.3346176905187044</v>
+        <v>0.3225340537139852</v>
       </c>
       <c r="F118">
-        <v>0.2649444829712388</v>
+        <v>0.4877839942038111</v>
       </c>
       <c r="G118">
-        <v>0.4839974810990087</v>
+        <v>0.07343715323085299</v>
       </c>
       <c r="H118">
-        <v>0.4789773609603295</v>
+        <v>0.3687973824478296</v>
       </c>
       <c r="I118">
-        <v>0.752638096760589</v>
+        <v>0.001307780277709494</v>
       </c>
       <c r="J118">
         <v>1</v>
@@ -4185,31 +4185,31 @@
     </row>
     <row r="119" spans="1:10">
       <c r="A119">
-        <v>0.331410595482821</v>
+        <v>0.7034818136995735</v>
       </c>
       <c r="B119">
-        <v>0.05910931252280577</v>
+        <v>0.09007640664651889</v>
       </c>
       <c r="C119">
-        <v>0.3858292269712522</v>
+        <v>0.2019417402018924</v>
       </c>
       <c r="D119">
-        <v>0.2471887035944081</v>
+        <v>0.003989441233548577</v>
       </c>
       <c r="E119">
-        <v>0.5973328730435857</v>
+        <v>0.2638309379028599</v>
       </c>
       <c r="F119">
-        <v>0.3044436538516731</v>
+        <v>0.3163658786476939</v>
       </c>
       <c r="G119">
-        <v>0.5015477333303692</v>
+        <v>0.1489423371871088</v>
       </c>
       <c r="H119">
-        <v>0.5991890900490958</v>
+        <v>0.2543894106459385</v>
       </c>
       <c r="I119">
-        <v>0.4484181821725041</v>
+        <v>0.06438542273798474</v>
       </c>
       <c r="J119">
         <v>1</v>
@@ -4217,31 +4217,31 @@
     </row>
     <row r="120" spans="1:10">
       <c r="A120">
-        <v>0.3960383299529586</v>
+        <v>0.9403780884454345</v>
       </c>
       <c r="B120">
-        <v>0.1013870695418837</v>
+        <v>0.3038782561311852</v>
       </c>
       <c r="C120">
-        <v>0.07328494636904659</v>
+        <v>0.1615224221937219</v>
       </c>
       <c r="D120">
-        <v>0.6577849760313789</v>
+        <v>0.009120193675734479</v>
       </c>
       <c r="E120">
-        <v>0.241788988723228</v>
+        <v>0.2786468420887077</v>
       </c>
       <c r="F120">
-        <v>0.3682393967647197</v>
+        <v>0.1785429963949083</v>
       </c>
       <c r="G120">
-        <v>0.0339080947552168</v>
+        <v>0.1197239050481544</v>
       </c>
       <c r="H120">
-        <v>0.278983970888449</v>
+        <v>0.4117435530667295</v>
       </c>
       <c r="I120">
-        <v>0.5815795678680512</v>
+        <v>0.02907200517235785</v>
       </c>
       <c r="J120">
         <v>1</v>
@@ -4249,31 +4249,31 @@
     </row>
     <row r="121" spans="1:10">
       <c r="A121">
-        <v>0.6737532647193153</v>
+        <v>0.573290439906427</v>
       </c>
       <c r="B121">
-        <v>0.01807956299372521</v>
+        <v>0.1559644124783031</v>
       </c>
       <c r="C121">
-        <v>0.1235606370495757</v>
+        <v>0.3124342848387586</v>
       </c>
       <c r="D121">
-        <v>0.5219512952906112</v>
+        <v>0.008384196926144968</v>
       </c>
       <c r="E121">
-        <v>0.7974222948352871</v>
+        <v>0.3225340537139852</v>
       </c>
       <c r="F121">
-        <v>0.309998097162286</v>
+        <v>0.4877839942038111</v>
       </c>
       <c r="G121">
-        <v>0.1059586411743655</v>
+        <v>0.07343715323085299</v>
       </c>
       <c r="H121">
-        <v>0.2669055558007741</v>
+        <v>0.3687973824478296</v>
       </c>
       <c r="I121">
-        <v>0.7979190449284127</v>
+        <v>0.001307780277709494</v>
       </c>
       <c r="J121">
         <v>1</v>
@@ -4281,31 +4281,31 @@
     </row>
     <row r="122" spans="1:10">
       <c r="A122">
-        <v>0.7549083731077232</v>
+        <v>0.5539824513278813</v>
       </c>
       <c r="B122">
-        <v>0.09074917833339974</v>
+        <v>0.1949165101874973</v>
       </c>
       <c r="C122">
-        <v>0.4539963943614357</v>
+        <v>0.2974091997829088</v>
       </c>
       <c r="D122">
-        <v>0.3224581957913958</v>
+        <v>0.02069300264968581</v>
       </c>
       <c r="E122">
-        <v>0.8000151535862364</v>
+        <v>0.4298797212923478</v>
       </c>
       <c r="F122">
-        <v>0.2838097131641604</v>
+        <v>0.555992004402204</v>
       </c>
       <c r="G122">
-        <v>0.1150070024440567</v>
+        <v>0.109797302554894</v>
       </c>
       <c r="H122">
-        <v>0.3318327681129474</v>
+        <v>0.2631270965190917</v>
       </c>
       <c r="I122">
-        <v>0.4245971097585284</v>
+        <v>0.0009195120390991611</v>
       </c>
       <c r="J122">
         <v>1</v>
@@ -4313,31 +4313,31 @@
     </row>
     <row r="123" spans="1:10">
       <c r="A123">
-        <v>0.1380692388280823</v>
+        <v>0.4204988489278791</v>
       </c>
       <c r="B123">
-        <v>0.1721591400884064</v>
+        <v>0.03674344477824909</v>
       </c>
       <c r="C123">
-        <v>0.3015811772212986</v>
+        <v>0.3264272527071237</v>
       </c>
       <c r="D123">
-        <v>0.6963188312839673</v>
+        <v>0.008914395059020395</v>
       </c>
       <c r="E123">
-        <v>0.6835472015565091</v>
+        <v>0.4735776334528725</v>
       </c>
       <c r="F123">
-        <v>0.1247511669074667</v>
+        <v>0.3297169724073949</v>
       </c>
       <c r="G123">
-        <v>0.1270338773896033</v>
+        <v>0.1100911182760972</v>
       </c>
       <c r="H123">
-        <v>0.01778521564106683</v>
+        <v>0.2854926529122739</v>
       </c>
       <c r="I123">
-        <v>0.514936334793767</v>
+        <v>0.04419277945361272</v>
       </c>
       <c r="J123">
         <v>1</v>
@@ -4345,31 +4345,31 @@
     </row>
     <row r="124" spans="1:10">
       <c r="A124">
-        <v>0.2306093896398618</v>
+        <v>0.3599830560410892</v>
       </c>
       <c r="B124">
-        <v>0.1353224090609449</v>
+        <v>0.06476268554416748</v>
       </c>
       <c r="C124">
-        <v>0.4441358150973666</v>
+        <v>0.2855526500221969</v>
       </c>
       <c r="D124">
-        <v>0.3248789485863349</v>
+        <v>0.01608342616680087</v>
       </c>
       <c r="E124">
-        <v>0.6018175293615431</v>
+        <v>0.256946875471515</v>
       </c>
       <c r="F124">
-        <v>0.1022884558835827</v>
+        <v>0.3647405532172647</v>
       </c>
       <c r="G124">
-        <v>0.292613975447054</v>
+        <v>0.1413628613570991</v>
       </c>
       <c r="H124">
-        <v>0.3922405612318992</v>
+        <v>0.3692641943796597</v>
       </c>
       <c r="I124">
-        <v>0.6913212024215175</v>
+        <v>0.04558090166816504</v>
       </c>
       <c r="J124">
         <v>1</v>
@@ -4377,31 +4377,31 @@
     </row>
     <row r="125" spans="1:10">
       <c r="A125">
-        <v>0.1884662436619611</v>
+        <v>0.2500877282459043</v>
       </c>
       <c r="B125">
-        <v>0.1013362333621491</v>
+        <v>0.002421884585590783</v>
       </c>
       <c r="C125">
-        <v>0.3635314532060606</v>
+        <v>0.01586527033329779</v>
       </c>
       <c r="D125">
-        <v>0.6607686084909521</v>
+        <v>0.004712788119599506</v>
       </c>
       <c r="E125">
-        <v>0.7258481288692954</v>
+        <v>0.5013804563757827</v>
       </c>
       <c r="F125">
-        <v>0.150630568058066</v>
+        <v>0.4940532391604465</v>
       </c>
       <c r="G125">
-        <v>0.5135035047134761</v>
+        <v>0.1436268175215732</v>
       </c>
       <c r="H125">
-        <v>0.3462843573158554</v>
+        <v>0.2186548640613666</v>
       </c>
       <c r="I125">
-        <v>0.9770719492859269</v>
+        <v>0.01484671419751556</v>
       </c>
       <c r="J125">
         <v>1</v>
@@ -4409,31 +4409,31 @@
     </row>
     <row r="126" spans="1:10">
       <c r="A126">
-        <v>0.5101721369101276</v>
+        <v>0.6737000438529434</v>
       </c>
       <c r="B126">
-        <v>0.04629274338814093</v>
+        <v>0.02924829258898326</v>
       </c>
       <c r="C126">
-        <v>0.4621268986186532</v>
+        <v>0.4216830351407232</v>
       </c>
       <c r="D126">
-        <v>0.4023803481102229</v>
+        <v>0.02135486736686531</v>
       </c>
       <c r="E126">
-        <v>0.4198600770130072</v>
+        <v>0.2536862674637967</v>
       </c>
       <c r="F126">
-        <v>0.2055623390950684</v>
+        <v>0.555992004402204</v>
       </c>
       <c r="G126">
-        <v>0.3092931239459811</v>
+        <v>0.109797302554894</v>
       </c>
       <c r="H126">
-        <v>0.371574136602818</v>
+        <v>0.2199155856301309</v>
       </c>
       <c r="I126">
-        <v>0.685711260914875</v>
+        <v>0.04844639920240751</v>
       </c>
       <c r="J126">
         <v>1</v>
@@ -4441,31 +4441,31 @@
     </row>
     <row r="127" spans="1:10">
       <c r="A127">
-        <v>0.3664031466544785</v>
+        <v>0.1661251622934795</v>
       </c>
       <c r="B127">
-        <v>0.1496037950252217</v>
+        <v>0.3147624285469932</v>
       </c>
       <c r="C127">
-        <v>0.2678853011707119</v>
+        <v>0.1695364209363379</v>
       </c>
       <c r="D127">
-        <v>0.436739133674106</v>
+        <v>0.0175155230143932</v>
       </c>
       <c r="E127">
-        <v>0.6444182332323417</v>
+        <v>0.5371739584507561</v>
       </c>
       <c r="F127">
-        <v>0.1210808478197295</v>
+        <v>0.4053161953504943</v>
       </c>
       <c r="G127">
-        <v>0.4572602084179525</v>
+        <v>0.1148332189029058</v>
       </c>
       <c r="H127">
-        <v>0.362406678591347</v>
+        <v>0.1236418240085273</v>
       </c>
       <c r="I127">
-        <v>0.8423850039294701</v>
+        <v>0.001305525242119219</v>
       </c>
       <c r="J127">
         <v>1</v>
@@ -4473,31 +4473,31 @@
     </row>
     <row r="128" spans="1:10">
       <c r="A128">
-        <v>0.7064312327253878</v>
+        <v>0.7856084480591411</v>
       </c>
       <c r="B128">
-        <v>0.03040178926248582</v>
+        <v>0.3458687449571577</v>
       </c>
       <c r="C128">
-        <v>0.4452908396120631</v>
+        <v>0.2564078002416176</v>
       </c>
       <c r="D128">
-        <v>0.5813898216065656</v>
+        <v>0.01675064241758381</v>
       </c>
       <c r="E128">
-        <v>0.375688320379041</v>
+        <v>0.3331786633769477</v>
       </c>
       <c r="F128">
-        <v>0.2761569166780599</v>
+        <v>0.4341159702129826</v>
       </c>
       <c r="G128">
-        <v>0.1578989807500832</v>
+        <v>0.0776331927807077</v>
       </c>
       <c r="H128">
-        <v>0.6085586808205282</v>
+        <v>0.1317735881133095</v>
       </c>
       <c r="I128">
-        <v>0.6659887593508034</v>
+        <v>0.02252561644922093</v>
       </c>
       <c r="J128">
         <v>1</v>
@@ -4505,31 +4505,31 @@
     </row>
     <row r="129" spans="1:10">
       <c r="A129">
-        <v>0.6351562882485348</v>
+        <v>0.40118555591366</v>
       </c>
       <c r="B129">
-        <v>0.08349074438210208</v>
+        <v>0.3148929085354432</v>
       </c>
       <c r="C129">
-        <v>0.2485335104958879</v>
+        <v>0.1589251364302287</v>
       </c>
       <c r="D129">
-        <v>0.1162578236596747</v>
+        <v>0.007289067588994377</v>
       </c>
       <c r="E129">
-        <v>0.3346508424975653</v>
+        <v>0.4453751959837288</v>
       </c>
       <c r="F129">
-        <v>0.2701473882283109</v>
+        <v>0.5826710413887183</v>
       </c>
       <c r="G129">
-        <v>0.06589875950074572</v>
+        <v>0.1150257115672623</v>
       </c>
       <c r="H129">
-        <v>0.3422164978702942</v>
+        <v>0.131187177058266</v>
       </c>
       <c r="I129">
-        <v>0.4766651038572519</v>
+        <v>0.03928774716903523</v>
       </c>
       <c r="J129">
         <v>1</v>
@@ -4537,31 +4537,31 @@
     </row>
     <row r="130" spans="1:10">
       <c r="A130">
-        <v>0.1127540106467154</v>
+        <v>0.3264519033584605</v>
       </c>
       <c r="B130">
-        <v>0.1454187382479764</v>
+        <v>0.3737745128332731</v>
       </c>
       <c r="C130">
-        <v>0.1271298210313508</v>
+        <v>0.1582001047921661</v>
       </c>
       <c r="D130">
-        <v>0.1658541350458191</v>
+        <v>0.0068700837597449</v>
       </c>
       <c r="E130">
-        <v>0.5146777244682281</v>
+        <v>0.556377950449828</v>
       </c>
       <c r="F130">
-        <v>0.09677637096012806</v>
+        <v>0.2327300299131027</v>
       </c>
       <c r="G130">
-        <v>0.4641692080675922</v>
+        <v>0.1166151418142319</v>
       </c>
       <c r="H130">
-        <v>0.5698882232425444</v>
+        <v>0.3457909298758599</v>
       </c>
       <c r="I130">
-        <v>0.8457870165380301</v>
+        <v>0.09872509176439741</v>
       </c>
       <c r="J130">
         <v>1</v>
@@ -4569,31 +4569,31 @@
     </row>
     <row r="131" spans="1:10">
       <c r="A131">
-        <v>0.3091572644755233</v>
+        <v>0.5345557940927829</v>
       </c>
       <c r="B131">
-        <v>0.06807210118316814</v>
+        <v>0.003183261347113386</v>
       </c>
       <c r="C131">
-        <v>0.4118848004303757</v>
+        <v>0.3429068500886182</v>
       </c>
       <c r="D131">
-        <v>0.4120372601173845</v>
+        <v>0.004555080882337726</v>
       </c>
       <c r="E131">
-        <v>0.8503752925145663</v>
+        <v>0.4449481380465741</v>
       </c>
       <c r="F131">
-        <v>0.2599606465665391</v>
+        <v>0.3342637183559882</v>
       </c>
       <c r="G131">
-        <v>0.1243408211845571</v>
+        <v>0.06534497577812151</v>
       </c>
       <c r="H131">
-        <v>0.1127457655373766</v>
+        <v>0.0394721967843228</v>
       </c>
       <c r="I131">
-        <v>0.8781866376658504</v>
+        <v>0.03195152001227046</v>
       </c>
       <c r="J131">
         <v>1</v>
@@ -4601,31 +4601,31 @@
     </row>
     <row r="132" spans="1:10">
       <c r="A132">
-        <v>0.586030595082822</v>
+        <v>0.3849070308251518</v>
       </c>
       <c r="B132">
-        <v>0.1519339027558176</v>
+        <v>0.4105672374132615</v>
       </c>
       <c r="C132">
-        <v>0.4305495943434962</v>
+        <v>0.3937317908942617</v>
       </c>
       <c r="D132">
-        <v>0.7392425299380339</v>
+        <v>0.02077615610607322</v>
       </c>
       <c r="E132">
-        <v>0.3061041296272149</v>
+        <v>0.2475738759673502</v>
       </c>
       <c r="F132">
-        <v>0.1801808186087178</v>
+        <v>0.1196495458285472</v>
       </c>
       <c r="G132">
-        <v>0.5696281795683171</v>
+        <v>0.07063374737011088</v>
       </c>
       <c r="H132">
-        <v>0.3069869301055235</v>
+        <v>0.3398268902060276</v>
       </c>
       <c r="I132">
-        <v>0.9169038372052914</v>
+        <v>0.0959720343859392</v>
       </c>
       <c r="J132">
         <v>1</v>
@@ -4633,31 +4633,31 @@
     </row>
     <row r="133" spans="1:10">
       <c r="A133">
-        <v>0.7640117457849489</v>
+        <v>0.4921898100437475</v>
       </c>
       <c r="B133">
-        <v>0.1037139268524345</v>
+        <v>0.03703986088668615</v>
       </c>
       <c r="C133">
-        <v>0.3781321412131656</v>
+        <v>0.3264272527071237</v>
       </c>
       <c r="D133">
-        <v>0.4706175356327053</v>
+        <v>0.008914395059020395</v>
       </c>
       <c r="E133">
-        <v>0.42305293634123</v>
+        <v>0.4735776334528725</v>
       </c>
       <c r="F133">
-        <v>0.1730668226892302</v>
+        <v>0.3297169724073949</v>
       </c>
       <c r="G133">
-        <v>0.5266549640523787</v>
+        <v>0.1100911182760972</v>
       </c>
       <c r="H133">
-        <v>0.1637470725158139</v>
+        <v>0.2854926529122739</v>
       </c>
       <c r="I133">
-        <v>0.6318715237522141</v>
+        <v>0.04419277945361272</v>
       </c>
       <c r="J133">
         <v>1</v>
@@ -4665,31 +4665,31 @@
     </row>
     <row r="134" spans="1:10">
       <c r="A134">
-        <v>0.04617283603383715</v>
+        <v>0.6526697731361594</v>
       </c>
       <c r="B134">
-        <v>0.02409011198073013</v>
+        <v>0.06083841866550299</v>
       </c>
       <c r="C134">
-        <v>0.3720176061479984</v>
+        <v>0.2690349026917299</v>
       </c>
       <c r="D134">
-        <v>0.02870981737913103</v>
+        <v>0.008728194557884766</v>
       </c>
       <c r="E134">
-        <v>0.466715844569231</v>
+        <v>0.4777275889017822</v>
       </c>
       <c r="F134">
-        <v>0.1092800751698</v>
+        <v>0.0781433052043807</v>
       </c>
       <c r="G134">
-        <v>0.4553963851053906</v>
+        <v>0.1184163809867938</v>
       </c>
       <c r="H134">
-        <v>0.5239581990807285</v>
+        <v>0.2301842101429786</v>
       </c>
       <c r="I134">
-        <v>0.9352053696859383</v>
+        <v>0.07829179244106037</v>
       </c>
       <c r="J134">
         <v>1</v>
@@ -4697,31 +4697,31 @@
     </row>
     <row r="135" spans="1:10">
       <c r="A135">
-        <v>0.4573673621477622</v>
+        <v>0.2305938674782475</v>
       </c>
       <c r="B135">
-        <v>0.2201628862424349</v>
+        <v>0.4313189407639434</v>
       </c>
       <c r="C135">
-        <v>0.373933404655949</v>
+        <v>0.4028783547053219</v>
       </c>
       <c r="D135">
-        <v>0.270508955941026</v>
+        <v>0.01880013166631739</v>
       </c>
       <c r="E135">
-        <v>0.6918199139204695</v>
+        <v>0.2620150376695878</v>
       </c>
       <c r="F135">
-        <v>0.259472074278009</v>
+        <v>0.2656876397896884</v>
       </c>
       <c r="G135">
-        <v>0.3882063820258841</v>
+        <v>0.1010195122890877</v>
       </c>
       <c r="H135">
-        <v>0.5927801239418957</v>
+        <v>0.4183067678027823</v>
       </c>
       <c r="I135">
-        <v>0.5268457890765652</v>
+        <v>0.07165655564225892</v>
       </c>
       <c r="J135">
         <v>1</v>
@@ -4729,31 +4729,31 @@
     </row>
     <row r="136" spans="1:10">
       <c r="A136">
-        <v>0.1235852388655213</v>
+        <v>0.854374380866894</v>
       </c>
       <c r="B136">
-        <v>0.09298039700817745</v>
+        <v>0.1634835962486378</v>
       </c>
       <c r="C136">
-        <v>0.2925426782912747</v>
+        <v>0.2197277678388343</v>
       </c>
       <c r="D136">
-        <v>0.2190354922514571</v>
+        <v>0.01253695853141453</v>
       </c>
       <c r="E136">
-        <v>0.7834213906900128</v>
+        <v>0.4896210136457521</v>
       </c>
       <c r="F136">
-        <v>0.2574749673374629</v>
+        <v>0.4955827096106885</v>
       </c>
       <c r="G136">
-        <v>0.1875998644778921</v>
+        <v>0.1179504700773062</v>
       </c>
       <c r="H136">
-        <v>0.1834907896078107</v>
+        <v>0.4156927547877663</v>
       </c>
       <c r="I136">
-        <v>0.7598068027307916</v>
+        <v>0.04416520591096178</v>
       </c>
       <c r="J136">
         <v>1</v>
@@ -4761,31 +4761,31 @@
     </row>
     <row r="137" spans="1:10">
       <c r="A137">
-        <v>0.2939966395861381</v>
+        <v>0.9135244586471943</v>
       </c>
       <c r="B137">
-        <v>0.2222633048513304</v>
+        <v>0.1416170760079254</v>
       </c>
       <c r="C137">
-        <v>0.2790139469766095</v>
+        <v>0.05742821585542271</v>
       </c>
       <c r="D137">
-        <v>0.02344582381340043</v>
+        <v>0.01692274982272675</v>
       </c>
       <c r="E137">
-        <v>0.2697293749990908</v>
+        <v>0.5490257441317978</v>
       </c>
       <c r="F137">
-        <v>0.1996645122366877</v>
+        <v>0.2594685274380834</v>
       </c>
       <c r="G137">
-        <v>0.2647711269568306</v>
+        <v>0.06719698488846977</v>
       </c>
       <c r="H137">
-        <v>0.4882555324272101</v>
+        <v>0.1610340593434033</v>
       </c>
       <c r="I137">
-        <v>0.4920136596551637</v>
+        <v>0.07471990845291951</v>
       </c>
       <c r="J137">
         <v>1</v>
@@ -4793,31 +4793,31 @@
     </row>
     <row r="138" spans="1:10">
       <c r="A138">
-        <v>0.04473208644965609</v>
+        <v>0.2254353073166352</v>
       </c>
       <c r="B138">
-        <v>0.1951436010624797</v>
+        <v>0.07470951388406594</v>
       </c>
       <c r="C138">
-        <v>0.1595199200438617</v>
+        <v>0.3240381683125033</v>
       </c>
       <c r="D138">
-        <v>0.313435146070361</v>
+        <v>0.004625376911743367</v>
       </c>
       <c r="E138">
-        <v>0.2540628527953109</v>
+        <v>0.3129698712851752</v>
       </c>
       <c r="F138">
-        <v>0.3572106450154393</v>
+        <v>0.4698581235734355</v>
       </c>
       <c r="G138">
-        <v>0.5279710665296177</v>
+        <v>0.08775987654866715</v>
       </c>
       <c r="H138">
-        <v>0.1994455536660452</v>
+        <v>0.07982643196044786</v>
       </c>
       <c r="I138">
-        <v>0.92073797998386</v>
+        <v>0.08070484229208842</v>
       </c>
       <c r="J138">
         <v>1</v>
@@ -4825,31 +4825,31 @@
     </row>
     <row r="139" spans="1:10">
       <c r="A139">
-        <v>0.196738287305905</v>
+        <v>0.6230875675450674</v>
       </c>
       <c r="B139">
-        <v>0.1204321587618243</v>
+        <v>0.3339639680082956</v>
       </c>
       <c r="C139">
-        <v>0.1345029715774162</v>
+        <v>0.2005985394050871</v>
       </c>
       <c r="D139">
-        <v>0.2227170454230321</v>
+        <v>0.01571724463302215</v>
       </c>
       <c r="E139">
-        <v>0.8530293072072129</v>
+        <v>0.487926866426192</v>
       </c>
       <c r="F139">
-        <v>0.1021240833406427</v>
+        <v>0.310858075938491</v>
       </c>
       <c r="G139">
-        <v>0.1898426350248112</v>
+        <v>0.133920301643824</v>
       </c>
       <c r="H139">
-        <v>0.4239612257993313</v>
+        <v>0.03306550912405345</v>
       </c>
       <c r="I139">
-        <v>0.6476015248955347</v>
+        <v>0.00690502343931826</v>
       </c>
       <c r="J139">
         <v>1</v>
@@ -4857,31 +4857,31 @@
     </row>
     <row r="140" spans="1:10">
       <c r="A140">
-        <v>0.1391498553803685</v>
+        <v>0.6330019482763759</v>
       </c>
       <c r="B140">
-        <v>0.1868554597757232</v>
+        <v>0.3967352807240426</v>
       </c>
       <c r="C140">
-        <v>0.1024253030260069</v>
+        <v>0.4051047445821902</v>
       </c>
       <c r="D140">
-        <v>0.5900027654552839</v>
+        <v>0.01747897568651462</v>
       </c>
       <c r="E140">
-        <v>0.8162050459731873</v>
+        <v>0.2554551028871774</v>
       </c>
       <c r="F140">
-        <v>0.1031322429769828</v>
+        <v>0.6076568233626838</v>
       </c>
       <c r="G140">
-        <v>0.2561827767450944</v>
+        <v>0.1328381529472576</v>
       </c>
       <c r="H140">
-        <v>0.6187871312352803</v>
+        <v>0.3219685201066887</v>
       </c>
       <c r="I140">
-        <v>0.4409842304621083</v>
+        <v>0.07123777499306086</v>
       </c>
       <c r="J140">
         <v>1</v>
@@ -4889,31 +4889,31 @@
     </row>
     <row r="141" spans="1:10">
       <c r="A141">
-        <v>0.08383727941870855</v>
+        <v>0.9280931075696537</v>
       </c>
       <c r="B141">
-        <v>0.2521688935341359</v>
+        <v>0.1299507879743122</v>
       </c>
       <c r="C141">
-        <v>0.1268209294375253</v>
+        <v>0.3854464567374507</v>
       </c>
       <c r="D141">
-        <v>0.7462204276185037</v>
+        <v>0.002513205070052287</v>
       </c>
       <c r="E141">
-        <v>0.8010551215590709</v>
+        <v>0.3446629855601359</v>
       </c>
       <c r="F141">
-        <v>0.05587281761043472</v>
+        <v>0.1378136080544203</v>
       </c>
       <c r="G141">
-        <v>0.1228363366670712</v>
+        <v>0.1345384444595873</v>
       </c>
       <c r="H141">
-        <v>0.04174676709068426</v>
+        <v>0.3885864678542736</v>
       </c>
       <c r="I141">
-        <v>0.6397667365242183</v>
+        <v>0.05929339398904092</v>
       </c>
       <c r="J141">
         <v>1</v>
@@ -4921,31 +4921,31 @@
     </row>
     <row r="142" spans="1:10">
       <c r="A142">
-        <v>0.4230763830293506</v>
+        <v>0.6856366893269021</v>
       </c>
       <c r="B142">
-        <v>0.09858299235824225</v>
+        <v>0.2299140737957012</v>
       </c>
       <c r="C142">
-        <v>0.4676982126170312</v>
+        <v>0.1966150814127554</v>
       </c>
       <c r="D142">
-        <v>0.03045394661370038</v>
+        <v>0.006969709487526681</v>
       </c>
       <c r="E142">
-        <v>0.7819952745162322</v>
+        <v>0.4750132916083229</v>
       </c>
       <c r="F142">
-        <v>0.2836112499815683</v>
+        <v>0.5770919555106826</v>
       </c>
       <c r="G142">
-        <v>0.5907154447315157</v>
+        <v>0.1101025136865091</v>
       </c>
       <c r="H142">
-        <v>0.2471658282000677</v>
+        <v>0.3464200668076487</v>
       </c>
       <c r="I142">
-        <v>0.6047955783033796</v>
+        <v>0.05271662955332379</v>
       </c>
       <c r="J142">
         <v>1</v>
@@ -4953,31 +4953,31 @@
     </row>
     <row r="143" spans="1:10">
       <c r="A143">
-        <v>0.3952270591267866</v>
+        <v>0.983138983957353</v>
       </c>
       <c r="B143">
-        <v>0.1692132966898996</v>
+        <v>0.02198967301702537</v>
       </c>
       <c r="C143">
-        <v>0.4039807024370267</v>
+        <v>0.07163022950095739</v>
       </c>
       <c r="D143">
-        <v>0.4108413479932994</v>
+        <v>0.005795640036902302</v>
       </c>
       <c r="E143">
-        <v>0.6576194929244505</v>
+        <v>0.2620150376695878</v>
       </c>
       <c r="F143">
-        <v>0.2844244850238831</v>
+        <v>0.2656876397896884</v>
       </c>
       <c r="G143">
-        <v>0.2549316307266444</v>
+        <v>0.1010195122890877</v>
       </c>
       <c r="H143">
-        <v>0.639233437589333</v>
+        <v>0.4183067678027823</v>
       </c>
       <c r="I143">
-        <v>0.7739812386844851</v>
+        <v>0.07165655564225892</v>
       </c>
       <c r="J143">
         <v>1</v>
@@ -4985,31 +4985,31 @@
     </row>
     <row r="144" spans="1:10">
       <c r="A144">
-        <v>0.3867903462492107</v>
+        <v>0.8888471646247113</v>
       </c>
       <c r="B144">
-        <v>0.1735568816975487</v>
+        <v>0.01419722956911629</v>
       </c>
       <c r="C144">
-        <v>0.07628345157049313</v>
+        <v>0.05650974641027699</v>
       </c>
       <c r="D144">
-        <v>0.09957885408608891</v>
+        <v>0.01916322414362777</v>
       </c>
       <c r="E144">
-        <v>0.6468517169675129</v>
+        <v>0.543125928535606</v>
       </c>
       <c r="F144">
-        <v>0.1567096899737565</v>
+        <v>0.3266544588444754</v>
       </c>
       <c r="G144">
-        <v>0.4058968577943313</v>
+        <v>0.06581868323377939</v>
       </c>
       <c r="H144">
-        <v>0.5969355275308335</v>
+        <v>0.11599419945072</v>
       </c>
       <c r="I144">
-        <v>0.6074104201404246</v>
+        <v>0.02028159528653322</v>
       </c>
       <c r="J144">
         <v>1</v>
@@ -5017,31 +5017,31 @@
     </row>
     <row r="145" spans="1:10">
       <c r="A145">
-        <v>0.1437864302251325</v>
+        <v>0.9587623342095468</v>
       </c>
       <c r="B145">
-        <v>0.1867646796879083</v>
+        <v>0.220714724075738</v>
       </c>
       <c r="C145">
-        <v>0.3233015332691747</v>
+        <v>0.166941818697652</v>
       </c>
       <c r="D145">
-        <v>0.4907585079285546</v>
+        <v>0.002854908627204552</v>
       </c>
       <c r="E145">
-        <v>0.5843403326705978</v>
+        <v>0.2435665314072423</v>
       </c>
       <c r="F145">
-        <v>0.2924306147442628</v>
+        <v>0.05825920896914154</v>
       </c>
       <c r="G145">
-        <v>0.5847313672723391</v>
+        <v>0.146856325918403</v>
       </c>
       <c r="H145">
-        <v>0.5653261118792164</v>
+        <v>0.3357779312094638</v>
       </c>
       <c r="I145">
-        <v>0.7643498118937713</v>
+        <v>0.05248298890416939</v>
       </c>
       <c r="J145">
         <v>1</v>
@@ -5049,31 +5049,31 @@
     </row>
     <row r="146" spans="1:10">
       <c r="A146">
-        <v>0.1895851748136668</v>
+        <v>0.1494096101704551</v>
       </c>
       <c r="B146">
-        <v>0.1472913628521617</v>
+        <v>0.08196822414678079</v>
       </c>
       <c r="C146">
-        <v>0.1952228807796823</v>
+        <v>0.1602719717791474</v>
       </c>
       <c r="D146">
-        <v>0.5995439676978908</v>
+        <v>0.001951643636138259</v>
       </c>
       <c r="E146">
-        <v>0.3940245948131441</v>
+        <v>0.3875593103270779</v>
       </c>
       <c r="F146">
-        <v>0.2288166719927726</v>
+        <v>0.1141152781091299</v>
       </c>
       <c r="G146">
-        <v>0.49987088693395</v>
+        <v>0.1173364579078715</v>
       </c>
       <c r="H146">
-        <v>0.1396167979502244</v>
+        <v>0.4283198319099934</v>
       </c>
       <c r="I146">
-        <v>0.7979435661735866</v>
+        <v>0.02269321158969138</v>
       </c>
       <c r="J146">
         <v>1</v>
@@ -5081,31 +5081,31 @@
     </row>
     <row r="147" spans="1:10">
       <c r="A147">
-        <v>0.4439548881190185</v>
+        <v>0.1155962599665507</v>
       </c>
       <c r="B147">
-        <v>0.07882657119558251</v>
+        <v>0.2412692503855566</v>
       </c>
       <c r="C147">
-        <v>0.3752522154409613</v>
+        <v>0.2047193911916546</v>
       </c>
       <c r="D147">
-        <v>0.01550218119285895</v>
+        <v>0.006994888298587686</v>
       </c>
       <c r="E147">
-        <v>0.8740408897293426</v>
+        <v>0.4178940166315925</v>
       </c>
       <c r="F147">
-        <v>0.1245378197790551</v>
+        <v>0.3789587873210418</v>
       </c>
       <c r="G147">
-        <v>0.2091221563374402</v>
+        <v>0.0880618598536884</v>
       </c>
       <c r="H147">
-        <v>0.171019592166609</v>
+        <v>0.1319492452797039</v>
       </c>
       <c r="I147">
-        <v>0.6646602662568619</v>
+        <v>0.033105026374629</v>
       </c>
       <c r="J147">
         <v>1</v>
@@ -5113,31 +5113,31 @@
     </row>
     <row r="148" spans="1:10">
       <c r="A148">
-        <v>0.09488553742564687</v>
+        <v>0.2660917405119719</v>
       </c>
       <c r="B148">
-        <v>0.03829784838964928</v>
+        <v>0.1119203450049369</v>
       </c>
       <c r="C148">
-        <v>0.3491538165091753</v>
+        <v>0.03733721264619567</v>
       </c>
       <c r="D148">
-        <v>0.7547979622898876</v>
+        <v>0.01811269500920782</v>
       </c>
       <c r="E148">
-        <v>0.3416541157490696</v>
+        <v>0.2755909927991823</v>
       </c>
       <c r="F148">
-        <v>0.2015690630189992</v>
+        <v>0.06132067731357242</v>
       </c>
       <c r="G148">
-        <v>0.3213710732041138</v>
+        <v>0.09776119712050552</v>
       </c>
       <c r="H148">
-        <v>0.1041290500058315</v>
+        <v>0.2835989839919737</v>
       </c>
       <c r="I148">
-        <v>0.5815504097792992</v>
+        <v>0.0215036479393319</v>
       </c>
       <c r="J148">
         <v>1</v>
@@ -5145,31 +5145,31 @@
     </row>
     <row r="149" spans="1:10">
       <c r="A149">
-        <v>0.6293232839015318</v>
+        <v>0.8045432820047078</v>
       </c>
       <c r="B149">
-        <v>0.2185846243081895</v>
+        <v>0.3985974725661328</v>
       </c>
       <c r="C149">
-        <v>0.2933097713673335</v>
+        <v>0.4302177530796298</v>
       </c>
       <c r="D149">
-        <v>0.6778923084864976</v>
+        <v>0.01331341806663056</v>
       </c>
       <c r="E149">
-        <v>0.3012310875617552</v>
+        <v>0.4758742923610833</v>
       </c>
       <c r="F149">
-        <v>0.1490286845268929</v>
+        <v>0.3217093794799274</v>
       </c>
       <c r="G149">
-        <v>0.4321520623742275</v>
+        <v>0.1458234883238672</v>
       </c>
       <c r="H149">
-        <v>0.2779205367952639</v>
+        <v>0.1689273702593458</v>
       </c>
       <c r="I149">
-        <v>0.972284514566892</v>
+        <v>0.02959388496553599</v>
       </c>
       <c r="J149">
         <v>1</v>
@@ -5177,31 +5177,31 @@
     </row>
     <row r="150" spans="1:10">
       <c r="A150">
-        <v>0.3160652144833451</v>
+        <v>0.573290439906427</v>
       </c>
       <c r="B150">
-        <v>0.2219093294034563</v>
+        <v>0.1559644124783031</v>
       </c>
       <c r="C150">
-        <v>0.2717005277309171</v>
+        <v>0.3124342848387586</v>
       </c>
       <c r="D150">
-        <v>0.2033681327381973</v>
+        <v>0.008384196926144968</v>
       </c>
       <c r="E150">
-        <v>0.8036766238953164</v>
+        <v>0.3225340537139852</v>
       </c>
       <c r="F150">
-        <v>0.09565859160007878</v>
+        <v>0.4877839942038111</v>
       </c>
       <c r="G150">
-        <v>0.002140126240851343</v>
+        <v>0.07343715323085299</v>
       </c>
       <c r="H150">
-        <v>0.5811556797954094</v>
+        <v>0.3687973824478296</v>
       </c>
       <c r="I150">
-        <v>0.7722107590540342</v>
+        <v>0.07898672594441673</v>
       </c>
       <c r="J150">
         <v>1</v>
@@ -5209,31 +5209,31 @@
     </row>
     <row r="151" spans="1:10">
       <c r="A151">
-        <v>0.6639610740300138</v>
+        <v>0.43324759891757</v>
       </c>
       <c r="B151">
-        <v>0.2206806608336174</v>
+        <v>0.4261207937392149</v>
       </c>
       <c r="C151">
-        <v>0.09738517428884791</v>
+        <v>0.03840950952735961</v>
       </c>
       <c r="D151">
-        <v>0.2377323548370518</v>
+        <v>0.005004128623901875</v>
       </c>
       <c r="E151">
-        <v>0.216081128945807</v>
+        <v>0.4887216779185969</v>
       </c>
       <c r="F151">
-        <v>0.3023626278733789</v>
+        <v>0.5075061693212192</v>
       </c>
       <c r="G151">
-        <v>0.06361879120387064</v>
+        <v>0.06426760035852584</v>
       </c>
       <c r="H151">
-        <v>0.623368306192117</v>
+        <v>0.03737119004917315</v>
       </c>
       <c r="I151">
-        <v>0.4429814895792855</v>
+        <v>0.007646346801362611</v>
       </c>
       <c r="J151">
         <v>1</v>
@@ -5241,31 +5241,31 @@
     </row>
     <row r="152" spans="1:10">
       <c r="A152">
-        <v>0.2817711844714423</v>
+        <v>0.6366107838607065</v>
       </c>
       <c r="B152">
-        <v>0.1531320200554642</v>
+        <v>0.3177935202395855</v>
       </c>
       <c r="C152">
-        <v>0.2003358921608135</v>
+        <v>0.4006077218639663</v>
       </c>
       <c r="D152">
-        <v>0.1965052340539338</v>
+        <v>0.01673093832587819</v>
       </c>
       <c r="E152">
-        <v>0.7665130638556953</v>
+        <v>0.5823377016567528</v>
       </c>
       <c r="F152">
-        <v>0.09581430449711384</v>
+        <v>0.3053291878872098</v>
       </c>
       <c r="G152">
-        <v>0.4460291373889737</v>
+        <v>0.1037641309048961</v>
       </c>
       <c r="H152">
-        <v>0.3813475441592649</v>
+        <v>0.1498646343164021</v>
       </c>
       <c r="I152">
-        <v>0.9498942882123323</v>
+        <v>0.05781331782532128</v>
       </c>
       <c r="J152">
         <v>1</v>
@@ -5273,31 +5273,31 @@
     </row>
     <row r="153" spans="1:10">
       <c r="A153">
-        <v>0.533150743330508</v>
+        <v>0.5705873715562761</v>
       </c>
       <c r="B153">
-        <v>0.005695689581688146</v>
+        <v>0.3925893395465965</v>
       </c>
       <c r="C153">
-        <v>0.4481805817334318</v>
+        <v>0.2419838045869578</v>
       </c>
       <c r="D153">
-        <v>0.0003056589672194576</v>
+        <v>0.007770549344146263</v>
       </c>
       <c r="E153">
-        <v>0.2784111068384023</v>
+        <v>0.5655208259712189</v>
       </c>
       <c r="F153">
-        <v>0.1289312107667005</v>
+        <v>0.5916724111013159</v>
       </c>
       <c r="G153">
-        <v>0.3142711866149964</v>
+        <v>0.1454167613505457</v>
       </c>
       <c r="H153">
-        <v>0.5549146175148664</v>
+        <v>0.3049150473897387</v>
       </c>
       <c r="I153">
-        <v>0.4753139509909022</v>
+        <v>0.09481083606466865</v>
       </c>
       <c r="J153">
         <v>1</v>
@@ -5305,31 +5305,31 @@
     </row>
     <row r="154" spans="1:10">
       <c r="A154">
-        <v>0.3857879262222564</v>
+        <v>0.7323159165047419</v>
       </c>
       <c r="B154">
-        <v>0.1792420243578611</v>
+        <v>0.002467447548936297</v>
       </c>
       <c r="C154">
-        <v>0.354741823027895</v>
+        <v>0.2143447634590193</v>
       </c>
       <c r="D154">
-        <v>0.4516692345312745</v>
+        <v>0.002627865086590042</v>
       </c>
       <c r="E154">
-        <v>0.7794553663526801</v>
+        <v>0.3235964359543824</v>
       </c>
       <c r="F154">
-        <v>0.3405483611003381</v>
+        <v>0.1009084137378736</v>
       </c>
       <c r="G154">
-        <v>0.431599959360614</v>
+        <v>0.1339424165936587</v>
       </c>
       <c r="H154">
-        <v>0.522870777189874</v>
+        <v>0.1181886144139495</v>
       </c>
       <c r="I154">
-        <v>0.4806190487418137</v>
+        <v>0.05877316582696355</v>
       </c>
       <c r="J154">
         <v>1</v>
@@ -5337,31 +5337,31 @@
     </row>
     <row r="155" spans="1:10">
       <c r="A155">
-        <v>0.6080618526925222</v>
+        <v>0.6486590425594444</v>
       </c>
       <c r="B155">
-        <v>0.1459570314072041</v>
+        <v>0.3640647238540374</v>
       </c>
       <c r="C155">
-        <v>0.2609167427073017</v>
+        <v>0.3323769155108917</v>
       </c>
       <c r="D155">
-        <v>0.08588612783045235</v>
+        <v>0.003278409163279158</v>
       </c>
       <c r="E155">
-        <v>0.8779325088283395</v>
+        <v>0.3168387913006023</v>
       </c>
       <c r="F155">
-        <v>0.05635732912927559</v>
+        <v>0.5599503594808336</v>
       </c>
       <c r="G155">
-        <v>0.1225687231296455</v>
+        <v>0.0776331927807077</v>
       </c>
       <c r="H155">
-        <v>0.2222042695597172</v>
+        <v>0.1317735881133095</v>
       </c>
       <c r="I155">
-        <v>0.4523527676269679</v>
+        <v>0.02252561644922093</v>
       </c>
       <c r="J155">
         <v>1</v>
@@ -5369,31 +5369,31 @@
     </row>
     <row r="156" spans="1:10">
       <c r="A156">
-        <v>0.4423315052343955</v>
+        <v>0.9098936138426774</v>
       </c>
       <c r="B156">
-        <v>0.1932453056026718</v>
+        <v>0.1446732355552702</v>
       </c>
       <c r="C156">
-        <v>0.159184694290984</v>
+        <v>0.2572213704966461</v>
       </c>
       <c r="D156">
-        <v>0.511070903889828</v>
+        <v>0.01383863624898417</v>
       </c>
       <c r="E156">
-        <v>0.7549841130173897</v>
+        <v>0.5319126042797478</v>
       </c>
       <c r="F156">
-        <v>0.3192555662085566</v>
+        <v>0.3783780143696881</v>
       </c>
       <c r="G156">
-        <v>0.3573896217192701</v>
+        <v>0.1284122075168143</v>
       </c>
       <c r="H156">
-        <v>0.3101474986980077</v>
+        <v>0.06985746190239164</v>
       </c>
       <c r="I156">
-        <v>0.8485862254186942</v>
+        <v>0.05507036139070318</v>
       </c>
       <c r="J156">
         <v>1</v>
@@ -5401,31 +5401,31 @@
     </row>
     <row r="157" spans="1:10">
       <c r="A157">
-        <v>0.5609158332125048</v>
+        <v>0.741863727332065</v>
       </c>
       <c r="B157">
-        <v>0.1765065526669791</v>
+        <v>0.295319521204863</v>
       </c>
       <c r="C157">
-        <v>0.4603918265916599</v>
+        <v>0.08630870650825979</v>
       </c>
       <c r="D157">
-        <v>0.4501082670648727</v>
+        <v>0.01892594703138523</v>
       </c>
       <c r="E157">
-        <v>0.6581775863305213</v>
+        <v>0.3665528292074597</v>
       </c>
       <c r="F157">
-        <v>0.2609719017630251</v>
+        <v>0.4421901122787279</v>
       </c>
       <c r="G157">
-        <v>0.2475702896488947</v>
+        <v>0.06358363354156164</v>
       </c>
       <c r="H157">
-        <v>0.1874950198867376</v>
+        <v>0.3718385147129213</v>
       </c>
       <c r="I157">
-        <v>0.4963974638379349</v>
+        <v>0.03990090572669867</v>
       </c>
       <c r="J157">
         <v>1</v>
@@ -5433,31 +5433,31 @@
     </row>
     <row r="158" spans="1:10">
       <c r="A158">
-        <v>0.5559554675654527</v>
+        <v>0.8328723945397654</v>
       </c>
       <c r="B158">
-        <v>0.02982975112551634</v>
+        <v>0.1981721192658451</v>
       </c>
       <c r="C158">
-        <v>0.2312055435072345</v>
+        <v>0.1718162405992999</v>
       </c>
       <c r="D158">
-        <v>0.4071595231475037</v>
+        <v>0.0002882147457224844</v>
       </c>
       <c r="E158">
-        <v>0.5880934231306233</v>
+        <v>0.474982247795855</v>
       </c>
       <c r="F158">
-        <v>0.2382820321398511</v>
+        <v>0.3324753765954284</v>
       </c>
       <c r="G158">
-        <v>0.0004250975619843729</v>
+        <v>0.09648122038222356</v>
       </c>
       <c r="H158">
-        <v>0.0249435558491633</v>
+        <v>0.07699374740866657</v>
       </c>
       <c r="I158">
-        <v>0.5892476872285042</v>
+        <v>0.089000588409281</v>
       </c>
       <c r="J158">
         <v>1</v>
@@ -5465,31 +5465,31 @@
     </row>
     <row r="159" spans="1:10">
       <c r="A159">
-        <v>0.7110211999016022</v>
+        <v>0.2452459447365466</v>
       </c>
       <c r="B159">
-        <v>0.1437375568911184</v>
+        <v>0.4164357136881596</v>
       </c>
       <c r="C159">
-        <v>0.4152909502934247</v>
+        <v>0.218780877872725</v>
       </c>
       <c r="D159">
-        <v>0.2544519234865752</v>
+        <v>0.01795630243431414</v>
       </c>
       <c r="E159">
-        <v>0.2692985758511993</v>
+        <v>0.3170762065716692</v>
       </c>
       <c r="F159">
-        <v>0.3464204831754934</v>
+        <v>0.292515495474086</v>
       </c>
       <c r="G159">
-        <v>0.2866833500987019</v>
+        <v>0.0684751255815378</v>
       </c>
       <c r="H159">
-        <v>0.3509511667098001</v>
+        <v>0.2400774234122588</v>
       </c>
       <c r="I159">
-        <v>0.8954992330420054</v>
+        <v>0.0410582868156058</v>
       </c>
       <c r="J159">
         <v>1</v>
@@ -5497,31 +5497,31 @@
     </row>
     <row r="160" spans="1:10">
       <c r="A160">
-        <v>0.08102993407735704</v>
+        <v>0.6247931141713378</v>
       </c>
       <c r="B160">
-        <v>0.2319079819859223</v>
+        <v>0.01236581632912304</v>
       </c>
       <c r="C160">
-        <v>0.3748188713636454</v>
+        <v>0.02028533000074828</v>
       </c>
       <c r="D160">
-        <v>0.5660043973882308</v>
+        <v>0.01911171696933923</v>
       </c>
       <c r="E160">
-        <v>0.6869396845954046</v>
+        <v>0.563145262702277</v>
       </c>
       <c r="F160">
-        <v>0.08338096685899116</v>
+        <v>0.2111754208595213</v>
       </c>
       <c r="G160">
-        <v>0.09037273690738112</v>
+        <v>0.069231609114642</v>
       </c>
       <c r="H160">
-        <v>0.03903615983403952</v>
+        <v>0.2304251846432606</v>
       </c>
       <c r="I160">
-        <v>0.9613869875475465</v>
+        <v>0.01571677280032651</v>
       </c>
       <c r="J160">
         <v>1</v>
@@ -5529,31 +5529,31 @@
     </row>
     <row r="161" spans="1:10">
       <c r="A161">
-        <v>0.006120491292641805</v>
+        <v>0.3728554451018009</v>
       </c>
       <c r="B161">
-        <v>0.03679700787594797</v>
+        <v>0.3755505918543035</v>
       </c>
       <c r="C161">
-        <v>0.4402217712505966</v>
+        <v>0.1461707037640317</v>
       </c>
       <c r="D161">
-        <v>0.3295114048448449</v>
+        <v>0.00700198454617928</v>
       </c>
       <c r="E161">
-        <v>0.8357114524853761</v>
+        <v>0.4034300285473119</v>
       </c>
       <c r="F161">
-        <v>0.3544198299455734</v>
+        <v>0.5826710413887183</v>
       </c>
       <c r="G161">
-        <v>0.2948594951428265</v>
+        <v>0.1308952488331422</v>
       </c>
       <c r="H161">
-        <v>0.0807779895621954</v>
+        <v>0.2243723759855619</v>
       </c>
       <c r="I161">
-        <v>0.9511498771387399</v>
+        <v>0.03231928438401515</v>
       </c>
       <c r="J161">
         <v>1</v>
@@ -5561,31 +5561,31 @@
     </row>
     <row r="162" spans="1:10">
       <c r="A162">
-        <v>0.01458059246175647</v>
+        <v>0.2963856463345352</v>
       </c>
       <c r="B162">
-        <v>0.2418080185334621</v>
+        <v>0.3659799139725758</v>
       </c>
       <c r="C162">
-        <v>0.3768673709707486</v>
+        <v>0.189669738033665</v>
       </c>
       <c r="D162">
-        <v>0.5225403957699863</v>
+        <v>0.006725218535991259</v>
       </c>
       <c r="E162">
-        <v>0.3719754648744052</v>
+        <v>0.2755909927991823</v>
       </c>
       <c r="F162">
-        <v>0.07423849656661279</v>
+        <v>0.06132067731357242</v>
       </c>
       <c r="G162">
-        <v>0.2963845077740232</v>
+        <v>0.09776119712050552</v>
       </c>
       <c r="H162">
-        <v>0.3173327685735952</v>
+        <v>0.2835989839919737</v>
       </c>
       <c r="I162">
-        <v>0.7751495397297095</v>
+        <v>0.0215036479393319</v>
       </c>
       <c r="J162">
         <v>1</v>
@@ -5593,31 +5593,31 @@
     </row>
     <row r="163" spans="1:10">
       <c r="A163">
-        <v>0.1460744208820399</v>
+        <v>0.3646747975924832</v>
       </c>
       <c r="B163">
-        <v>0.2437141818434557</v>
+        <v>0.3443700076907359</v>
       </c>
       <c r="C163">
-        <v>0.1396004842450663</v>
+        <v>0.01807484521079784</v>
       </c>
       <c r="D163">
-        <v>0.1794600000507628</v>
+        <v>0.01036493303735835</v>
       </c>
       <c r="E163">
-        <v>0.8391122059451226</v>
+        <v>0.4435392878998328</v>
       </c>
       <c r="F163">
-        <v>0.2220349416227698</v>
+        <v>0.3249220538268227</v>
       </c>
       <c r="G163">
-        <v>0.2403069672752815</v>
+        <v>0.1238573860948646</v>
       </c>
       <c r="H163">
-        <v>0.4775338681969</v>
+        <v>0.2033280474235608</v>
       </c>
       <c r="I163">
-        <v>0.4906670532394514</v>
+        <v>0.09551641654619784</v>
       </c>
       <c r="J163">
         <v>1</v>
@@ -5625,31 +5625,31 @@
     </row>
     <row r="164" spans="1:10">
       <c r="A164">
-        <v>0.1553331433300071</v>
+        <v>0.9587623342095468</v>
       </c>
       <c r="B164">
-        <v>0.01603011589733572</v>
+        <v>0.220714724075738</v>
       </c>
       <c r="C164">
-        <v>0.1259539949660569</v>
+        <v>0.166941818697652</v>
       </c>
       <c r="D164">
-        <v>0.4893783978066637</v>
+        <v>0.01181868873460461</v>
       </c>
       <c r="E164">
-        <v>0.6507971888249494</v>
+        <v>0.5435462925220506</v>
       </c>
       <c r="F164">
-        <v>0.2169524631205024</v>
+        <v>0.2106947053724739</v>
       </c>
       <c r="G164">
-        <v>0.201372857839144</v>
+        <v>0.1367332179057192</v>
       </c>
       <c r="H164">
-        <v>0.5857117836045609</v>
+        <v>0.309674405356768</v>
       </c>
       <c r="I164">
-        <v>0.7375584598951305</v>
+        <v>0.049700058849509</v>
       </c>
       <c r="J164">
         <v>1</v>
@@ -5657,31 +5657,31 @@
     </row>
     <row r="165" spans="1:10">
       <c r="A165">
-        <v>0.6229611080312256</v>
+        <v>0.6082125468170116</v>
       </c>
       <c r="B165">
-        <v>0.007036372662470203</v>
+        <v>0.342260319383472</v>
       </c>
       <c r="C165">
-        <v>0.3158669621833258</v>
+        <v>0.1148930390205962</v>
       </c>
       <c r="D165">
-        <v>0.6499463385981845</v>
+        <v>0.01073334440026624</v>
       </c>
       <c r="E165">
-        <v>0.6084145282548992</v>
+        <v>0.5305914355540577</v>
       </c>
       <c r="F165">
-        <v>0.2771225549788028</v>
+        <v>0.2304903671267149</v>
       </c>
       <c r="G165">
-        <v>0.1419877114673066</v>
+        <v>0.07399492938271116</v>
       </c>
       <c r="H165">
-        <v>0.06756682859615526</v>
+        <v>0.06387115712219496</v>
       </c>
       <c r="I165">
-        <v>0.6463609776626589</v>
+        <v>0.06608406725450902</v>
       </c>
       <c r="J165">
         <v>1</v>
@@ -5689,31 +5689,31 @@
     </row>
     <row r="166" spans="1:10">
       <c r="A166">
-        <v>0.5944308831901627</v>
+        <v>0.9770611408316173</v>
       </c>
       <c r="B166">
-        <v>0.1226184402812295</v>
+        <v>0.3975558240458794</v>
       </c>
       <c r="C166">
-        <v>0.4639994494928644</v>
+        <v>0.3508984280273415</v>
       </c>
       <c r="D166">
-        <v>0.4941536153372205</v>
+        <v>0.01142439052276849</v>
       </c>
       <c r="E166">
-        <v>0.5730914432259652</v>
+        <v>0.3853614264363913</v>
       </c>
       <c r="F166">
-        <v>0.125096122589911</v>
+        <v>0.5155201126582533</v>
       </c>
       <c r="G166">
-        <v>0.2096226147825929</v>
+        <v>0.1397340508773631</v>
       </c>
       <c r="H166">
-        <v>0.2113897668154441</v>
+        <v>0.05919201206313807</v>
       </c>
       <c r="I166">
-        <v>0.4484628818469816</v>
+        <v>0.06856596416462868</v>
       </c>
       <c r="J166">
         <v>1</v>
@@ -5721,31 +5721,31 @@
     </row>
     <row r="167" spans="1:10">
       <c r="A167">
-        <v>0.05972307613042893</v>
+        <v>0.962766205671572</v>
       </c>
       <c r="B167">
-        <v>0.03809014583028719</v>
+        <v>0.2358291047120652</v>
       </c>
       <c r="C167">
-        <v>0.2287882850239272</v>
+        <v>0.02269963177339638</v>
       </c>
       <c r="D167">
-        <v>0.5828832233620758</v>
+        <v>0.004282254679937922</v>
       </c>
       <c r="E167">
-        <v>0.5621196936201962</v>
+        <v>0.2809723132481359</v>
       </c>
       <c r="F167">
-        <v>0.2021572341182424</v>
+        <v>0.5177253709521307</v>
       </c>
       <c r="G167">
-        <v>0.3151298455423088</v>
+        <v>0.07489119829166171</v>
       </c>
       <c r="H167">
-        <v>0.1882231349252383</v>
+        <v>0.1029134524004248</v>
       </c>
       <c r="I167">
-        <v>0.6385675733692919</v>
+        <v>0.009701655406040063</v>
       </c>
       <c r="J167">
         <v>1</v>
@@ -5753,31 +5753,31 @@
     </row>
     <row r="168" spans="1:10">
       <c r="A168">
-        <v>0.7586833534360966</v>
+        <v>0.8989472800219125</v>
       </c>
       <c r="B168">
-        <v>0.08389809541942739</v>
+        <v>0.2734044844205183</v>
       </c>
       <c r="C168">
-        <v>0.08691787268012929</v>
+        <v>0.2184663810610865</v>
       </c>
       <c r="D168">
-        <v>0.194832672792234</v>
+        <v>0.01043367213729297</v>
       </c>
       <c r="E168">
-        <v>0.2887279578947707</v>
+        <v>0.5848065584905268</v>
       </c>
       <c r="F168">
-        <v>0.2977731876318003</v>
+        <v>0.2190315675083808</v>
       </c>
       <c r="G168">
-        <v>0.4516319804266083</v>
+        <v>0.1020492240173749</v>
       </c>
       <c r="H168">
-        <v>0.1661081063960392</v>
+        <v>0.3458271012199256</v>
       </c>
       <c r="I168">
-        <v>0.5562094104915394</v>
+        <v>0.0372311976947629</v>
       </c>
       <c r="J168">
         <v>1</v>
@@ -5785,31 +5785,31 @@
     </row>
     <row r="169" spans="1:10">
       <c r="A169">
-        <v>0.7134706297845866</v>
+        <v>0.1339531374797063</v>
       </c>
       <c r="B169">
-        <v>0.06311779927552796</v>
+        <v>0.1302891310299468</v>
       </c>
       <c r="C169">
-        <v>0.1152854061398404</v>
+        <v>0.2188938805655671</v>
       </c>
       <c r="D169">
-        <v>0.5547132260676723</v>
+        <v>0.009162634275269376</v>
       </c>
       <c r="E169">
-        <v>0.6468394071092297</v>
+        <v>0.5513601259743133</v>
       </c>
       <c r="F169">
-        <v>0.1224229474157822</v>
+        <v>0.4487216065324864</v>
       </c>
       <c r="G169">
-        <v>0.1090501527721983</v>
+        <v>0.1398128034671637</v>
       </c>
       <c r="H169">
-        <v>0.1493924000574035</v>
+        <v>0.1476619070793012</v>
       </c>
       <c r="I169">
-        <v>0.8214245021440281</v>
+        <v>0.001618852746499327</v>
       </c>
       <c r="J169">
         <v>1</v>
@@ -5817,31 +5817,31 @@
     </row>
     <row r="170" spans="1:10">
       <c r="A170">
-        <v>0.6608781454443703</v>
+        <v>0.5395674677417194</v>
       </c>
       <c r="B170">
-        <v>0.1384841564070635</v>
+        <v>0.1315697570056697</v>
       </c>
       <c r="C170">
-        <v>0.1000855551721669</v>
+        <v>0.4235097226234151</v>
       </c>
       <c r="D170">
-        <v>0.632185035408107</v>
+        <v>0.0001574782782400456</v>
       </c>
       <c r="E170">
-        <v>0.7985220465258052</v>
+        <v>0.2940073855332229</v>
       </c>
       <c r="F170">
-        <v>0.2510782536395064</v>
+        <v>0.4130880153160774</v>
       </c>
       <c r="G170">
-        <v>0.3628607944567085</v>
+        <v>0.1192618266797997</v>
       </c>
       <c r="H170">
-        <v>0.6347314814586255</v>
+        <v>0.1711371815328462</v>
       </c>
       <c r="I170">
-        <v>0.5577283169942495</v>
+        <v>0.02418746334139569</v>
       </c>
       <c r="J170">
         <v>1</v>
@@ -5849,31 +5849,31 @@
     </row>
     <row r="171" spans="1:10">
       <c r="A171">
-        <v>0.7428678328617425</v>
+        <v>0.4991870084960519</v>
       </c>
       <c r="B171">
-        <v>0.1102945307724634</v>
+        <v>0.404702035827196</v>
       </c>
       <c r="C171">
-        <v>0.2235286415510338</v>
+        <v>0.1047834589733762</v>
       </c>
       <c r="D171">
-        <v>0.6927069684116655</v>
+        <v>0.0009742754407699015</v>
       </c>
       <c r="E171">
-        <v>0.3224846748563918</v>
+        <v>0.2382944698099655</v>
       </c>
       <c r="F171">
-        <v>0.2622494607146775</v>
+        <v>0.3905026100269491</v>
       </c>
       <c r="G171">
-        <v>0.2223251641551283</v>
+        <v>0.1319544717218931</v>
       </c>
       <c r="H171">
-        <v>0.08758378208835649</v>
+        <v>0.2326449767454493</v>
       </c>
       <c r="I171">
-        <v>0.5843151803120127</v>
+        <v>0.07773875551283245</v>
       </c>
       <c r="J171">
         <v>1</v>
@@ -5881,31 +5881,31 @@
     </row>
     <row r="172" spans="1:10">
       <c r="A172">
-        <v>0.4856911267562257</v>
+        <v>0.8741114447166558</v>
       </c>
       <c r="B172">
-        <v>0.1146806703702238</v>
+        <v>0.3468140607800189</v>
       </c>
       <c r="C172">
-        <v>0.1585810172363238</v>
+        <v>0.1850289331987723</v>
       </c>
       <c r="D172">
-        <v>0.007687467448470486</v>
+        <v>0.004668679642549337</v>
       </c>
       <c r="E172">
-        <v>0.7834419063010015</v>
+        <v>0.2256847067001189</v>
       </c>
       <c r="F172">
-        <v>0.217610735752438</v>
+        <v>0.3789572164202401</v>
       </c>
       <c r="G172">
-        <v>0.0980572992308686</v>
+        <v>0.09863168409364834</v>
       </c>
       <c r="H172">
-        <v>0.009744915387406405</v>
+        <v>0.3940254291931875</v>
       </c>
       <c r="I172">
-        <v>0.6078749962741257</v>
+        <v>0.04340302672283085</v>
       </c>
       <c r="J172">
         <v>1</v>
@@ -5913,31 +5913,31 @@
     </row>
     <row r="173" spans="1:10">
       <c r="A173">
-        <v>0.4431655728386136</v>
+        <v>0.4847982953865793</v>
       </c>
       <c r="B173">
-        <v>0.1786313992979552</v>
+        <v>0.3259214600320113</v>
       </c>
       <c r="C173">
-        <v>0.3553859535716539</v>
+        <v>0.3582408542197659</v>
       </c>
       <c r="D173">
-        <v>0.6416616838091139</v>
+        <v>0.0115767576963228</v>
       </c>
       <c r="E173">
-        <v>0.350558918960536</v>
+        <v>0.5710727294015346</v>
       </c>
       <c r="F173">
-        <v>0.05359053490905911</v>
+        <v>0.392488967285557</v>
       </c>
       <c r="G173">
-        <v>0.182505477798233</v>
+        <v>0.1005754986531273</v>
       </c>
       <c r="H173">
-        <v>0.1350869093173406</v>
+        <v>0.2544418467908865</v>
       </c>
       <c r="I173">
-        <v>0.7735452334391051</v>
+        <v>0.01537044765170997</v>
       </c>
       <c r="J173">
         <v>1</v>
@@ -5945,31 +5945,31 @@
     </row>
     <row r="174" spans="1:10">
       <c r="A174">
-        <v>0.6676496656244579</v>
+        <v>0.9094132449271543</v>
       </c>
       <c r="B174">
-        <v>0.06595377668524094</v>
+        <v>0.3191531890973474</v>
       </c>
       <c r="C174">
-        <v>0.4646521018543294</v>
+        <v>0.151215006306322</v>
       </c>
       <c r="D174">
-        <v>0.5946552902613674</v>
+        <v>0.007832732639249789</v>
       </c>
       <c r="E174">
-        <v>0.6494603335701452</v>
+        <v>0.4851770124318006</v>
       </c>
       <c r="F174">
-        <v>0.3118287506769529</v>
+        <v>0.4915918987116468</v>
       </c>
       <c r="G174">
-        <v>0.1713264554088124</v>
+        <v>0.1362442556618306</v>
       </c>
       <c r="H174">
-        <v>0.4689235259862751</v>
+        <v>0.01232237339669333</v>
       </c>
       <c r="I174">
-        <v>0.6338214830526365</v>
+        <v>0.03830945349373456</v>
       </c>
       <c r="J174">
         <v>1</v>
@@ -5977,31 +5977,31 @@
     </row>
     <row r="175" spans="1:10">
       <c r="A175">
-        <v>0.6819446889233989</v>
+        <v>0.9407115228578876</v>
       </c>
       <c r="B175">
-        <v>0.02363964844775218</v>
+        <v>0.2413110423897636</v>
       </c>
       <c r="C175">
-        <v>0.1223046640487957</v>
+        <v>0.355646256872018</v>
       </c>
       <c r="D175">
-        <v>0.1775520090006621</v>
+        <v>4.679899786321615E-05</v>
       </c>
       <c r="E175">
-        <v>0.2971792297851904</v>
+        <v>0.4514883051154828</v>
       </c>
       <c r="F175">
-        <v>0.1814537422596116</v>
+        <v>0.2518893126046216</v>
       </c>
       <c r="G175">
-        <v>0.2250752729447081</v>
+        <v>0.09776119712050552</v>
       </c>
       <c r="H175">
-        <v>0.1511854179050205</v>
+        <v>0.2835989839919737</v>
       </c>
       <c r="I175">
-        <v>0.5629761893551983</v>
+        <v>0.0215036479393319</v>
       </c>
       <c r="J175">
         <v>1</v>
@@ -6009,31 +6009,31 @@
     </row>
     <row r="176" spans="1:10">
       <c r="A176">
-        <v>0.4039807491329732</v>
+        <v>0.3011224936005611</v>
       </c>
       <c r="B176">
-        <v>0.1479743835699672</v>
+        <v>0.00408306779737766</v>
       </c>
       <c r="C176">
-        <v>0.4218093789976619</v>
+        <v>0.1252242397734765</v>
       </c>
       <c r="D176">
-        <v>0.1180091019502872</v>
+        <v>0.01943832590921261</v>
       </c>
       <c r="E176">
-        <v>0.3886941813740441</v>
+        <v>0.5252175179557668</v>
       </c>
       <c r="F176">
-        <v>0.315175366708736</v>
+        <v>0.2779073107145705</v>
       </c>
       <c r="G176">
-        <v>0.3765906580295684</v>
+        <v>0.0767046123384876</v>
       </c>
       <c r="H176">
-        <v>0.511805847126549</v>
+        <v>0.3113736518827751</v>
       </c>
       <c r="I176">
-        <v>0.8171424214154664</v>
+        <v>0.1012062080921126</v>
       </c>
       <c r="J176">
         <v>1</v>
@@ -6041,31 +6041,31 @@
     </row>
     <row r="177" spans="1:10">
       <c r="A177">
-        <v>0.4464857021780099</v>
+        <v>0.5004227970252416</v>
       </c>
       <c r="B177">
-        <v>0.2297503382238735</v>
+        <v>0.3462364838971715</v>
       </c>
       <c r="C177">
-        <v>0.4516741972699668</v>
+        <v>0.3902978075764817</v>
       </c>
       <c r="D177">
-        <v>0.1175908319262156</v>
+        <v>0.007464679298668733</v>
       </c>
       <c r="E177">
-        <v>0.4078408784466985</v>
+        <v>0.5499337805297982</v>
       </c>
       <c r="F177">
-        <v>0.1236291378970052</v>
+        <v>0.2658411905273848</v>
       </c>
       <c r="G177">
-        <v>0.2310013274485067</v>
+        <v>0.1489114500893921</v>
       </c>
       <c r="H177">
-        <v>0.6405003266525011</v>
+        <v>0.3807103271089558</v>
       </c>
       <c r="I177">
-        <v>0.5936312666902228</v>
+        <v>0.06971131793123068</v>
       </c>
       <c r="J177">
         <v>1</v>
@@ -6073,31 +6073,31 @@
     </row>
     <row r="178" spans="1:10">
       <c r="A178">
-        <v>0.6980055991003963</v>
+        <v>0.1577704985180379</v>
       </c>
       <c r="B178">
-        <v>0.2082302209000849</v>
+        <v>0.0484176624511769</v>
       </c>
       <c r="C178">
-        <v>0.07932000762338816</v>
+        <v>0.1582279754815308</v>
       </c>
       <c r="D178">
-        <v>0.228076248794854</v>
+        <v>0.01139052270286835</v>
       </c>
       <c r="E178">
-        <v>0.3243368856033144</v>
+        <v>0.5840953044269878</v>
       </c>
       <c r="F178">
-        <v>0.2688961895962392</v>
+        <v>0.4943592743982426</v>
       </c>
       <c r="G178">
-        <v>0.1710323579601609</v>
+        <v>0.1120670894864265</v>
       </c>
       <c r="H178">
-        <v>0.4145624599269316</v>
+        <v>0.375500226881538</v>
       </c>
       <c r="I178">
-        <v>0.8164353730706515</v>
+        <v>0.01927466660695235</v>
       </c>
       <c r="J178">
         <v>1</v>
@@ -6105,31 +6105,31 @@
     </row>
     <row r="179" spans="1:10">
       <c r="A179">
-        <v>0.2130479265903116</v>
+        <v>0.5923078582208254</v>
       </c>
       <c r="B179">
-        <v>0.2448178838136595</v>
+        <v>0.07489200788847883</v>
       </c>
       <c r="C179">
-        <v>0.07493353862576413</v>
+        <v>0.1506765589156236</v>
       </c>
       <c r="D179">
-        <v>0.2044757732602885</v>
+        <v>0.008148834113015577</v>
       </c>
       <c r="E179">
-        <v>0.4755405404478138</v>
+        <v>0.4560931858119252</v>
       </c>
       <c r="F179">
-        <v>0.1311412083406314</v>
+        <v>0.4825672729074273</v>
       </c>
       <c r="G179">
-        <v>0.2479056302809688</v>
+        <v>0.07895803889566529</v>
       </c>
       <c r="H179">
-        <v>0.1880625635966284</v>
+        <v>0.1344673599714471</v>
       </c>
       <c r="I179">
-        <v>0.5895291137723957</v>
+        <v>0.03252712699748452</v>
       </c>
       <c r="J179">
         <v>1</v>
@@ -6137,31 +6137,31 @@
     </row>
     <row r="180" spans="1:10">
       <c r="A180">
-        <v>0.6815420998588246</v>
+        <v>0.4068812363949793</v>
       </c>
       <c r="B180">
-        <v>0.2327002139761634</v>
+        <v>0.04792639058653508</v>
       </c>
       <c r="C180">
-        <v>0.2485503276816284</v>
+        <v>0.3499172354700062</v>
       </c>
       <c r="D180">
-        <v>0.1932832949296275</v>
+        <v>0.0002831016126762287</v>
       </c>
       <c r="E180">
-        <v>0.4249541064699734</v>
+        <v>0.3444861490914101</v>
       </c>
       <c r="F180">
-        <v>0.2746044257871172</v>
+        <v>0.08115841329198763</v>
       </c>
       <c r="G180">
-        <v>0.4147006879456757</v>
+        <v>0.07035103207054161</v>
       </c>
       <c r="H180">
-        <v>0.2901145129069619</v>
+        <v>0.2543894106459385</v>
       </c>
       <c r="I180">
-        <v>0.4214740557323159</v>
+        <v>0.06438542273798474</v>
       </c>
       <c r="J180">
         <v>1</v>
@@ -6169,31 +6169,31 @@
     </row>
     <row r="181" spans="1:10">
       <c r="A181">
-        <v>0.1093879367383775</v>
+        <v>0.9100434592545887</v>
       </c>
       <c r="B181">
-        <v>0.1907301906418127</v>
+        <v>0.377659784407837</v>
       </c>
       <c r="C181">
-        <v>0.3557708784075573</v>
+        <v>0.1456495944215839</v>
       </c>
       <c r="D181">
-        <v>0.02256003120865868</v>
+        <v>0.006933476428086402</v>
       </c>
       <c r="E181">
-        <v>0.5547235821081725</v>
+        <v>0.3040398822748446</v>
       </c>
       <c r="F181">
-        <v>0.1469832888523897</v>
+        <v>0.5431064766431996</v>
       </c>
       <c r="G181">
-        <v>0.3718179421336587</v>
+        <v>0.1288816590826448</v>
       </c>
       <c r="H181">
-        <v>0.5321175071939731</v>
+        <v>0.2488630002322718</v>
       </c>
       <c r="I181">
-        <v>0.8216006139982944</v>
+        <v>0.09766298809813023</v>
       </c>
       <c r="J181">
         <v>1</v>
@@ -6201,31 +6201,31 @@
     </row>
     <row r="182" spans="1:10">
       <c r="A182">
-        <v>0.5409579407985703</v>
+        <v>0.5696014872980986</v>
       </c>
       <c r="B182">
-        <v>0.005459198093400897</v>
+        <v>0.1922714571554116</v>
       </c>
       <c r="C182">
-        <v>0.1949282068980543</v>
+        <v>0.1925388521260866</v>
       </c>
       <c r="D182">
-        <v>0.4410305335100143</v>
+        <v>0.0191899645494438</v>
       </c>
       <c r="E182">
-        <v>0.5134760643882327</v>
+        <v>0.4982495637699132</v>
       </c>
       <c r="F182">
-        <v>0.283126137139783</v>
+        <v>0.5979413006985115</v>
       </c>
       <c r="G182">
-        <v>0.1390269763375382</v>
+        <v>0.1444835018231281</v>
       </c>
       <c r="H182">
-        <v>0.5668890660440314</v>
+        <v>0.03380653283829566</v>
       </c>
       <c r="I182">
-        <v>0.7093964816141991</v>
+        <v>0.08268967976410321</v>
       </c>
       <c r="J182">
         <v>1</v>
@@ -6233,31 +6233,31 @@
     </row>
     <row r="183" spans="1:10">
       <c r="A183">
-        <v>0.005818860869846953</v>
+        <v>0.9135244586471943</v>
       </c>
       <c r="B183">
-        <v>0.2171655403514272</v>
+        <v>0.1416170760079254</v>
       </c>
       <c r="C183">
-        <v>0.4563141767100111</v>
+        <v>0.05742821585542271</v>
       </c>
       <c r="D183">
-        <v>0.1048003023038757</v>
+        <v>0.01692274982272675</v>
       </c>
       <c r="E183">
-        <v>0.3286630992317383</v>
+        <v>0.4348455533697633</v>
       </c>
       <c r="F183">
-        <v>0.06072399156973067</v>
+        <v>0.5339803009423895</v>
       </c>
       <c r="G183">
-        <v>0.5854123480276556</v>
+        <v>0.1466669237828633</v>
       </c>
       <c r="H183">
-        <v>0.4354543714418351</v>
+        <v>0.2652190419353401</v>
       </c>
       <c r="I183">
-        <v>0.9484653447336755</v>
+        <v>0.03586681798989717</v>
       </c>
       <c r="J183">
         <v>1</v>
@@ -6265,31 +6265,31 @@
     </row>
     <row r="184" spans="1:10">
       <c r="A184">
-        <v>0.4259343968615997</v>
+        <v>0.1774726235699683</v>
       </c>
       <c r="B184">
-        <v>0.255504122583412</v>
+        <v>0.1403723657579862</v>
       </c>
       <c r="C184">
-        <v>0.2707101912468667</v>
+        <v>0.03070416674581658</v>
       </c>
       <c r="D184">
-        <v>0.2483397769796329</v>
+        <v>0.009361681051154798</v>
       </c>
       <c r="E184">
-        <v>0.546002378507333</v>
+        <v>0.5693804602241083</v>
       </c>
       <c r="F184">
-        <v>0.2749966606570908</v>
+        <v>0.1040530777172198</v>
       </c>
       <c r="G184">
-        <v>0.2471129779421024</v>
+        <v>0.1105510450514984</v>
       </c>
       <c r="H184">
-        <v>0.1394590599451153</v>
+        <v>0.3592268736782431</v>
       </c>
       <c r="I184">
-        <v>0.9202275428908736</v>
+        <v>0.07056506681353776</v>
       </c>
       <c r="J184">
         <v>1</v>
@@ -6297,31 +6297,31 @@
     </row>
     <row r="185" spans="1:10">
       <c r="A185">
-        <v>0.06285488974925924</v>
+        <v>0.2914723243607102</v>
       </c>
       <c r="B185">
-        <v>0.09058475649433323</v>
+        <v>0.3129570297160639</v>
       </c>
       <c r="C185">
-        <v>0.410410307013602</v>
+        <v>0.01869438494643517</v>
       </c>
       <c r="D185">
-        <v>0.322089781999667</v>
+        <v>0.02205732553113341</v>
       </c>
       <c r="E185">
-        <v>0.4591631444309853</v>
+        <v>0.3982063247766673</v>
       </c>
       <c r="F185">
-        <v>0.2399153284883222</v>
+        <v>0.05126455342916105</v>
       </c>
       <c r="G185">
-        <v>0.346666349089311</v>
+        <v>0.137930464514155</v>
       </c>
       <c r="H185">
-        <v>0.6091002129802485</v>
+        <v>0.3357779312094638</v>
       </c>
       <c r="I185">
-        <v>0.9212012996155499</v>
+        <v>0.05248298890416939</v>
       </c>
       <c r="J185">
         <v>1</v>
@@ -6329,31 +6329,31 @@
     </row>
     <row r="186" spans="1:10">
       <c r="A186">
-        <v>0.1414375381871296</v>
+        <v>0.9533183257540849</v>
       </c>
       <c r="B186">
-        <v>0.1412959061949307</v>
+        <v>0.3757033979129168</v>
       </c>
       <c r="C186">
-        <v>0.09157468303176571</v>
+        <v>0.08296028132559276</v>
       </c>
       <c r="D186">
-        <v>0.05573236650374391</v>
+        <v>0.006837609351037721</v>
       </c>
       <c r="E186">
-        <v>0.3087555098039274</v>
+        <v>0.3060292249367967</v>
       </c>
       <c r="F186">
-        <v>0.06488697880693481</v>
+        <v>0.1649407085379646</v>
       </c>
       <c r="G186">
-        <v>0.5274514859787802</v>
+        <v>0.06462316723230332</v>
       </c>
       <c r="H186">
-        <v>0.2214694607657297</v>
+        <v>0.3470099248114786</v>
       </c>
       <c r="I186">
-        <v>0.7548478777564971</v>
+        <v>0.05988254249538165</v>
       </c>
       <c r="J186">
         <v>1</v>
@@ -6361,31 +6361,31 @@
     </row>
     <row r="187" spans="1:10">
       <c r="A187">
-        <v>0.388663701472907</v>
+        <v>0.9130271887732687</v>
       </c>
       <c r="B187">
-        <v>0.008656202367215149</v>
+        <v>0.04355011389000796</v>
       </c>
       <c r="C187">
-        <v>0.3555834958942005</v>
+        <v>0.2588985402805542</v>
       </c>
       <c r="D187">
-        <v>0.4806920001466322</v>
+        <v>0.01567545173535983</v>
       </c>
       <c r="E187">
-        <v>0.6530437039377514</v>
+        <v>0.5698414438116</v>
       </c>
       <c r="F187">
-        <v>0.09978498714586756</v>
+        <v>0.4298159624360201</v>
       </c>
       <c r="G187">
-        <v>0.006105040412600704</v>
+        <v>0.1359636653099318</v>
       </c>
       <c r="H187">
-        <v>0.3646705138651576</v>
+        <v>0.1985706078612927</v>
       </c>
       <c r="I187">
-        <v>0.9239309605508236</v>
+        <v>0.05267380506530971</v>
       </c>
       <c r="J187">
         <v>1</v>
@@ -6393,31 +6393,31 @@
     </row>
     <row r="188" spans="1:10">
       <c r="A188">
-        <v>0.6626025263243273</v>
+        <v>0.6716597870476763</v>
       </c>
       <c r="B188">
-        <v>0.1771335496478794</v>
+        <v>0.05288945109398968</v>
       </c>
       <c r="C188">
-        <v>0.2182956700631773</v>
+        <v>0.1120752695596038</v>
       </c>
       <c r="D188">
-        <v>0.3473445810996559</v>
+        <v>0.006660822166962615</v>
       </c>
       <c r="E188">
-        <v>0.7570246356199645</v>
+        <v>0.5655395153456724</v>
       </c>
       <c r="F188">
-        <v>0.0838858696903152</v>
+        <v>0.1141152781091299</v>
       </c>
       <c r="G188">
-        <v>0.2119470508615603</v>
+        <v>0.1173364579078715</v>
       </c>
       <c r="H188">
-        <v>0.1540054979454967</v>
+        <v>0.4283198319099934</v>
       </c>
       <c r="I188">
-        <v>0.9613442033188641</v>
+        <v>0.02269321158969138</v>
       </c>
       <c r="J188">
         <v>1</v>
@@ -6425,31 +6425,31 @@
     </row>
     <row r="189" spans="1:10">
       <c r="A189">
-        <v>0.1548578192679085</v>
+        <v>0.2773656157624416</v>
       </c>
       <c r="B189">
-        <v>0.164548592699821</v>
+        <v>0.3555046624298454</v>
       </c>
       <c r="C189">
-        <v>0.3576943410379404</v>
+        <v>0.3005245637771251</v>
       </c>
       <c r="D189">
-        <v>0.3694971769378907</v>
+        <v>0.01401772363494066</v>
       </c>
       <c r="E189">
-        <v>0.3237083085761356</v>
+        <v>0.422403851867075</v>
       </c>
       <c r="F189">
-        <v>0.2052143925525605</v>
+        <v>0.2570220036903162</v>
       </c>
       <c r="G189">
-        <v>0.3368720003093888</v>
+        <v>0.1309179995550884</v>
       </c>
       <c r="H189">
-        <v>0.6184963408360907</v>
+        <v>0.04360742702708943</v>
       </c>
       <c r="I189">
-        <v>0.9059173179190698</v>
+        <v>0.02699638947560745</v>
       </c>
       <c r="J189">
         <v>1</v>
@@ -6457,31 +6457,31 @@
     </row>
     <row r="190" spans="1:10">
       <c r="A190">
-        <v>0.03341056956023336</v>
+        <v>0.4026272506291848</v>
       </c>
       <c r="B190">
-        <v>0.1114241490294381</v>
+        <v>0.2875763105013848</v>
       </c>
       <c r="C190">
-        <v>0.2663382233847055</v>
+        <v>0.4133114096122029</v>
       </c>
       <c r="D190">
-        <v>0.6243663554443849</v>
+        <v>0.00945410166655283</v>
       </c>
       <c r="E190">
-        <v>0.6783305102448823</v>
+        <v>0.5300426588559927</v>
       </c>
       <c r="F190">
-        <v>0.237528618442077</v>
+        <v>0.2046718474285817</v>
       </c>
       <c r="G190">
-        <v>0.5222243247795829</v>
+        <v>0.135569029555262</v>
       </c>
       <c r="H190">
-        <v>0.6343026918319247</v>
+        <v>0.06708118202280287</v>
       </c>
       <c r="I190">
-        <v>0.8522298656762893</v>
+        <v>0.01986377792355486</v>
       </c>
       <c r="J190">
         <v>1</v>
@@ -6489,31 +6489,31 @@
     </row>
     <row r="191" spans="1:10">
       <c r="A191">
-        <v>0.5636170056123748</v>
+        <v>0.3061674941390377</v>
       </c>
       <c r="B191">
-        <v>0.008607273977116192</v>
+        <v>0.3457825434857845</v>
       </c>
       <c r="C191">
-        <v>0.1218192793517863</v>
+        <v>0.3373915208568503</v>
       </c>
       <c r="D191">
-        <v>0.3788377937601467</v>
+        <v>0.005892342704172224</v>
       </c>
       <c r="E191">
-        <v>0.4401477076921467</v>
+        <v>0.3238203068726252</v>
       </c>
       <c r="F191">
-        <v>0.2994115626523201</v>
+        <v>0.4411788652033762</v>
       </c>
       <c r="G191">
-        <v>0.2091601715909608</v>
+        <v>0.1168672986770073</v>
       </c>
       <c r="H191">
-        <v>0.3252360399529798</v>
+        <v>0.1148320346738023</v>
       </c>
       <c r="I191">
-        <v>0.6831214332095039</v>
+        <v>0.0658177744081737</v>
       </c>
       <c r="J191">
         <v>1</v>
@@ -6521,31 +6521,31 @@
     </row>
     <row r="192" spans="1:10">
       <c r="A192">
-        <v>0.2885873703671936</v>
+        <v>0.2344284137404762</v>
       </c>
       <c r="B192">
-        <v>0.1558501155129827</v>
+        <v>0.07618386012730816</v>
       </c>
       <c r="C192">
-        <v>0.4379078965235123</v>
+        <v>0.1265146590882626</v>
       </c>
       <c r="D192">
-        <v>0.6906620901094739</v>
+        <v>0.0174254134248898</v>
       </c>
       <c r="E192">
-        <v>0.3557625684992514</v>
+        <v>0.2935357283055383</v>
       </c>
       <c r="F192">
-        <v>0.1231628484494107</v>
+        <v>0.4588964303515892</v>
       </c>
       <c r="G192">
-        <v>0.04287012733341041</v>
+        <v>0.1090849402773398</v>
       </c>
       <c r="H192">
-        <v>0.1467223291091672</v>
+        <v>0.2160000060906018</v>
       </c>
       <c r="I192">
-        <v>0.5251455150167659</v>
+        <v>0.09181749310645247</v>
       </c>
       <c r="J192">
         <v>1</v>
@@ -6553,31 +6553,31 @@
     </row>
     <row r="193" spans="1:10">
       <c r="A193">
-        <v>0.5802391260140296</v>
+        <v>0.5776171451585358</v>
       </c>
       <c r="B193">
-        <v>0.1661067781961673</v>
+        <v>0.3096945698754823</v>
       </c>
       <c r="C193">
-        <v>0.2956482278920282</v>
+        <v>0.06912540636906596</v>
       </c>
       <c r="D193">
-        <v>0.04531339607269913</v>
+        <v>0.01203562556927796</v>
       </c>
       <c r="E193">
-        <v>0.5769929477994371</v>
+        <v>0.3025705662328961</v>
       </c>
       <c r="F193">
-        <v>0.1236335763782731</v>
+        <v>0.5357958930164077</v>
       </c>
       <c r="G193">
-        <v>0.3507729951304093</v>
+        <v>0.1223757206307185</v>
       </c>
       <c r="H193">
-        <v>0.5215121916665151</v>
+        <v>0.2686156165845848</v>
       </c>
       <c r="I193">
-        <v>0.8163372366663147</v>
+        <v>0.01179745564684564</v>
       </c>
       <c r="J193">
         <v>1</v>
@@ -6585,31 +6585,31 @@
     </row>
     <row r="194" spans="1:10">
       <c r="A194">
-        <v>0.4730083979155715</v>
+        <v>0.7323159165047419</v>
       </c>
       <c r="B194">
-        <v>0.1312511045667177</v>
+        <v>0.002467447548936297</v>
       </c>
       <c r="C194">
-        <v>0.0979784711853208</v>
+        <v>0.2143447634590193</v>
       </c>
       <c r="D194">
-        <v>0.4261089087220233</v>
+        <v>0.002627865086590042</v>
       </c>
       <c r="E194">
-        <v>0.5211095211179578</v>
+        <v>0.3235964359543824</v>
       </c>
       <c r="F194">
-        <v>0.3098124340279583</v>
+        <v>0.1009084137378736</v>
       </c>
       <c r="G194">
-        <v>0.5151580307684205</v>
+        <v>0.09679756513690328</v>
       </c>
       <c r="H194">
-        <v>0.1939654652953438</v>
+        <v>0.04467173148297325</v>
       </c>
       <c r="I194">
-        <v>0.9786831130340141</v>
+        <v>0.07613428194329797</v>
       </c>
       <c r="J194">
         <v>1</v>
@@ -6617,31 +6617,31 @@
     </row>
     <row r="195" spans="1:10">
       <c r="A195">
-        <v>0.5917260428609052</v>
+        <v>0.5316176066129444</v>
       </c>
       <c r="B195">
-        <v>0.07932421718612703</v>
+        <v>0.04293448066415079</v>
       </c>
       <c r="C195">
-        <v>0.1752620482336534</v>
+        <v>0.329193676207014</v>
       </c>
       <c r="D195">
-        <v>0.4922004815979332</v>
+        <v>0.008384196926144968</v>
       </c>
       <c r="E195">
-        <v>0.2963903100092234</v>
+        <v>0.3225340537139852</v>
       </c>
       <c r="F195">
-        <v>0.1939636852120182</v>
+        <v>0.4877839942038111</v>
       </c>
       <c r="G195">
-        <v>0.002424047476086314</v>
+        <v>0.07343715323085299</v>
       </c>
       <c r="H195">
-        <v>0.520726080150813</v>
+        <v>0.3687973824478296</v>
       </c>
       <c r="I195">
-        <v>0.8201210674174909</v>
+        <v>0.07898672594441673</v>
       </c>
       <c r="J195">
         <v>1</v>
@@ -6649,31 +6649,31 @@
     </row>
     <row r="196" spans="1:10">
       <c r="A196">
-        <v>0.7287650321020109</v>
+        <v>0.2344284137404762</v>
       </c>
       <c r="B196">
-        <v>0.05832462004614536</v>
+        <v>0.07618386012730816</v>
       </c>
       <c r="C196">
-        <v>0.1272050048288641</v>
+        <v>0.1265146590882626</v>
       </c>
       <c r="D196">
-        <v>0.4043001519344163</v>
+        <v>0.0174254134248898</v>
       </c>
       <c r="E196">
-        <v>0.4959212467327742</v>
+        <v>0.2935357283055383</v>
       </c>
       <c r="F196">
-        <v>0.08209487293574494</v>
+        <v>0.4588964303515892</v>
       </c>
       <c r="G196">
-        <v>0.4029117150544712</v>
+        <v>0.1090849402773398</v>
       </c>
       <c r="H196">
-        <v>0.1854820507369701</v>
+        <v>0.3307894976435804</v>
       </c>
       <c r="I196">
-        <v>0.7485256226556762</v>
+        <v>0.09581182835477493</v>
       </c>
       <c r="J196">
         <v>1</v>
@@ -6681,31 +6681,31 @@
     </row>
     <row r="197" spans="1:10">
       <c r="A197">
-        <v>0.05653828331997179</v>
+        <v>0.8039324640877132</v>
       </c>
       <c r="B197">
-        <v>0.005120380890597298</v>
+        <v>0.3585931472252251</v>
       </c>
       <c r="C197">
-        <v>0.4737401969109731</v>
+        <v>0.1717679167174454</v>
       </c>
       <c r="D197">
-        <v>0.3692311663586704</v>
+        <v>0.01678468809301365</v>
       </c>
       <c r="E197">
-        <v>0.2259506648035337</v>
+        <v>0.2925855301384894</v>
       </c>
       <c r="F197">
-        <v>0.3487279604155601</v>
+        <v>0.238785762150177</v>
       </c>
       <c r="G197">
-        <v>0.5504025326227168</v>
+        <v>0.1116242697268221</v>
       </c>
       <c r="H197">
-        <v>0.01869534754703261</v>
+        <v>0.09301518200645952</v>
       </c>
       <c r="I197">
-        <v>0.4319784529754283</v>
+        <v>0.01387690250855647</v>
       </c>
       <c r="J197">
         <v>1</v>
@@ -6713,31 +6713,31 @@
     </row>
     <row r="198" spans="1:10">
       <c r="A198">
-        <v>0.6639428338031081</v>
+        <v>0.3264519033584605</v>
       </c>
       <c r="B198">
-        <v>0.0150048437720719</v>
+        <v>0.3737745128332731</v>
       </c>
       <c r="C198">
-        <v>0.4022317316251327</v>
+        <v>0.1582001047921661</v>
       </c>
       <c r="D198">
-        <v>0.1247792377083972</v>
+        <v>0.0068700837597449</v>
       </c>
       <c r="E198">
-        <v>0.3094985196721358</v>
+        <v>0.556377950449828</v>
       </c>
       <c r="F198">
-        <v>0.264217971015421</v>
+        <v>0.6052661111618023</v>
       </c>
       <c r="G198">
-        <v>0.03283473933897131</v>
+        <v>0.1235491392442879</v>
       </c>
       <c r="H198">
-        <v>0.5593371626434286</v>
+        <v>0.1775652747266384</v>
       </c>
       <c r="I198">
-        <v>0.5635673911985526</v>
+        <v>0.07445437259365435</v>
       </c>
       <c r="J198">
         <v>1</v>
@@ -6745,31 +6745,31 @@
     </row>
     <row r="199" spans="1:10">
       <c r="A199">
-        <v>0.3583328178668458</v>
+        <v>0.8045432820047078</v>
       </c>
       <c r="B199">
-        <v>0.0765076694569215</v>
+        <v>0.3985974725661328</v>
       </c>
       <c r="C199">
-        <v>0.302121607946647</v>
+        <v>0.4302177530796298</v>
       </c>
       <c r="D199">
-        <v>0.07448924041640903</v>
+        <v>0.01043367213729297</v>
       </c>
       <c r="E199">
-        <v>0.3212760507987353</v>
+        <v>0.3566881450289986</v>
       </c>
       <c r="F199">
-        <v>0.1293949156958865</v>
+        <v>0.2190315675083808</v>
       </c>
       <c r="G199">
-        <v>0.4011122576728299</v>
+        <v>0.1020492240173749</v>
       </c>
       <c r="H199">
-        <v>0.1914041971205271</v>
+        <v>0.3458271012199256</v>
       </c>
       <c r="I199">
-        <v>0.7022210058074559</v>
+        <v>0.0372311976947629</v>
       </c>
       <c r="J199">
         <v>1</v>
@@ -6777,31 +6777,31 @@
     </row>
     <row r="200" spans="1:10">
       <c r="A200">
-        <v>0.6832696914243995</v>
+        <v>0.2342330355944811</v>
       </c>
       <c r="B200">
-        <v>0.09867123960696728</v>
+        <v>0.3698378303788819</v>
       </c>
       <c r="C200">
-        <v>0.41370154892183</v>
+        <v>0.09587401495587088</v>
       </c>
       <c r="D200">
-        <v>0.1917619228002347</v>
+        <v>0.01514547878217965</v>
       </c>
       <c r="E200">
-        <v>0.8477153543278529</v>
+        <v>0.303125067966911</v>
       </c>
       <c r="F200">
-        <v>0.3114429241276678</v>
+        <v>0.2519647033653453</v>
       </c>
       <c r="G200">
-        <v>0.1055500697984871</v>
+        <v>0.1371596968151954</v>
       </c>
       <c r="H200">
-        <v>0.3701600428893558</v>
+        <v>0.1831872710690134</v>
       </c>
       <c r="I200">
-        <v>0.7710109408729058</v>
+        <v>0.03599145367614175</v>
       </c>
       <c r="J200">
         <v>1</v>
@@ -6809,31 +6809,31 @@
     </row>
     <row r="201" spans="1:10">
       <c r="A201">
-        <v>0.6912622126410621</v>
+        <v>0.3111569473756264</v>
       </c>
       <c r="B201">
-        <v>0.08186712998168422</v>
+        <v>0.1445938494833554</v>
       </c>
       <c r="C201">
-        <v>0.3779200215701425</v>
+        <v>0.07163022950095739</v>
       </c>
       <c r="D201">
-        <v>0.1005039744696788</v>
+        <v>0.005795640036902302</v>
       </c>
       <c r="E201">
-        <v>0.4668522585427893</v>
+        <v>0.2620150376695878</v>
       </c>
       <c r="F201">
-        <v>0.3608765975871505</v>
+        <v>0.2656876397896884</v>
       </c>
       <c r="G201">
-        <v>0.1085580047513324</v>
+        <v>0.1010195122890877</v>
       </c>
       <c r="H201">
-        <v>0.235557396238818</v>
+        <v>0.4183067678027823</v>
       </c>
       <c r="I201">
-        <v>0.6476418468209888</v>
+        <v>0.07165655564225892</v>
       </c>
       <c r="J201">
         <v>1</v>
